--- a/AUTE/Testsignaler.xlsx
+++ b/AUTE/Testsignaler.xlsx
@@ -365,15 +365,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="E4:L15"/>
+  <dimension ref="E4:X15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="4" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="5:24" x14ac:dyDescent="0.25">
       <c r="E4" t="s">
         <v>0</v>
       </c>
@@ -395,8 +395,32 @@
       <c r="L4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="Q4">
+        <v>-2</v>
+      </c>
+      <c r="R4">
+        <v>-0.4</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0.1</v>
+      </c>
+      <c r="V4">
+        <v>1</v>
+      </c>
+      <c r="W4">
+        <v>2.8</v>
+      </c>
+      <c r="X4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="5:24" x14ac:dyDescent="0.25">
       <c r="E5" t="s">
         <v>1</v>
       </c>
@@ -418,8 +442,14 @@
       <c r="L5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="P5">
+        <v>-7</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="5:24" x14ac:dyDescent="0.25">
       <c r="E6">
         <v>1</v>
       </c>
@@ -441,8 +471,14 @@
       <c r="L6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="P6">
+        <v>-1</v>
+      </c>
+      <c r="T6">
+        <v>-0.7</v>
+      </c>
+    </row>
+    <row r="7" spans="5:24" x14ac:dyDescent="0.25">
       <c r="E7">
         <v>2</v>
       </c>
@@ -464,8 +500,14 @@
       <c r="L7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="P7">
+        <v>-0.2</v>
+      </c>
+      <c r="R7">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="8" spans="5:24" x14ac:dyDescent="0.25">
       <c r="E8">
         <v>3</v>
       </c>
@@ -487,8 +529,20 @@
       <c r="L8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>2</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="5:24" x14ac:dyDescent="0.25">
       <c r="E9">
         <v>4</v>
       </c>
@@ -510,8 +564,14 @@
       <c r="L9">
         <v>-0.7</v>
       </c>
-    </row>
-    <row r="10" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="P9">
+        <v>1</v>
+      </c>
+      <c r="T9">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="10" spans="5:24" x14ac:dyDescent="0.25">
       <c r="E10">
         <v>5</v>
       </c>
@@ -533,8 +593,14 @@
       <c r="L10">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="11" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="P10">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="U10">
+        <v>-0.4</v>
+      </c>
+    </row>
+    <row r="11" spans="5:24" x14ac:dyDescent="0.25">
       <c r="E11">
         <v>6</v>
       </c>
@@ -556,8 +622,14 @@
       <c r="L11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="P11">
+        <v>1.5</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="5:24" x14ac:dyDescent="0.25">
       <c r="E12">
         <v>7</v>
       </c>
@@ -580,7 +652,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="13" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="5:24" x14ac:dyDescent="0.25">
       <c r="E13">
         <v>8</v>
       </c>
@@ -603,7 +675,7 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="14" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="5:24" x14ac:dyDescent="0.25">
       <c r="E14">
         <v>9</v>
       </c>
@@ -626,7 +698,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="5:24" x14ac:dyDescent="0.25">
       <c r="E15">
         <v>10</v>
       </c>
@@ -650,6 +722,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState ref="R5:R15">
+    <sortCondition ref="R5"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/AUTE/Testsignaler.xlsx
+++ b/AUTE/Testsignaler.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18201"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Laste\Documents\GitHub\LYAK\AUTE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stenh\Documents\GitHub\LYAK\AUTE\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11880"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9228" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="9228"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Lyttetest" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="29">
   <si>
     <t>Signal</t>
   </si>
@@ -49,12 +51,86 @@
   <si>
     <t>z</t>
   </si>
+  <si>
+    <t>Signal 1</t>
+  </si>
+  <si>
+    <t>Azi</t>
+  </si>
+  <si>
+    <t>Ele</t>
+  </si>
+  <si>
+    <t>Testperson:</t>
+  </si>
+  <si>
+    <t>Signal 2</t>
+  </si>
+  <si>
+    <t>Signal 3</t>
+  </si>
+  <si>
+    <t>Signal 4</t>
+  </si>
+  <si>
+    <t>Signal 5</t>
+  </si>
+  <si>
+    <t>Signal 6</t>
+  </si>
+  <si>
+    <t>Signal 7</t>
+  </si>
+  <si>
+    <t>Signal 8</t>
+  </si>
+  <si>
+    <t>Signal 9</t>
+  </si>
+  <si>
+    <t>Signal 10</t>
+  </si>
+  <si>
+    <t>Aktuel</t>
+  </si>
+  <si>
+    <t>Alder:</t>
+  </si>
+  <si>
+    <t>Køn:</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>middel</t>
+  </si>
+  <si>
+    <t>varians</t>
+  </si>
+  <si>
+    <t>std.afv</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="170" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -71,7 +147,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -79,14 +155,120 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Komma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -367,13 +549,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E4:X15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="Q21" sqref="Q21"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
+    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="1">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="4" spans="5:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="5:24" x14ac:dyDescent="0.3">
       <c r="E4" t="s">
         <v>0</v>
       </c>
@@ -420,7 +605,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="5:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="5:24" x14ac:dyDescent="0.3">
       <c r="E5" t="s">
         <v>1</v>
       </c>
@@ -449,12 +634,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="5:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="5:24" x14ac:dyDescent="0.3">
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>270</v>
+        <f>360-270</f>
+        <v>90</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -478,12 +664,13 @@
         <v>-0.7</v>
       </c>
     </row>
-    <row r="7" spans="5:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="5:24" x14ac:dyDescent="0.3">
       <c r="E7">
         <v>2</v>
       </c>
       <c r="F7">
-        <v>90</v>
+        <f>360-90</f>
+        <v>270</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -507,11 +694,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="8" spans="5:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="5:24" x14ac:dyDescent="0.3">
       <c r="E8">
         <v>3</v>
       </c>
       <c r="F8">
+        <f>360-180</f>
         <v>180</v>
       </c>
       <c r="G8">
@@ -542,11 +730,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="5:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="5:24" x14ac:dyDescent="0.3">
       <c r="E9">
         <v>4</v>
       </c>
       <c r="F9">
+        <f>360-180</f>
         <v>180</v>
       </c>
       <c r="G9">
@@ -571,7 +760,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="10" spans="5:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="5:24" x14ac:dyDescent="0.3">
       <c r="E10">
         <v>5</v>
       </c>
@@ -600,12 +789,13 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="11" spans="5:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="5:24" x14ac:dyDescent="0.3">
       <c r="E11">
         <v>6</v>
       </c>
       <c r="F11">
-        <v>300</v>
+        <f>360-300</f>
+        <v>60</v>
       </c>
       <c r="G11">
         <v>10</v>
@@ -629,12 +819,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="5:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="5:24" x14ac:dyDescent="0.3">
       <c r="E12">
         <v>7</v>
       </c>
       <c r="F12">
-        <v>120</v>
+        <f>360-120</f>
+        <v>240</v>
       </c>
       <c r="G12">
         <v>-10</v>
@@ -652,12 +843,13 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="13" spans="5:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="5:24" x14ac:dyDescent="0.3">
       <c r="E13">
         <v>8</v>
       </c>
       <c r="F13">
-        <v>355</v>
+        <f>360-355</f>
+        <v>5</v>
       </c>
       <c r="G13">
         <v>-20</v>
@@ -675,7 +867,7 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="14" spans="5:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="5:24" x14ac:dyDescent="0.3">
       <c r="E14">
         <v>9</v>
       </c>
@@ -698,12 +890,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="5:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="5:24" x14ac:dyDescent="0.3">
       <c r="E15">
         <v>10</v>
       </c>
       <c r="F15">
-        <v>225</v>
+        <f>360-225</f>
+        <v>135</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -727,4 +920,4005 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C1:AL34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="O7" workbookViewId="0">
+      <selection activeCell="W35" sqref="W35"/>
+    </sheetView>
+    <sheetView workbookViewId="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="10.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:38" x14ac:dyDescent="0.3">
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="3:38" x14ac:dyDescent="0.3">
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>24</v>
+      </c>
+      <c r="S2" t="s">
+        <v>24</v>
+      </c>
+      <c r="U2" t="s">
+        <v>24</v>
+      </c>
+      <c r="W2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="3:38" x14ac:dyDescent="0.3">
+      <c r="D3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3">
+        <v>60</v>
+      </c>
+      <c r="I3">
+        <v>56</v>
+      </c>
+      <c r="K3">
+        <v>51</v>
+      </c>
+      <c r="M3">
+        <v>26</v>
+      </c>
+      <c r="O3">
+        <v>22</v>
+      </c>
+      <c r="Q3">
+        <v>26</v>
+      </c>
+      <c r="S3">
+        <v>24</v>
+      </c>
+      <c r="U3">
+        <v>55</v>
+      </c>
+      <c r="W3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="3:38" x14ac:dyDescent="0.3">
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14">
+        <v>1</v>
+      </c>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14">
+        <v>2</v>
+      </c>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14">
+        <v>3</v>
+      </c>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14">
+        <v>4</v>
+      </c>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14">
+        <v>5</v>
+      </c>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14">
+        <v>6</v>
+      </c>
+      <c r="R4" s="14"/>
+      <c r="S4" s="14">
+        <v>7</v>
+      </c>
+      <c r="T4" s="14"/>
+      <c r="U4" s="14">
+        <v>8</v>
+      </c>
+      <c r="V4" s="14"/>
+      <c r="W4" s="1">
+        <v>9</v>
+      </c>
+      <c r="X4" s="1"/>
+      <c r="Z4" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD4">
+        <v>1</v>
+      </c>
+      <c r="AE4">
+        <v>2</v>
+      </c>
+      <c r="AF4">
+        <v>3</v>
+      </c>
+      <c r="AG4">
+        <v>4</v>
+      </c>
+      <c r="AH4">
+        <v>5</v>
+      </c>
+      <c r="AI4">
+        <v>6</v>
+      </c>
+      <c r="AJ4">
+        <v>7</v>
+      </c>
+      <c r="AK4">
+        <v>8</v>
+      </c>
+      <c r="AL4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="3:38" x14ac:dyDescent="0.3">
+      <c r="C5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="3">
+        <v>90</v>
+      </c>
+      <c r="F5" s="4">
+        <f>E7*COS(RADIANS(E5))*COS(RADIANS(E6))</f>
+        <v>6.1257422745431001E-17</v>
+      </c>
+      <c r="G5" s="3">
+        <f>360-315</f>
+        <v>45</v>
+      </c>
+      <c r="H5" s="4">
+        <f>G7*COS(RADIANS(G5))*COS(RADIANS(G6))</f>
+        <v>0.25000000000000006</v>
+      </c>
+      <c r="I5" s="3">
+        <f>360-270</f>
+        <v>90</v>
+      </c>
+      <c r="J5" s="4">
+        <f>I7*COS(RADIANS(I5))*COS(RADIANS(I6))</f>
+        <v>6.1257422745431001E-17</v>
+      </c>
+      <c r="K5" s="3">
+        <f>360-270</f>
+        <v>90</v>
+      </c>
+      <c r="L5" s="4">
+        <f>K7*COS(RADIANS(K5))*COS(RADIANS(K6))</f>
+        <v>6.1257422745431001E-17</v>
+      </c>
+      <c r="M5" s="3">
+        <f>360-270</f>
+        <v>90</v>
+      </c>
+      <c r="N5" s="4">
+        <f>M7*COS(RADIANS(M5))*COS(RADIANS(M6))</f>
+        <v>3.06287113727155E-17</v>
+      </c>
+      <c r="O5" s="3">
+        <f>360-270</f>
+        <v>90</v>
+      </c>
+      <c r="P5" s="4">
+        <f>O7*COS(RADIANS(O5))*COS(RADIANS(O6))</f>
+        <v>1.1512629624448876E-16</v>
+      </c>
+      <c r="Q5" s="3">
+        <f>360-300</f>
+        <v>60</v>
+      </c>
+      <c r="R5" s="4">
+        <f>Q7*COS(RADIANS(Q5))*COS(RADIANS(Q6))</f>
+        <v>0.35355339059327384</v>
+      </c>
+      <c r="S5" s="3">
+        <f>360-270</f>
+        <v>90</v>
+      </c>
+      <c r="T5" s="4">
+        <f>S7*COS(RADIANS(S5))*COS(RADIANS(S6))</f>
+        <v>2.1657769510652661E-17</v>
+      </c>
+      <c r="U5" s="3">
+        <f>360-270</f>
+        <v>90</v>
+      </c>
+      <c r="V5" s="4">
+        <f>U7*COS(RADIANS(U5))*COS(RADIANS(U6))</f>
+        <v>6.1257422745431001E-17</v>
+      </c>
+      <c r="W5" s="5">
+        <v>90</v>
+      </c>
+      <c r="X5" s="4">
+        <f>W7*COS(RADIANS(W5))*COS(RADIANS(W6))</f>
+        <v>3.06287113727155E-17</v>
+      </c>
+      <c r="Z5">
+        <f>AVERAGE(G5:U5)</f>
+        <v>43.040236892706226</v>
+      </c>
+      <c r="AA5">
+        <f>_xlfn.VAR.P(G5:U5)</f>
+        <v>1762.5505082197301</v>
+      </c>
+      <c r="AB5">
+        <f>_xlfn.STDEV.P(G5:U5)</f>
+        <v>41.98274059920017</v>
+      </c>
+      <c r="AD5">
+        <f>_xlfn.NORM.DIST(G5,$Z5,$AB5,FALSE)</f>
+        <v>9.4921831075243396E-3</v>
+      </c>
+      <c r="AE5">
+        <f>_xlfn.NORM.DIST(I5,$Z5,$AB5,FALSE)</f>
+        <v>5.083408164394186E-3</v>
+      </c>
+      <c r="AF5">
+        <f>_xlfn.NORM.DIST(K5,$Z5,$AB5,FALSE)</f>
+        <v>5.083408164394186E-3</v>
+      </c>
+      <c r="AG5">
+        <f>_xlfn.NORM.DIST(M5,$Z5,$AB5,FALSE)</f>
+        <v>5.083408164394186E-3</v>
+      </c>
+      <c r="AH5">
+        <f>_xlfn.NORM.DIST(O5,$Z5,$AB5,FALSE)</f>
+        <v>5.083408164394186E-3</v>
+      </c>
+      <c r="AI5">
+        <f>_xlfn.NORM.DIST(Q5,$Z5,$AB5,FALSE)</f>
+        <v>8.757953982267851E-3</v>
+      </c>
+      <c r="AJ5">
+        <f>_xlfn.NORM.DIST(S5,$Z5,$AB5,FALSE)</f>
+        <v>5.083408164394186E-3</v>
+      </c>
+      <c r="AK5">
+        <f>_xlfn.NORM.DIST(U5,$Z5,$AB5,FALSE)</f>
+        <v>5.083408164394186E-3</v>
+      </c>
+      <c r="AL5">
+        <f>_xlfn.NORM.DIST(W5,$Z5,$AB5,FALSE)</f>
+        <v>5.083408164394186E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="3:38" x14ac:dyDescent="0.3">
+      <c r="C6" s="6"/>
+      <c r="D6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="7">
+        <v>0</v>
+      </c>
+      <c r="F6" s="8">
+        <f>E7*SIN(RADIANS(E5))*COS(RADIANS(E6))</f>
+        <v>1</v>
+      </c>
+      <c r="G6" s="7">
+        <v>45</v>
+      </c>
+      <c r="H6" s="8">
+        <f>G7*SIN(RADIANS(G5))*COS(RADIANS(G6))</f>
+        <v>0.25</v>
+      </c>
+      <c r="I6" s="7">
+        <v>0</v>
+      </c>
+      <c r="J6" s="8">
+        <f>I7*SIN(RADIANS(I5))*COS(RADIANS(I6))</f>
+        <v>1</v>
+      </c>
+      <c r="K6" s="7">
+        <v>0</v>
+      </c>
+      <c r="L6" s="8">
+        <f>K7*SIN(RADIANS(K5))*COS(RADIANS(K6))</f>
+        <v>1</v>
+      </c>
+      <c r="M6" s="7">
+        <v>0</v>
+      </c>
+      <c r="N6" s="8">
+        <f>M7*SIN(RADIANS(M5))*COS(RADIANS(M6))</f>
+        <v>0.5</v>
+      </c>
+      <c r="O6" s="7">
+        <v>20</v>
+      </c>
+      <c r="P6" s="8">
+        <f>O7*SIN(RADIANS(O5))*COS(RADIANS(O6))</f>
+        <v>1.8793852415718169</v>
+      </c>
+      <c r="Q6" s="7">
+        <v>45</v>
+      </c>
+      <c r="R6" s="8">
+        <f>Q7*SIN(RADIANS(Q5))*COS(RADIANS(Q6))</f>
+        <v>0.61237243569579458</v>
+      </c>
+      <c r="S6" s="7">
+        <v>45</v>
+      </c>
+      <c r="T6" s="8">
+        <f>S7*SIN(RADIANS(S5))*COS(RADIANS(S6))</f>
+        <v>0.35355339059327379</v>
+      </c>
+      <c r="U6" s="7">
+        <v>0</v>
+      </c>
+      <c r="V6" s="8">
+        <f>U7*SIN(RADIANS(U5))*COS(RADIANS(U6))</f>
+        <v>1</v>
+      </c>
+      <c r="W6" s="9">
+        <v>0</v>
+      </c>
+      <c r="X6" s="8">
+        <f>W7*SIN(RADIANS(W5))*COS(RADIANS(W6))</f>
+        <v>0.5</v>
+      </c>
+      <c r="Z6">
+        <f t="shared" ref="Z6:Z34" si="0">AVERAGE(G6:U6)</f>
+        <v>10.706354071190725</v>
+      </c>
+      <c r="AA6">
+        <f>_xlfn.VAR.P(G6:U6)</f>
+        <v>317.46362176138035</v>
+      </c>
+      <c r="AB6">
+        <f t="shared" ref="AB6:AB34" si="1">_xlfn.STDEV.P(G6:U6)</f>
+        <v>17.817508853972274</v>
+      </c>
+      <c r="AD6">
+        <f t="shared" ref="AD6:AD34" si="2">_xlfn.NORM.DIST(G6,$Z6,$AB6,FALSE)</f>
+        <v>3.5126443148381942E-3</v>
+      </c>
+      <c r="AE6">
+        <f t="shared" ref="AE6:AE34" si="3">_xlfn.NORM.DIST(I6,$Z6,$AB6,FALSE)</f>
+        <v>1.8692101033503366E-2</v>
+      </c>
+      <c r="AF6">
+        <f t="shared" ref="AF6:AF34" si="4">_xlfn.NORM.DIST(K6,$Z6,$AB6,FALSE)</f>
+        <v>1.8692101033503366E-2</v>
+      </c>
+      <c r="AG6">
+        <f t="shared" ref="AG6:AG34" si="5">_xlfn.NORM.DIST(M6,$Z6,$AB6,FALSE)</f>
+        <v>1.8692101033503366E-2</v>
+      </c>
+      <c r="AH6">
+        <f t="shared" ref="AH6:AH34" si="6">_xlfn.NORM.DIST(O6,$Z6,$AB6,FALSE)</f>
+        <v>1.9542681593486023E-2</v>
+      </c>
+      <c r="AI6">
+        <f t="shared" ref="AI6:AI34" si="7">_xlfn.NORM.DIST(Q6,$Z6,$AB6,FALSE)</f>
+        <v>3.5126443148381942E-3</v>
+      </c>
+      <c r="AJ6">
+        <f t="shared" ref="AJ6:AJ34" si="8">_xlfn.NORM.DIST(S6,$Z6,$AB6,FALSE)</f>
+        <v>3.5126443148381942E-3</v>
+      </c>
+      <c r="AK6">
+        <f t="shared" ref="AK6:AK34" si="9">_xlfn.NORM.DIST(U6,$Z6,$AB6,FALSE)</f>
+        <v>1.8692101033503366E-2</v>
+      </c>
+      <c r="AL6">
+        <f t="shared" ref="AL6:AL34" si="10">_xlfn.NORM.DIST(W6,$Z6,$AB6,FALSE)</f>
+        <v>1.8692101033503366E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="3:38" x14ac:dyDescent="0.3">
+      <c r="C7" s="6"/>
+      <c r="D7" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="7">
+        <v>1</v>
+      </c>
+      <c r="F7" s="8">
+        <f>E7*SIN(RADIANS(E6))</f>
+        <v>0</v>
+      </c>
+      <c r="G7" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="H7" s="8">
+        <f>G7*SIN(RADIANS(G6))</f>
+        <v>0.35355339059327373</v>
+      </c>
+      <c r="I7" s="7">
+        <v>1</v>
+      </c>
+      <c r="J7" s="8">
+        <f>I7*SIN(RADIANS(I6))</f>
+        <v>0</v>
+      </c>
+      <c r="K7" s="7">
+        <v>1</v>
+      </c>
+      <c r="L7" s="8">
+        <f>K7*SIN(RADIANS(K6))</f>
+        <v>0</v>
+      </c>
+      <c r="M7" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="N7" s="8">
+        <f>M7*SIN(RADIANS(M6))</f>
+        <v>0</v>
+      </c>
+      <c r="O7" s="7">
+        <v>2</v>
+      </c>
+      <c r="P7" s="8">
+        <f>O7*SIN(RADIANS(O6))</f>
+        <v>0.68404028665133743</v>
+      </c>
+      <c r="Q7" s="7">
+        <v>1</v>
+      </c>
+      <c r="R7" s="8">
+        <f>Q7*SIN(RADIANS(Q6))</f>
+        <v>0.70710678118654746</v>
+      </c>
+      <c r="S7" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="T7" s="8">
+        <f>S7*SIN(RADIANS(S6))</f>
+        <v>0.35355339059327373</v>
+      </c>
+      <c r="U7" s="7">
+        <v>1</v>
+      </c>
+      <c r="V7" s="8">
+        <f>U7*SIN(RADIANS(U6))</f>
+        <v>0</v>
+      </c>
+      <c r="W7" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="X7" s="8">
+        <f>W7*SIN(RADIANS(W6))</f>
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <f t="shared" si="0"/>
+        <v>0.63988358993496219</v>
+      </c>
+      <c r="AA7">
+        <f t="shared" ref="AA7:AA34" si="11">_xlfn.VAR.P(G7:U7)</f>
+        <v>0.25507639891608141</v>
+      </c>
+      <c r="AB7">
+        <f t="shared" si="1"/>
+        <v>0.50505088745202831</v>
+      </c>
+      <c r="AD7">
+        <f t="shared" si="2"/>
+        <v>0.76018120858718652</v>
+      </c>
+      <c r="AE7">
+        <f t="shared" si="3"/>
+        <v>0.6125968038701618</v>
+      </c>
+      <c r="AF7">
+        <f t="shared" si="4"/>
+        <v>0.6125968038701618</v>
+      </c>
+      <c r="AG7">
+        <f t="shared" si="5"/>
+        <v>0.76018120858718652</v>
+      </c>
+      <c r="AH7">
+        <f t="shared" si="6"/>
+        <v>2.1024989559742729E-2</v>
+      </c>
+      <c r="AI7">
+        <f t="shared" si="7"/>
+        <v>0.6125968038701618</v>
+      </c>
+      <c r="AJ7">
+        <f t="shared" si="8"/>
+        <v>0.76018120858718652</v>
+      </c>
+      <c r="AK7">
+        <f t="shared" si="9"/>
+        <v>0.6125968038701618</v>
+      </c>
+      <c r="AL7">
+        <f t="shared" si="10"/>
+        <v>0.76018120858718652</v>
+      </c>
+    </row>
+    <row r="8" spans="3:38" x14ac:dyDescent="0.3">
+      <c r="C8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="3">
+        <f>360-270</f>
+        <v>90</v>
+      </c>
+      <c r="F8" s="4">
+        <f>E10*COS(RADIANS(E8))*COS(RADIANS(E9))</f>
+        <v>1.22514845490862E-16</v>
+      </c>
+      <c r="G8" s="3">
+        <f>360-90</f>
+        <v>270</v>
+      </c>
+      <c r="H8" s="4">
+        <f>G10*COS(RADIANS(G8))*COS(RADIANS(G9))</f>
+        <v>-1.83772268236293E-15</v>
+      </c>
+      <c r="I8" s="3">
+        <f>360-270</f>
+        <v>90</v>
+      </c>
+      <c r="J8" s="4">
+        <f>I10*COS(RADIANS(I8))*COS(RADIANS(I9))</f>
+        <v>3.06287113727155E-17</v>
+      </c>
+      <c r="K8" s="3">
+        <f>360-135</f>
+        <v>225</v>
+      </c>
+      <c r="L8" s="4">
+        <f>K10*COS(RADIANS(K8))*COS(RADIANS(K9))</f>
+        <v>-5.7922796533956937</v>
+      </c>
+      <c r="M8" s="3">
+        <f>360-135</f>
+        <v>225</v>
+      </c>
+      <c r="N8" s="4">
+        <f>M10*COS(RADIANS(M8))*COS(RADIANS(M9))</f>
+        <v>-4.2866070498705628</v>
+      </c>
+      <c r="O8" s="3">
+        <f>360-120</f>
+        <v>240</v>
+      </c>
+      <c r="P8" s="4">
+        <f>O10*COS(RADIANS(O8))*COS(RADIANS(O9))</f>
+        <v>-0.43301270189221974</v>
+      </c>
+      <c r="Q8" s="3">
+        <f>360-110</f>
+        <v>250</v>
+      </c>
+      <c r="R8" s="4">
+        <f>Q10*COS(RADIANS(Q8))*COS(RADIANS(Q9))</f>
+        <v>-1.2855752193730781</v>
+      </c>
+      <c r="S8" s="3">
+        <f>360-90</f>
+        <v>270</v>
+      </c>
+      <c r="T8" s="4">
+        <f>S10*COS(RADIANS(S8))*COS(RADIANS(S9))</f>
+        <v>-1.2994661706391596E-15</v>
+      </c>
+      <c r="U8" s="3">
+        <f>360-60</f>
+        <v>300</v>
+      </c>
+      <c r="V8" s="4">
+        <f>U10*COS(RADIANS(U8))*COS(RADIANS(U9))</f>
+        <v>0.8550503583141722</v>
+      </c>
+      <c r="W8" s="5">
+        <v>270</v>
+      </c>
+      <c r="X8" s="4">
+        <f>W10*COS(RADIANS(W8))*COS(RADIANS(W9))</f>
+        <v>-6.4973308531957978E-17</v>
+      </c>
+      <c r="Z8">
+        <f t="shared" si="0"/>
+        <v>123.88016835836456</v>
+      </c>
+      <c r="AA8">
+        <f t="shared" si="11"/>
+        <v>15673.954934651772</v>
+      </c>
+      <c r="AB8">
+        <f t="shared" si="1"/>
+        <v>125.19566659693847</v>
+      </c>
+      <c r="AD8">
+        <f t="shared" si="2"/>
+        <v>1.6125885658760746E-3</v>
+      </c>
+      <c r="AE8">
+        <f t="shared" si="3"/>
+        <v>3.0719788145043693E-3</v>
+      </c>
+      <c r="AF8">
+        <f t="shared" si="4"/>
+        <v>2.2996428400371949E-3</v>
+      </c>
+      <c r="AG8">
+        <f t="shared" si="5"/>
+        <v>2.2996428400371949E-3</v>
+      </c>
+      <c r="AH8">
+        <f t="shared" si="6"/>
+        <v>2.072601270824836E-3</v>
+      </c>
+      <c r="AI8">
+        <f t="shared" si="7"/>
+        <v>1.9184736365041775E-3</v>
+      </c>
+      <c r="AJ8">
+        <f t="shared" si="8"/>
+        <v>1.6125885658760746E-3</v>
+      </c>
+      <c r="AK8">
+        <f t="shared" si="9"/>
+        <v>1.1846611903588561E-3</v>
+      </c>
+      <c r="AL8">
+        <f t="shared" si="10"/>
+        <v>1.6125885658760746E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="3:38" x14ac:dyDescent="0.3">
+      <c r="C9" s="6"/>
+      <c r="D9" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="7">
+        <v>0</v>
+      </c>
+      <c r="F9" s="8">
+        <f>E10*SIN(RADIANS(E8))*COS(RADIANS(E9))</f>
+        <v>2</v>
+      </c>
+      <c r="G9" s="7">
+        <v>0</v>
+      </c>
+      <c r="H9" s="8">
+        <f>G10*SIN(RADIANS(G8))*COS(RADIANS(G9))</f>
+        <v>-10</v>
+      </c>
+      <c r="I9" s="7">
+        <v>0</v>
+      </c>
+      <c r="J9" s="8">
+        <f>I10*SIN(RADIANS(I8))*COS(RADIANS(I9))</f>
+        <v>0.5</v>
+      </c>
+      <c r="K9" s="7">
+        <v>-35</v>
+      </c>
+      <c r="L9" s="8">
+        <f>K10*SIN(RADIANS(K8))*COS(RADIANS(K9))</f>
+        <v>-5.792279653395692</v>
+      </c>
+      <c r="M9" s="7">
+        <v>-30</v>
+      </c>
+      <c r="N9" s="8">
+        <f>M10*SIN(RADIANS(M8))*COS(RADIANS(M9))</f>
+        <v>-4.2866070498705611</v>
+      </c>
+      <c r="O9" s="7">
+        <v>-30</v>
+      </c>
+      <c r="P9" s="8">
+        <f>O10*SIN(RADIANS(O8))*COS(RADIANS(O9))</f>
+        <v>-0.74999999999999978</v>
+      </c>
+      <c r="Q9" s="7">
+        <v>-20</v>
+      </c>
+      <c r="R9" s="8">
+        <f>Q10*SIN(RADIANS(Q8))*COS(RADIANS(Q9))</f>
+        <v>-3.5320888862379562</v>
+      </c>
+      <c r="S9" s="7">
+        <v>45</v>
+      </c>
+      <c r="T9" s="8">
+        <f>S10*SIN(RADIANS(S8))*COS(RADIANS(S9))</f>
+        <v>-7.0710678118654755</v>
+      </c>
+      <c r="U9" s="7">
+        <v>70</v>
+      </c>
+      <c r="V9" s="8">
+        <f>U10*SIN(RADIANS(U8))*COS(RADIANS(U9))</f>
+        <v>-1.4809906636301196</v>
+      </c>
+      <c r="W9" s="9">
+        <v>45</v>
+      </c>
+      <c r="X9" s="8">
+        <f>W10*SIN(RADIANS(W8))*COS(RADIANS(W9))</f>
+        <v>-0.35355339059327379</v>
+      </c>
+      <c r="Z9">
+        <f t="shared" si="0"/>
+        <v>-2.0621362267579779</v>
+      </c>
+      <c r="AA9">
+        <f t="shared" si="11"/>
+        <v>700.09517121452086</v>
+      </c>
+      <c r="AB9">
+        <f t="shared" si="1"/>
+        <v>26.459311616414379</v>
+      </c>
+      <c r="AD9">
+        <f t="shared" si="2"/>
+        <v>1.5031854513632025E-2</v>
+      </c>
+      <c r="AE9">
+        <f t="shared" si="3"/>
+        <v>1.5031854513632025E-2</v>
+      </c>
+      <c r="AF9">
+        <f t="shared" si="4"/>
+        <v>6.947510030733183E-3</v>
+      </c>
+      <c r="AG9">
+        <f t="shared" si="5"/>
+        <v>8.6345110331321907E-3</v>
+      </c>
+      <c r="AH9">
+        <f t="shared" si="6"/>
+        <v>8.6345110331321907E-3</v>
+      </c>
+      <c r="AI9">
+        <f t="shared" si="7"/>
+        <v>1.1982009380764675E-2</v>
+      </c>
+      <c r="AJ9">
+        <f t="shared" si="8"/>
+        <v>3.0999679137472761E-3</v>
+      </c>
+      <c r="AK9">
+        <f t="shared" si="9"/>
+        <v>3.6952450741414063E-4</v>
+      </c>
+      <c r="AL9">
+        <f t="shared" si="10"/>
+        <v>3.0999679137472761E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="3:38" x14ac:dyDescent="0.3">
+      <c r="C10" s="10"/>
+      <c r="D10" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="11">
+        <v>2</v>
+      </c>
+      <c r="F10" s="12">
+        <f>E10*SIN(RADIANS(E9))</f>
+        <v>0</v>
+      </c>
+      <c r="G10" s="11">
+        <v>10</v>
+      </c>
+      <c r="H10" s="12">
+        <f>G10*SIN(RADIANS(G9))</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="J10" s="12">
+        <f>I10*SIN(RADIANS(I9))</f>
+        <v>0</v>
+      </c>
+      <c r="K10" s="11">
+        <v>10</v>
+      </c>
+      <c r="L10" s="12">
+        <f>K10*SIN(RADIANS(K9))</f>
+        <v>-5.7357643635104605</v>
+      </c>
+      <c r="M10" s="11">
+        <v>7</v>
+      </c>
+      <c r="N10" s="12">
+        <f>M10*SIN(RADIANS(M9))</f>
+        <v>-3.4999999999999996</v>
+      </c>
+      <c r="O10" s="11">
+        <v>1</v>
+      </c>
+      <c r="P10" s="12">
+        <f>O10*SIN(RADIANS(O9))</f>
+        <v>-0.49999999999999994</v>
+      </c>
+      <c r="Q10" s="11">
+        <v>4</v>
+      </c>
+      <c r="R10" s="12">
+        <f>Q10*SIN(RADIANS(Q9))</f>
+        <v>-1.3680805733026749</v>
+      </c>
+      <c r="S10" s="11">
+        <v>10</v>
+      </c>
+      <c r="T10" s="12">
+        <f>S10*SIN(RADIANS(S9))</f>
+        <v>7.0710678118654746</v>
+      </c>
+      <c r="U10" s="11">
+        <v>5</v>
+      </c>
+      <c r="V10" s="12">
+        <f>U10*SIN(RADIANS(U9))</f>
+        <v>4.6984631039295417</v>
+      </c>
+      <c r="W10" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="X10" s="12">
+        <f>W10*SIN(RADIANS(W9))</f>
+        <v>0.35355339059327373</v>
+      </c>
+      <c r="Z10">
+        <f t="shared" si="0"/>
+        <v>2.8978148583368224</v>
+      </c>
+      <c r="AA10">
+        <f t="shared" si="11"/>
+        <v>24.170711532719988</v>
+      </c>
+      <c r="AB10">
+        <f t="shared" si="1"/>
+        <v>4.9163717854450333</v>
+      </c>
+      <c r="AD10">
+        <f t="shared" si="2"/>
+        <v>2.8583024053185701E-2</v>
+      </c>
+      <c r="AE10">
+        <f t="shared" si="3"/>
+        <v>7.2046398176726464E-2</v>
+      </c>
+      <c r="AF10">
+        <f t="shared" si="4"/>
+        <v>2.8583024053185701E-2</v>
+      </c>
+      <c r="AG10">
+        <f t="shared" si="5"/>
+        <v>5.7290812481743496E-2</v>
+      </c>
+      <c r="AH10">
+        <f t="shared" si="6"/>
+        <v>7.5319603754372647E-2</v>
+      </c>
+      <c r="AI10">
+        <f t="shared" si="7"/>
+        <v>7.9131900930018512E-2</v>
+      </c>
+      <c r="AJ10">
+        <f t="shared" si="8"/>
+        <v>2.8583024053185701E-2</v>
+      </c>
+      <c r="AK10">
+        <f t="shared" si="9"/>
+        <v>7.4056615171642637E-2</v>
+      </c>
+      <c r="AL10">
+        <f t="shared" si="10"/>
+        <v>7.2046398176726464E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="3:38" x14ac:dyDescent="0.3">
+      <c r="C11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="3">
+        <f>360-180</f>
+        <v>180</v>
+      </c>
+      <c r="F11" s="4">
+        <f>E13*COS(RADIANS(E11))*COS(RADIANS(E12))</f>
+        <v>-1</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0</v>
+      </c>
+      <c r="H11" s="4">
+        <f>G13*COS(RADIANS(G11))*COS(RADIANS(G12))</f>
+        <v>1</v>
+      </c>
+      <c r="I11" s="3">
+        <f>360-315</f>
+        <v>45</v>
+      </c>
+      <c r="J11" s="4">
+        <f>I13*COS(RADIANS(I11))*COS(RADIANS(I12))</f>
+        <v>0.50000000000000011</v>
+      </c>
+      <c r="K11" s="3">
+        <v>0</v>
+      </c>
+      <c r="L11" s="4">
+        <f>K13*COS(RADIANS(K11))*COS(RADIANS(K12))</f>
+        <v>1</v>
+      </c>
+      <c r="M11" s="3">
+        <v>0</v>
+      </c>
+      <c r="N11" s="4">
+        <f>M13*COS(RADIANS(M11))*COS(RADIANS(M12))</f>
+        <v>1</v>
+      </c>
+      <c r="O11" s="3">
+        <v>0</v>
+      </c>
+      <c r="P11" s="4">
+        <f>O13*COS(RADIANS(O11))*COS(RADIANS(O12))</f>
+        <v>1</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>0</v>
+      </c>
+      <c r="R11" s="4">
+        <f>Q13*COS(RADIANS(Q11))*COS(RADIANS(Q12))</f>
+        <v>6.1257422745431001E-17</v>
+      </c>
+      <c r="S11" s="3">
+        <v>0</v>
+      </c>
+      <c r="T11" s="4">
+        <f>S13*COS(RADIANS(S11))*COS(RADIANS(S12))</f>
+        <v>1</v>
+      </c>
+      <c r="U11" s="3">
+        <v>0</v>
+      </c>
+      <c r="V11" s="4">
+        <f>U13*COS(RADIANS(U11))*COS(RADIANS(U12))</f>
+        <v>1</v>
+      </c>
+      <c r="W11" s="5">
+        <v>270</v>
+      </c>
+      <c r="X11" s="4">
+        <f>W13*COS(RADIANS(W11))*COS(RADIANS(W12))</f>
+        <v>-5.6287077621186709E-32</v>
+      </c>
+      <c r="Z11">
+        <f t="shared" si="0"/>
+        <v>3.3666666666666667</v>
+      </c>
+      <c r="AA11">
+        <f t="shared" si="11"/>
+        <v>124.01555555555555</v>
+      </c>
+      <c r="AB11">
+        <f t="shared" si="1"/>
+        <v>11.136227168819589</v>
+      </c>
+      <c r="AD11">
+        <f t="shared" si="2"/>
+        <v>3.4223603627440216E-2</v>
+      </c>
+      <c r="AE11">
+        <f t="shared" si="3"/>
+        <v>3.3049069369589427E-5</v>
+      </c>
+      <c r="AF11">
+        <f t="shared" si="4"/>
+        <v>3.4223603627440216E-2</v>
+      </c>
+      <c r="AG11">
+        <f t="shared" si="5"/>
+        <v>3.4223603627440216E-2</v>
+      </c>
+      <c r="AH11">
+        <f t="shared" si="6"/>
+        <v>3.4223603627440216E-2</v>
+      </c>
+      <c r="AI11">
+        <f t="shared" si="7"/>
+        <v>3.4223603627440216E-2</v>
+      </c>
+      <c r="AJ11">
+        <f t="shared" si="8"/>
+        <v>3.4223603627440216E-2</v>
+      </c>
+      <c r="AK11">
+        <f t="shared" si="9"/>
+        <v>3.4223603627440216E-2</v>
+      </c>
+      <c r="AL11">
+        <f t="shared" si="10"/>
+        <v>1.180414670264021E-126</v>
+      </c>
+    </row>
+    <row r="12" spans="3:38" x14ac:dyDescent="0.3">
+      <c r="C12" s="6"/>
+      <c r="D12" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="7">
+        <v>0</v>
+      </c>
+      <c r="F12" s="8">
+        <f>E13*SIN(RADIANS(E11))*COS(RADIANS(E12))</f>
+        <v>1.22514845490862E-16</v>
+      </c>
+      <c r="G12" s="7">
+        <v>0</v>
+      </c>
+      <c r="H12" s="8">
+        <f>G13*SIN(RADIANS(G11))*COS(RADIANS(G12))</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="7">
+        <v>45</v>
+      </c>
+      <c r="J12" s="8">
+        <f>I13*SIN(RADIANS(I11))*COS(RADIANS(I12))</f>
+        <v>0.5</v>
+      </c>
+      <c r="K12" s="7">
+        <v>0</v>
+      </c>
+      <c r="L12" s="8">
+        <f>K13*SIN(RADIANS(K11))*COS(RADIANS(K12))</f>
+        <v>0</v>
+      </c>
+      <c r="M12" s="7">
+        <v>0</v>
+      </c>
+      <c r="N12" s="8">
+        <f>M13*SIN(RADIANS(M11))*COS(RADIANS(M12))</f>
+        <v>0</v>
+      </c>
+      <c r="O12" s="7">
+        <v>0</v>
+      </c>
+      <c r="P12" s="8">
+        <f>O13*SIN(RADIANS(O11))*COS(RADIANS(O12))</f>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="7">
+        <v>90</v>
+      </c>
+      <c r="R12" s="8">
+        <f>Q13*SIN(RADIANS(Q11))*COS(RADIANS(Q12))</f>
+        <v>0</v>
+      </c>
+      <c r="S12" s="7">
+        <v>0</v>
+      </c>
+      <c r="T12" s="8">
+        <f>S13*SIN(RADIANS(S11))*COS(RADIANS(S12))</f>
+        <v>0</v>
+      </c>
+      <c r="U12" s="7">
+        <v>0</v>
+      </c>
+      <c r="V12" s="8">
+        <f>U13*SIN(RADIANS(U11))*COS(RADIANS(U12))</f>
+        <v>0</v>
+      </c>
+      <c r="W12" s="9">
+        <v>90</v>
+      </c>
+      <c r="X12" s="8">
+        <f>W13*SIN(RADIANS(W11))*COS(RADIANS(W12))</f>
+        <v>-3.06287113727155E-16</v>
+      </c>
+      <c r="Z12">
+        <f t="shared" si="0"/>
+        <v>9.0333333333333332</v>
+      </c>
+      <c r="AA12">
+        <f t="shared" si="11"/>
+        <v>593.41555555555556</v>
+      </c>
+      <c r="AB12">
+        <f t="shared" si="1"/>
+        <v>24.360122240160365</v>
+      </c>
+      <c r="AD12">
+        <f t="shared" si="2"/>
+        <v>1.5288697524449243E-2</v>
+      </c>
+      <c r="AE12">
+        <f t="shared" si="3"/>
+        <v>5.5063778662735232E-3</v>
+      </c>
+      <c r="AF12">
+        <f t="shared" si="4"/>
+        <v>1.5288697524449243E-2</v>
+      </c>
+      <c r="AG12">
+        <f t="shared" si="5"/>
+        <v>1.5288697524449243E-2</v>
+      </c>
+      <c r="AH12">
+        <f t="shared" si="6"/>
+        <v>1.5288697524449243E-2</v>
+      </c>
+      <c r="AI12">
+        <f t="shared" si="7"/>
+        <v>6.536631405690308E-5</v>
+      </c>
+      <c r="AJ12">
+        <f t="shared" si="8"/>
+        <v>1.5288697524449243E-2</v>
+      </c>
+      <c r="AK12">
+        <f t="shared" si="9"/>
+        <v>1.5288697524449243E-2</v>
+      </c>
+      <c r="AL12">
+        <f t="shared" si="10"/>
+        <v>6.536631405690308E-5</v>
+      </c>
+    </row>
+    <row r="13" spans="3:38" x14ac:dyDescent="0.3">
+      <c r="C13" s="10"/>
+      <c r="D13" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="11">
+        <v>1</v>
+      </c>
+      <c r="F13" s="12">
+        <f>E13*SIN(RADIANS(E12))</f>
+        <v>0</v>
+      </c>
+      <c r="G13" s="11">
+        <v>1</v>
+      </c>
+      <c r="H13" s="12">
+        <f>G13*SIN(RADIANS(G12))</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="11">
+        <v>1</v>
+      </c>
+      <c r="J13" s="12">
+        <f>I13*SIN(RADIANS(I12))</f>
+        <v>0.70710678118654746</v>
+      </c>
+      <c r="K13" s="11">
+        <v>1</v>
+      </c>
+      <c r="L13" s="12">
+        <f>K13*SIN(RADIANS(K12))</f>
+        <v>0</v>
+      </c>
+      <c r="M13" s="11">
+        <v>1</v>
+      </c>
+      <c r="N13" s="12">
+        <f>M13*SIN(RADIANS(M12))</f>
+        <v>0</v>
+      </c>
+      <c r="O13" s="11">
+        <v>1</v>
+      </c>
+      <c r="P13" s="12">
+        <f>O13*SIN(RADIANS(O12))</f>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="11">
+        <v>1</v>
+      </c>
+      <c r="R13" s="12">
+        <f>Q13*SIN(RADIANS(Q12))</f>
+        <v>1</v>
+      </c>
+      <c r="S13" s="11">
+        <v>1</v>
+      </c>
+      <c r="T13" s="12">
+        <f>S13*SIN(RADIANS(S12))</f>
+        <v>0</v>
+      </c>
+      <c r="U13" s="11">
+        <v>1</v>
+      </c>
+      <c r="V13" s="12">
+        <f>U13*SIN(RADIANS(U12))</f>
+        <v>0</v>
+      </c>
+      <c r="W13" s="13">
+        <v>5</v>
+      </c>
+      <c r="X13" s="12">
+        <f>W13*SIN(RADIANS(W12))</f>
+        <v>5</v>
+      </c>
+      <c r="Z13">
+        <f t="shared" si="0"/>
+        <v>0.6471404520791032</v>
+      </c>
+      <c r="AA13">
+        <f t="shared" si="11"/>
+        <v>0.21454256861618728</v>
+      </c>
+      <c r="AB13">
+        <f t="shared" si="1"/>
+        <v>0.46318740118464719</v>
+      </c>
+      <c r="AD13">
+        <f t="shared" si="2"/>
+        <v>0.64436485449934</v>
+      </c>
+      <c r="AE13">
+        <f t="shared" si="3"/>
+        <v>0.64436485449934</v>
+      </c>
+      <c r="AF13">
+        <f t="shared" si="4"/>
+        <v>0.64436485449934</v>
+      </c>
+      <c r="AG13">
+        <f t="shared" si="5"/>
+        <v>0.64436485449934</v>
+      </c>
+      <c r="AH13">
+        <f t="shared" si="6"/>
+        <v>0.64436485449934</v>
+      </c>
+      <c r="AI13">
+        <f t="shared" si="7"/>
+        <v>0.64436485449934</v>
+      </c>
+      <c r="AJ13">
+        <f t="shared" si="8"/>
+        <v>0.64436485449934</v>
+      </c>
+      <c r="AK13">
+        <f t="shared" si="9"/>
+        <v>0.64436485449934</v>
+      </c>
+      <c r="AL13">
+        <f t="shared" si="10"/>
+        <v>5.7244626583160804E-20</v>
+      </c>
+    </row>
+    <row r="14" spans="3:38" x14ac:dyDescent="0.3">
+      <c r="C14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="3">
+        <f>360-180</f>
+        <v>180</v>
+      </c>
+      <c r="F14" s="4">
+        <f>E16*COS(RADIANS(E14))*COS(RADIANS(E15))</f>
+        <v>-0.86602540378443871</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="4">
+        <f>G16*COS(RADIANS(G14))*COS(RADIANS(G15))</f>
+        <v>0.70710678118654757</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="4">
+        <f>I16*COS(RADIANS(I14))*COS(RADIANS(I15))</f>
+        <v>0.35355339059327379</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="4">
+        <f>K16*COS(RADIANS(K14))*COS(RADIANS(K15))</f>
+        <v>1</v>
+      </c>
+      <c r="M14" s="3">
+        <f>360-180</f>
+        <v>180</v>
+      </c>
+      <c r="N14" s="4">
+        <f>M16*COS(RADIANS(M14))*COS(RADIANS(M15))</f>
+        <v>-1</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="4">
+        <f>O16*COS(RADIANS(O14))*COS(RADIANS(O15))</f>
+        <v>3.9847787923669822</v>
+      </c>
+      <c r="Q14" s="3">
+        <f>360-30</f>
+        <v>330</v>
+      </c>
+      <c r="R14" s="4">
+        <f>Q16*COS(RADIANS(Q14))*COS(RADIANS(Q15))</f>
+        <v>0.61237243569579436</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="4">
+        <f>S16*COS(RADIANS(S14))*COS(RADIANS(S15))</f>
+        <v>1</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="4">
+        <f>U16*COS(RADIANS(U14))*COS(RADIANS(U15))</f>
+        <v>1</v>
+      </c>
+      <c r="W14" s="5">
+        <v>270</v>
+      </c>
+      <c r="X14" s="4">
+        <f>W16*COS(RADIANS(W14))*COS(RADIANS(W15))</f>
+        <v>-5.6287077621186709E-32</v>
+      </c>
+      <c r="Z14">
+        <f t="shared" si="0"/>
+        <v>34.443854093322834</v>
+      </c>
+      <c r="AA14">
+        <f t="shared" si="11"/>
+        <v>8234.9461459994945</v>
+      </c>
+      <c r="AB14">
+        <f t="shared" si="1"/>
+        <v>90.746604046650106</v>
+      </c>
+      <c r="AD14">
+        <f t="shared" si="2"/>
+        <v>4.0906852218090886E-3</v>
+      </c>
+      <c r="AE14">
+        <f t="shared" si="3"/>
+        <v>4.0906852218090886E-3</v>
+      </c>
+      <c r="AF14">
+        <f t="shared" si="4"/>
+        <v>4.0906852218090886E-3</v>
+      </c>
+      <c r="AG14">
+        <f t="shared" si="5"/>
+        <v>1.2145365497184635E-3</v>
+      </c>
+      <c r="AH14">
+        <f t="shared" si="6"/>
+        <v>4.0906852218090886E-3</v>
+      </c>
+      <c r="AI14">
+        <f t="shared" si="7"/>
+        <v>2.1860370536826845E-5</v>
+      </c>
+      <c r="AJ14">
+        <f t="shared" si="8"/>
+        <v>4.0906852218090886E-3</v>
+      </c>
+      <c r="AK14">
+        <f t="shared" si="9"/>
+        <v>4.0906852218090886E-3</v>
+      </c>
+      <c r="AL14">
+        <f t="shared" si="10"/>
+        <v>1.5133915736616416E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="3:38" x14ac:dyDescent="0.3">
+      <c r="C15" s="6"/>
+      <c r="D15" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="7">
+        <v>-30</v>
+      </c>
+      <c r="F15" s="8">
+        <f>E16*SIN(RADIANS(E14))*COS(RADIANS(E15))</f>
+        <v>1.0610096853581189E-16</v>
+      </c>
+      <c r="G15" s="7">
+        <v>45</v>
+      </c>
+      <c r="H15" s="8">
+        <f>G16*SIN(RADIANS(G14))*COS(RADIANS(G15))</f>
+        <v>0</v>
+      </c>
+      <c r="I15" s="7">
+        <v>45</v>
+      </c>
+      <c r="J15" s="8">
+        <f>I16*SIN(RADIANS(I14))*COS(RADIANS(I15))</f>
+        <v>0</v>
+      </c>
+      <c r="K15" s="7">
+        <v>0</v>
+      </c>
+      <c r="L15" s="8">
+        <f>K16*SIN(RADIANS(K14))*COS(RADIANS(K15))</f>
+        <v>0</v>
+      </c>
+      <c r="M15" s="7">
+        <v>0</v>
+      </c>
+      <c r="N15" s="8">
+        <f>M16*SIN(RADIANS(M14))*COS(RADIANS(M15))</f>
+        <v>1.22514845490862E-16</v>
+      </c>
+      <c r="O15" s="7">
+        <v>5</v>
+      </c>
+      <c r="P15" s="8">
+        <f>O16*SIN(RADIANS(O14))*COS(RADIANS(O15))</f>
+        <v>0</v>
+      </c>
+      <c r="Q15" s="7">
+        <v>45</v>
+      </c>
+      <c r="R15" s="8">
+        <f>Q16*SIN(RADIANS(Q14))*COS(RADIANS(Q15))</f>
+        <v>-0.35355339059327412</v>
+      </c>
+      <c r="S15" s="7">
+        <v>0</v>
+      </c>
+      <c r="T15" s="8">
+        <f>S16*SIN(RADIANS(S14))*COS(RADIANS(S15))</f>
+        <v>0</v>
+      </c>
+      <c r="U15" s="7">
+        <v>0</v>
+      </c>
+      <c r="V15" s="8">
+        <f>U16*SIN(RADIANS(U14))*COS(RADIANS(U15))</f>
+        <v>0</v>
+      </c>
+      <c r="W15" s="9">
+        <v>90</v>
+      </c>
+      <c r="X15" s="8">
+        <f>W16*SIN(RADIANS(W14))*COS(RADIANS(W15))</f>
+        <v>-3.06287113727155E-16</v>
+      </c>
+      <c r="Z15">
+        <f t="shared" si="0"/>
+        <v>9.3097631072937812</v>
+      </c>
+      <c r="AA15">
+        <f t="shared" si="11"/>
+        <v>320.00331088607163</v>
+      </c>
+      <c r="AB15">
+        <f t="shared" si="1"/>
+        <v>17.888636361837971</v>
+      </c>
+      <c r="AD15">
+        <f t="shared" si="2"/>
+        <v>3.0476478301222081E-3</v>
+      </c>
+      <c r="AE15">
+        <f t="shared" si="3"/>
+        <v>3.0476478301222081E-3</v>
+      </c>
+      <c r="AF15">
+        <f t="shared" si="4"/>
+        <v>1.9476876892453809E-2</v>
+      </c>
+      <c r="AG15">
+        <f t="shared" si="5"/>
+        <v>1.9476876892453809E-2</v>
+      </c>
+      <c r="AH15">
+        <f t="shared" si="6"/>
+        <v>2.1663512836324218E-2</v>
+      </c>
+      <c r="AI15">
+        <f t="shared" si="7"/>
+        <v>3.0476478301222081E-3</v>
+      </c>
+      <c r="AJ15">
+        <f t="shared" si="8"/>
+        <v>1.9476876892453809E-2</v>
+      </c>
+      <c r="AK15">
+        <f t="shared" si="9"/>
+        <v>1.9476876892453809E-2</v>
+      </c>
+      <c r="AL15">
+        <f t="shared" si="10"/>
+        <v>8.5146913316109219E-7</v>
+      </c>
+    </row>
+    <row r="16" spans="3:38" x14ac:dyDescent="0.3">
+      <c r="C16" s="10"/>
+      <c r="D16" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" s="11">
+        <v>1</v>
+      </c>
+      <c r="F16" s="12">
+        <f>E16*SIN(RADIANS(E15))</f>
+        <v>-0.49999999999999994</v>
+      </c>
+      <c r="G16" s="11">
+        <v>1</v>
+      </c>
+      <c r="H16" s="12">
+        <f>G16*SIN(RADIANS(G15))</f>
+        <v>0.70710678118654746</v>
+      </c>
+      <c r="I16" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="J16" s="12">
+        <f>I16*SIN(RADIANS(I15))</f>
+        <v>0.35355339059327373</v>
+      </c>
+      <c r="K16" s="11">
+        <v>1</v>
+      </c>
+      <c r="L16" s="12">
+        <f>K16*SIN(RADIANS(K15))</f>
+        <v>0</v>
+      </c>
+      <c r="M16" s="11">
+        <v>1</v>
+      </c>
+      <c r="N16" s="12">
+        <f>M16*SIN(RADIANS(M15))</f>
+        <v>0</v>
+      </c>
+      <c r="O16" s="11">
+        <v>4</v>
+      </c>
+      <c r="P16" s="12">
+        <f>O16*SIN(RADIANS(O15))</f>
+        <v>0.34862297099063266</v>
+      </c>
+      <c r="Q16" s="11">
+        <v>1</v>
+      </c>
+      <c r="R16" s="12">
+        <f>Q16*SIN(RADIANS(Q15))</f>
+        <v>0.70710678118654746</v>
+      </c>
+      <c r="S16" s="11">
+        <v>1</v>
+      </c>
+      <c r="T16" s="12">
+        <f>S16*SIN(RADIANS(S15))</f>
+        <v>0</v>
+      </c>
+      <c r="U16" s="11">
+        <v>1</v>
+      </c>
+      <c r="V16" s="12">
+        <f>U16*SIN(RADIANS(U15))</f>
+        <v>0</v>
+      </c>
+      <c r="W16" s="13">
+        <v>5</v>
+      </c>
+      <c r="X16" s="12">
+        <f>W16*SIN(RADIANS(W15))</f>
+        <v>5</v>
+      </c>
+      <c r="Z16">
+        <f t="shared" si="0"/>
+        <v>0.84109266159713347</v>
+      </c>
+      <c r="AA16">
+        <f t="shared" si="11"/>
+        <v>0.85899899966760562</v>
+      </c>
+      <c r="AB16">
+        <f t="shared" si="1"/>
+        <v>0.9268219892015972</v>
+      </c>
+      <c r="AD16">
+        <f t="shared" si="2"/>
+        <v>0.42416064758525918</v>
+      </c>
+      <c r="AE16">
+        <f t="shared" si="3"/>
+        <v>0.40225640299735627</v>
+      </c>
+      <c r="AF16">
+        <f t="shared" si="4"/>
+        <v>0.42416064758525918</v>
+      </c>
+      <c r="AG16">
+        <f t="shared" si="5"/>
+        <v>0.42416064758525918</v>
+      </c>
+      <c r="AH16">
+        <f t="shared" si="6"/>
+        <v>1.2923763913264919E-3</v>
+      </c>
+      <c r="AI16">
+        <f t="shared" si="7"/>
+        <v>0.42416064758525918</v>
+      </c>
+      <c r="AJ16">
+        <f t="shared" si="8"/>
+        <v>0.42416064758525918</v>
+      </c>
+      <c r="AK16">
+        <f t="shared" si="9"/>
+        <v>0.42416064758525918</v>
+      </c>
+      <c r="AL16">
+        <f t="shared" si="10"/>
+        <v>1.8260434803859148E-5</v>
+      </c>
+    </row>
+    <row r="17" spans="3:38" x14ac:dyDescent="0.3">
+      <c r="C17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0</v>
+      </c>
+      <c r="F17" s="4">
+        <f>E19*COS(RADIANS(E17))*COS(RADIANS(E18))</f>
+        <v>0.86602540378443871</v>
+      </c>
+      <c r="G17" s="3">
+        <f>360-180</f>
+        <v>180</v>
+      </c>
+      <c r="H17" s="4">
+        <f>G19*COS(RADIANS(G17))*COS(RADIANS(G18))</f>
+        <v>-0.70710678118654757</v>
+      </c>
+      <c r="I17" s="3">
+        <v>0</v>
+      </c>
+      <c r="J17" s="4">
+        <f>I19*COS(RADIANS(I17))*COS(RADIANS(I18))</f>
+        <v>1.915111107797445</v>
+      </c>
+      <c r="K17" s="3">
+        <v>0</v>
+      </c>
+      <c r="L17" s="4">
+        <f>K19*COS(RADIANS(K17))*COS(RADIANS(K18))</f>
+        <v>1</v>
+      </c>
+      <c r="M17" s="3">
+        <f>360-30</f>
+        <v>330</v>
+      </c>
+      <c r="N17" s="4">
+        <f>M19*COS(RADIANS(M17))*COS(RADIANS(M18))</f>
+        <v>2.5095489112134231</v>
+      </c>
+      <c r="O17" s="3">
+        <f>360-330</f>
+        <v>30</v>
+      </c>
+      <c r="P17" s="4">
+        <f>O19*COS(RADIANS(O17))*COS(RADIANS(O18))</f>
+        <v>2.5586055958573297</v>
+      </c>
+      <c r="Q17" s="3">
+        <f>360-135</f>
+        <v>225</v>
+      </c>
+      <c r="R17" s="4">
+        <f>Q19*COS(RADIANS(Q17))*COS(RADIANS(Q18))</f>
+        <v>-0.50000000000000011</v>
+      </c>
+      <c r="S17" s="3">
+        <v>0</v>
+      </c>
+      <c r="T17" s="4">
+        <f>S19*COS(RADIANS(S17))*COS(RADIANS(S18))</f>
+        <v>0.5</v>
+      </c>
+      <c r="U17" s="3">
+        <f>360-180</f>
+        <v>180</v>
+      </c>
+      <c r="V17" s="4">
+        <f>U19*COS(RADIANS(U17))*COS(RADIANS(U18))</f>
+        <v>-1.7101007166283442</v>
+      </c>
+      <c r="W17" s="5">
+        <v>270</v>
+      </c>
+      <c r="X17" s="4">
+        <f>W19*COS(RADIANS(W17))*COS(RADIANS(W18))</f>
+        <v>-5.6287077621186709E-32</v>
+      </c>
+      <c r="Z17">
+        <f t="shared" si="0"/>
+        <v>63.485077255578773</v>
+      </c>
+      <c r="AA17">
+        <f t="shared" si="11"/>
+        <v>10985.87909577907</v>
+      </c>
+      <c r="AB17">
+        <f t="shared" si="1"/>
+        <v>104.81354442904347</v>
+      </c>
+      <c r="AD17">
+        <f t="shared" si="2"/>
+        <v>2.0518915151654486E-3</v>
+      </c>
+      <c r="AE17">
+        <f t="shared" si="3"/>
+        <v>3.1683162916520393E-3</v>
+      </c>
+      <c r="AF17">
+        <f t="shared" si="4"/>
+        <v>3.1683162916520393E-3</v>
+      </c>
+      <c r="AG17">
+        <f t="shared" si="5"/>
+        <v>1.5014378209434495E-4</v>
+      </c>
+      <c r="AH17">
+        <f t="shared" si="6"/>
+        <v>3.6168457429927672E-3</v>
+      </c>
+      <c r="AI17">
+        <f t="shared" si="7"/>
+        <v>1.1610603251650071E-3</v>
+      </c>
+      <c r="AJ17">
+        <f t="shared" si="8"/>
+        <v>3.1683162916520393E-3</v>
+      </c>
+      <c r="AK17">
+        <f t="shared" si="9"/>
+        <v>2.0518915151654486E-3</v>
+      </c>
+      <c r="AL17">
+        <f t="shared" si="10"/>
+        <v>5.4639000149105197E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="3:38" x14ac:dyDescent="0.3">
+      <c r="C18" s="6"/>
+      <c r="D18" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="7">
+        <v>30</v>
+      </c>
+      <c r="F18" s="8">
+        <f>E19*SIN(RADIANS(E17))*COS(RADIANS(E18))</f>
+        <v>0</v>
+      </c>
+      <c r="G18" s="7">
+        <v>45</v>
+      </c>
+      <c r="H18" s="8">
+        <f>G19*SIN(RADIANS(G17))*COS(RADIANS(G18))</f>
+        <v>8.6631078042610645E-17</v>
+      </c>
+      <c r="I18" s="7">
+        <v>-40</v>
+      </c>
+      <c r="J18" s="8">
+        <f>I19*SIN(RADIANS(I17))*COS(RADIANS(I18))</f>
+        <v>0</v>
+      </c>
+      <c r="K18" s="7">
+        <v>0</v>
+      </c>
+      <c r="L18" s="8">
+        <f>K19*SIN(RADIANS(K17))*COS(RADIANS(K18))</f>
+        <v>0</v>
+      </c>
+      <c r="M18" s="7">
+        <v>15</v>
+      </c>
+      <c r="N18" s="8">
+        <f>M19*SIN(RADIANS(M17))*COS(RADIANS(M18))</f>
+        <v>-1.4488887394336039</v>
+      </c>
+      <c r="O18" s="7">
+        <v>10</v>
+      </c>
+      <c r="P18" s="8">
+        <f>O19*SIN(RADIANS(O17))*COS(RADIANS(O18))</f>
+        <v>1.4772116295183118</v>
+      </c>
+      <c r="Q18" s="7">
+        <v>45</v>
+      </c>
+      <c r="R18" s="8">
+        <f>Q19*SIN(RADIANS(Q17))*COS(RADIANS(Q18))</f>
+        <v>-0.5</v>
+      </c>
+      <c r="S18" s="7">
+        <v>0</v>
+      </c>
+      <c r="T18" s="8">
+        <f>S19*SIN(RADIANS(S17))*COS(RADIANS(S18))</f>
+        <v>0</v>
+      </c>
+      <c r="U18" s="7">
+        <v>70</v>
+      </c>
+      <c r="V18" s="8">
+        <f>U19*SIN(RADIANS(U17))*COS(RADIANS(U18))</f>
+        <v>2.0951272507153396E-16</v>
+      </c>
+      <c r="W18" s="9">
+        <v>90</v>
+      </c>
+      <c r="X18" s="8">
+        <f>W19*SIN(RADIANS(W17))*COS(RADIANS(W18))</f>
+        <v>-3.06287113727155E-16</v>
+      </c>
+      <c r="Z18">
+        <f t="shared" si="0"/>
+        <v>9.6352215260056475</v>
+      </c>
+      <c r="AA18">
+        <f t="shared" si="11"/>
+        <v>632.46460166330678</v>
+      </c>
+      <c r="AB18">
+        <f t="shared" si="1"/>
+        <v>25.148848913286404</v>
+      </c>
+      <c r="AD18">
+        <f t="shared" si="2"/>
+        <v>5.9019291924129269E-3</v>
+      </c>
+      <c r="AE18">
+        <f t="shared" si="3"/>
+        <v>2.2622097167165488E-3</v>
+      </c>
+      <c r="AF18">
+        <f t="shared" si="4"/>
+        <v>1.4740682502110971E-2</v>
+      </c>
+      <c r="AG18">
+        <f t="shared" si="5"/>
+        <v>1.55063820941871E-2</v>
+      </c>
+      <c r="AH18">
+        <f t="shared" si="6"/>
+        <v>1.5861573526977982E-2</v>
+      </c>
+      <c r="AI18">
+        <f t="shared" si="7"/>
+        <v>5.9019291924129269E-3</v>
+      </c>
+      <c r="AJ18">
+        <f t="shared" si="8"/>
+        <v>1.4740682502110971E-2</v>
+      </c>
+      <c r="AK18">
+        <f t="shared" si="9"/>
+        <v>8.8983868554003262E-4</v>
+      </c>
+      <c r="AL18">
+        <f t="shared" si="10"/>
+        <v>9.6153169196355872E-5</v>
+      </c>
+    </row>
+    <row r="19" spans="3:38" x14ac:dyDescent="0.3">
+      <c r="C19" s="6"/>
+      <c r="D19" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19" s="7">
+        <v>1</v>
+      </c>
+      <c r="F19" s="8">
+        <f>E19*SIN(RADIANS(E18))</f>
+        <v>0.49999999999999994</v>
+      </c>
+      <c r="G19" s="7">
+        <v>1</v>
+      </c>
+      <c r="H19" s="8">
+        <f>G19*SIN(RADIANS(G18))</f>
+        <v>0.70710678118654746</v>
+      </c>
+      <c r="I19" s="7">
+        <v>2.5</v>
+      </c>
+      <c r="J19" s="8">
+        <f>I19*SIN(RADIANS(I18))</f>
+        <v>-1.6069690242163481</v>
+      </c>
+      <c r="K19" s="7">
+        <v>1</v>
+      </c>
+      <c r="L19" s="8">
+        <f>K19*SIN(RADIANS(K18))</f>
+        <v>0</v>
+      </c>
+      <c r="M19" s="7">
+        <v>3</v>
+      </c>
+      <c r="N19" s="8">
+        <f>M19*SIN(RADIANS(M18))</f>
+        <v>0.77645713530756222</v>
+      </c>
+      <c r="O19" s="7">
+        <v>3</v>
+      </c>
+      <c r="P19" s="8">
+        <f>O19*SIN(RADIANS(O18))</f>
+        <v>0.52094453300079102</v>
+      </c>
+      <c r="Q19" s="7">
+        <v>1</v>
+      </c>
+      <c r="R19" s="8">
+        <f>Q19*SIN(RADIANS(Q18))</f>
+        <v>0.70710678118654746</v>
+      </c>
+      <c r="S19" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="T19" s="8">
+        <f>S19*SIN(RADIANS(S18))</f>
+        <v>0</v>
+      </c>
+      <c r="U19" s="7">
+        <v>5</v>
+      </c>
+      <c r="V19" s="8">
+        <f>U19*SIN(RADIANS(U18))</f>
+        <v>4.6984631039295417</v>
+      </c>
+      <c r="W19" s="9">
+        <v>5</v>
+      </c>
+      <c r="X19" s="8">
+        <f>W19*SIN(RADIANS(W18))</f>
+        <v>5</v>
+      </c>
+      <c r="Z19">
+        <f t="shared" si="0"/>
+        <v>1.20697641376434</v>
+      </c>
+      <c r="AA19">
+        <f t="shared" si="11"/>
+        <v>2.3403158255648586</v>
+      </c>
+      <c r="AB19">
+        <f t="shared" si="1"/>
+        <v>1.5298090814101146</v>
+      </c>
+      <c r="AD19">
+        <f t="shared" si="2"/>
+        <v>0.25840325122403152</v>
+      </c>
+      <c r="AE19">
+        <f t="shared" si="3"/>
+        <v>0.18245002255761841</v>
+      </c>
+      <c r="AF19">
+        <f t="shared" si="4"/>
+        <v>0.25840325122403152</v>
+      </c>
+      <c r="AG19">
+        <f t="shared" si="5"/>
+        <v>0.13121207217782702</v>
+      </c>
+      <c r="AH19">
+        <f t="shared" si="6"/>
+        <v>0.13121207217782702</v>
+      </c>
+      <c r="AI19">
+        <f t="shared" si="7"/>
+        <v>0.25840325122403152</v>
+      </c>
+      <c r="AJ19">
+        <f t="shared" si="8"/>
+        <v>0.23436740672754836</v>
+      </c>
+      <c r="AK19">
+        <f t="shared" si="9"/>
+        <v>1.2060521011799247E-2</v>
+      </c>
+      <c r="AL19">
+        <f t="shared" si="10"/>
+        <v>1.2060521011799247E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="3:38" x14ac:dyDescent="0.3">
+      <c r="C20" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="3">
+        <f>360-300</f>
+        <v>60</v>
+      </c>
+      <c r="F20" s="4">
+        <f>E22*COS(RADIANS(E20))*COS(RADIANS(E21))</f>
+        <v>1.4772116295183124</v>
+      </c>
+      <c r="G20" s="3">
+        <f>360-205</f>
+        <v>155</v>
+      </c>
+      <c r="H20" s="4">
+        <f>G22*COS(RADIANS(G20))*COS(RADIANS(G21))</f>
+        <v>-3.2042819102789428</v>
+      </c>
+      <c r="I20" s="3">
+        <f>360-270</f>
+        <v>90</v>
+      </c>
+      <c r="J20" s="4">
+        <f>I22*COS(RADIANS(I20))*COS(RADIANS(I21))</f>
+        <v>4.331553902130532E-16</v>
+      </c>
+      <c r="K20" s="3">
+        <f>360-270</f>
+        <v>90</v>
+      </c>
+      <c r="L20" s="4">
+        <f>K22*COS(RADIANS(K20))*COS(RADIANS(K21))</f>
+        <v>3.06287113727155E-16</v>
+      </c>
+      <c r="M20" s="3">
+        <f>360-270</f>
+        <v>90</v>
+      </c>
+      <c r="N20" s="4">
+        <f>M22*COS(RADIANS(M20))*COS(RADIANS(M21))</f>
+        <v>4.6925908293927505E-16</v>
+      </c>
+      <c r="O20" s="3">
+        <f>360-270</f>
+        <v>90</v>
+      </c>
+      <c r="P20" s="4">
+        <f>O22*COS(RADIANS(O20))*COS(RADIANS(O21))</f>
+        <v>4.90059381963448E-16</v>
+      </c>
+      <c r="Q20" s="3">
+        <f>360-225</f>
+        <v>135</v>
+      </c>
+      <c r="R20" s="4">
+        <f>Q22*COS(RADIANS(Q20))*COS(RADIANS(Q21))</f>
+        <v>-1.5309310892394863</v>
+      </c>
+      <c r="S20" s="3">
+        <f>360-270</f>
+        <v>90</v>
+      </c>
+      <c r="T20" s="4">
+        <f>S22*COS(RADIANS(S20))*COS(RADIANS(S21))</f>
+        <v>6.1257422745431001E-16</v>
+      </c>
+      <c r="U20" s="3">
+        <f>360-260</f>
+        <v>100</v>
+      </c>
+      <c r="V20" s="4">
+        <f>U22*COS(RADIANS(U20))*COS(RADIANS(U21))</f>
+        <v>-1.6317591116653478</v>
+      </c>
+      <c r="W20" s="5">
+        <v>90</v>
+      </c>
+      <c r="X20" s="4">
+        <f>W22*COS(RADIANS(W20))*COS(RADIANS(W21))</f>
+        <v>3.06287113727155E-16</v>
+      </c>
+      <c r="Z20">
+        <f t="shared" si="0"/>
+        <v>55.684319133365435</v>
+      </c>
+      <c r="AA20">
+        <f t="shared" si="11"/>
+        <v>3083.430680824215</v>
+      </c>
+      <c r="AB20">
+        <f t="shared" si="1"/>
+        <v>55.528647388750748</v>
+      </c>
+      <c r="AD20">
+        <f t="shared" si="2"/>
+        <v>1.4513073345937789E-3</v>
+      </c>
+      <c r="AE20">
+        <f t="shared" si="3"/>
+        <v>5.9355938181879933E-3</v>
+      </c>
+      <c r="AF20">
+        <f t="shared" si="4"/>
+        <v>5.9355938181879933E-3</v>
+      </c>
+      <c r="AG20">
+        <f t="shared" si="5"/>
+        <v>5.9355938181879933E-3</v>
+      </c>
+      <c r="AH20">
+        <f t="shared" si="6"/>
+        <v>5.9355938181879933E-3</v>
+      </c>
+      <c r="AI20">
+        <f t="shared" si="7"/>
+        <v>2.5903459200810339E-3</v>
+      </c>
+      <c r="AJ20">
+        <f t="shared" si="8"/>
+        <v>5.9355938181879933E-3</v>
+      </c>
+      <c r="AK20">
+        <f t="shared" si="9"/>
+        <v>5.2250312881384859E-3</v>
+      </c>
+      <c r="AL20">
+        <f t="shared" si="10"/>
+        <v>5.9355938181879933E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:38" x14ac:dyDescent="0.3">
+      <c r="C21" s="6"/>
+      <c r="D21" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="7">
+        <v>10</v>
+      </c>
+      <c r="F21" s="8">
+        <f>E22*SIN(RADIANS(E20))*COS(RADIANS(E21))</f>
+        <v>2.5586055958573297</v>
+      </c>
+      <c r="G21" s="7">
+        <v>45</v>
+      </c>
+      <c r="H21" s="8">
+        <f>G22*SIN(RADIANS(G20))*COS(RADIANS(G21))</f>
+        <v>1.4941811936505993</v>
+      </c>
+      <c r="I21" s="7">
+        <v>45</v>
+      </c>
+      <c r="J21" s="8">
+        <f>I22*SIN(RADIANS(I20))*COS(RADIANS(I21))</f>
+        <v>7.0710678118654755</v>
+      </c>
+      <c r="K21" s="7">
+        <v>0</v>
+      </c>
+      <c r="L21" s="8">
+        <f>K22*SIN(RADIANS(K20))*COS(RADIANS(K21))</f>
+        <v>5</v>
+      </c>
+      <c r="M21" s="7">
+        <v>-40</v>
+      </c>
+      <c r="N21" s="8">
+        <f>M22*SIN(RADIANS(M20))*COS(RADIANS(M21))</f>
+        <v>7.6604444311897799</v>
+      </c>
+      <c r="O21" s="7">
+        <v>0</v>
+      </c>
+      <c r="P21" s="8">
+        <f>O22*SIN(RADIANS(O20))*COS(RADIANS(O21))</f>
+        <v>8</v>
+      </c>
+      <c r="Q21" s="7">
+        <v>-30</v>
+      </c>
+      <c r="R21" s="8">
+        <f>Q22*SIN(RADIANS(Q20))*COS(RADIANS(Q21))</f>
+        <v>1.5309310892394865</v>
+      </c>
+      <c r="S21" s="7">
+        <v>0</v>
+      </c>
+      <c r="T21" s="8">
+        <f>S22*SIN(RADIANS(S20))*COS(RADIANS(S21))</f>
+        <v>10</v>
+      </c>
+      <c r="U21" s="7">
+        <v>-20</v>
+      </c>
+      <c r="V21" s="8">
+        <f>U22*SIN(RADIANS(U20))*COS(RADIANS(U21))</f>
+        <v>9.2541657839832325</v>
+      </c>
+      <c r="W21" s="9">
+        <v>0</v>
+      </c>
+      <c r="X21" s="8">
+        <f>W22*SIN(RADIANS(W20))*COS(RADIANS(W21))</f>
+        <v>5</v>
+      </c>
+      <c r="Z21">
+        <f t="shared" si="0"/>
+        <v>2.7171083017296893</v>
+      </c>
+      <c r="AA21">
+        <f t="shared" si="11"/>
+        <v>476.10123823152531</v>
+      </c>
+      <c r="AB21">
+        <f t="shared" si="1"/>
+        <v>21.819744229287505</v>
+      </c>
+      <c r="AD21">
+        <f t="shared" si="2"/>
+        <v>2.7966284066748524E-3</v>
+      </c>
+      <c r="AE21">
+        <f t="shared" si="3"/>
+        <v>2.7966284066748524E-3</v>
+      </c>
+      <c r="AF21">
+        <f t="shared" si="4"/>
+        <v>1.8142336187745075E-2</v>
+      </c>
+      <c r="AG21">
+        <f t="shared" si="5"/>
+        <v>2.690302001347998E-3</v>
+      </c>
+      <c r="AH21">
+        <f t="shared" si="6"/>
+        <v>1.8142336187745075E-2</v>
+      </c>
+      <c r="AI21">
+        <f t="shared" si="7"/>
+        <v>5.9409032809304317E-3</v>
+      </c>
+      <c r="AJ21">
+        <f t="shared" si="8"/>
+        <v>1.8142336187745075E-2</v>
+      </c>
+      <c r="AK21">
+        <f t="shared" si="9"/>
+        <v>1.0633714446381389E-2</v>
+      </c>
+      <c r="AL21">
+        <f t="shared" si="10"/>
+        <v>1.8142336187745075E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="3:38" x14ac:dyDescent="0.3">
+      <c r="C22" s="10"/>
+      <c r="D22" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E22" s="11">
+        <v>3</v>
+      </c>
+      <c r="F22" s="12">
+        <f>E22*SIN(RADIANS(E21))</f>
+        <v>0.52094453300079102</v>
+      </c>
+      <c r="G22" s="11">
+        <v>5</v>
+      </c>
+      <c r="H22" s="12">
+        <f>G22*SIN(RADIANS(G21))</f>
+        <v>3.5355339059327373</v>
+      </c>
+      <c r="I22" s="11">
+        <v>10</v>
+      </c>
+      <c r="J22" s="12">
+        <f>I22*SIN(RADIANS(I21))</f>
+        <v>7.0710678118654746</v>
+      </c>
+      <c r="K22" s="11">
+        <v>5</v>
+      </c>
+      <c r="L22" s="12">
+        <f>K22*SIN(RADIANS(K21))</f>
+        <v>0</v>
+      </c>
+      <c r="M22" s="11">
+        <v>10</v>
+      </c>
+      <c r="N22" s="12">
+        <f>M22*SIN(RADIANS(M21))</f>
+        <v>-6.4278760968653925</v>
+      </c>
+      <c r="O22" s="11">
+        <v>8</v>
+      </c>
+      <c r="P22" s="12">
+        <f>O22*SIN(RADIANS(O21))</f>
+        <v>0</v>
+      </c>
+      <c r="Q22" s="11">
+        <v>2.5</v>
+      </c>
+      <c r="R22" s="12">
+        <f>Q22*SIN(RADIANS(Q21))</f>
+        <v>-1.2499999999999998</v>
+      </c>
+      <c r="S22" s="11">
+        <v>10</v>
+      </c>
+      <c r="T22" s="12">
+        <f>S22*SIN(RADIANS(S21))</f>
+        <v>0</v>
+      </c>
+      <c r="U22" s="11">
+        <v>10</v>
+      </c>
+      <c r="V22" s="12">
+        <f>U22*SIN(RADIANS(U21))</f>
+        <v>-3.420201433256687</v>
+      </c>
+      <c r="W22" s="13">
+        <v>5</v>
+      </c>
+      <c r="X22" s="12">
+        <f>W22*SIN(RADIANS(W21))</f>
+        <v>0</v>
+      </c>
+      <c r="Z22">
+        <f t="shared" si="0"/>
+        <v>4.2285817080621886</v>
+      </c>
+      <c r="AA22">
+        <f t="shared" si="11"/>
+        <v>23.827769479352103</v>
+      </c>
+      <c r="AB22">
+        <f t="shared" si="1"/>
+        <v>4.8813696315022179</v>
+      </c>
+      <c r="AD22">
+        <f t="shared" si="2"/>
+        <v>8.0713323638141529E-2</v>
+      </c>
+      <c r="AE22">
+        <f t="shared" si="3"/>
+        <v>4.0626959647466002E-2</v>
+      </c>
+      <c r="AF22">
+        <f t="shared" si="4"/>
+        <v>8.0713323638141529E-2</v>
+      </c>
+      <c r="AG22">
+        <f t="shared" si="5"/>
+        <v>4.0626959647466002E-2</v>
+      </c>
+      <c r="AH22">
+        <f t="shared" si="6"/>
+        <v>6.06381424852801E-2</v>
+      </c>
+      <c r="AI22">
+        <f t="shared" si="7"/>
+        <v>7.6760567322428641E-2</v>
+      </c>
+      <c r="AJ22">
+        <f t="shared" si="8"/>
+        <v>4.0626959647466002E-2</v>
+      </c>
+      <c r="AK22">
+        <f t="shared" si="9"/>
+        <v>4.0626959647466002E-2</v>
+      </c>
+      <c r="AL22">
+        <f t="shared" si="10"/>
+        <v>8.0713323638141529E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="3:38" x14ac:dyDescent="0.3">
+      <c r="C23" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" s="3">
+        <f>360-120</f>
+        <v>240</v>
+      </c>
+      <c r="F23" s="4">
+        <f>E25*COS(RADIANS(E23))*COS(RADIANS(E24))</f>
+        <v>-2.4620193825305221</v>
+      </c>
+      <c r="G23" s="3">
+        <f>360-90</f>
+        <v>270</v>
+      </c>
+      <c r="H23" s="4">
+        <f>G25*COS(RADIANS(G23))*COS(RADIANS(G24))</f>
+        <v>-6.4973308531957978E-17</v>
+      </c>
+      <c r="I23" s="3">
+        <f>360-90</f>
+        <v>270</v>
+      </c>
+      <c r="J23" s="4">
+        <f>I25*COS(RADIANS(I23))*COS(RADIANS(I24))</f>
+        <v>-9.1886134118146501E-16</v>
+      </c>
+      <c r="K23" s="3">
+        <f>360-135</f>
+        <v>225</v>
+      </c>
+      <c r="L23" s="4">
+        <f>K25*COS(RADIANS(K23))*COS(RADIANS(K24))</f>
+        <v>-2.70837610209851</v>
+      </c>
+      <c r="M23" s="3">
+        <f>360-80</f>
+        <v>280</v>
+      </c>
+      <c r="N23" s="4">
+        <f>M25*COS(RADIANS(M23))*COS(RADIANS(M24))</f>
+        <v>0.86824088833464985</v>
+      </c>
+      <c r="O23" s="3">
+        <f>360-120</f>
+        <v>240</v>
+      </c>
+      <c r="P23" s="4">
+        <f>O25*COS(RADIANS(O23))*COS(RADIANS(O24))</f>
+        <v>-0.25000000000000022</v>
+      </c>
+      <c r="Q23" s="3">
+        <f>360-125</f>
+        <v>235</v>
+      </c>
+      <c r="R23" s="4">
+        <f>Q25*COS(RADIANS(Q23))*COS(RADIANS(Q24))</f>
+        <v>-0.28678821817552319</v>
+      </c>
+      <c r="S23" s="3">
+        <f>360-70</f>
+        <v>290</v>
+      </c>
+      <c r="T23" s="4">
+        <f>S25*COS(RADIANS(S23))*COS(RADIANS(S24))</f>
+        <v>0.14809906636301204</v>
+      </c>
+      <c r="U23" s="3">
+        <f>360-90</f>
+        <v>270</v>
+      </c>
+      <c r="V23" s="4">
+        <f>U25*COS(RADIANS(U23))*COS(RADIANS(U24))</f>
+        <v>-1.7268944436673314E-16</v>
+      </c>
+      <c r="W23" s="5">
+        <v>270</v>
+      </c>
+      <c r="X23" s="4">
+        <f>W25*COS(RADIANS(W23))*COS(RADIANS(W24))</f>
+        <v>-5.6287077621186709E-33</v>
+      </c>
+      <c r="Z23">
+        <f t="shared" si="0"/>
+        <v>138.51807837562822</v>
+      </c>
+      <c r="AA23">
+        <f t="shared" si="11"/>
+        <v>17123.292351401054</v>
+      </c>
+      <c r="AB23">
+        <f t="shared" si="1"/>
+        <v>130.85599853044971</v>
+      </c>
+      <c r="AD23">
+        <f t="shared" si="2"/>
+        <v>1.8402925217059329E-3</v>
+      </c>
+      <c r="AE23">
+        <f t="shared" si="3"/>
+        <v>1.8402925217059329E-3</v>
+      </c>
+      <c r="AF23">
+        <f t="shared" si="4"/>
+        <v>2.450590338254358E-3</v>
+      </c>
+      <c r="AG23">
+        <f t="shared" si="5"/>
+        <v>1.6993046155968797E-3</v>
+      </c>
+      <c r="AH23">
+        <f t="shared" si="6"/>
+        <v>2.2569194519174215E-3</v>
+      </c>
+      <c r="AI23">
+        <f t="shared" si="7"/>
+        <v>2.323102373396892E-3</v>
+      </c>
+      <c r="AJ23">
+        <f t="shared" si="8"/>
+        <v>1.5599810892033791E-3</v>
+      </c>
+      <c r="AK23">
+        <f t="shared" si="9"/>
+        <v>1.8402925217059329E-3</v>
+      </c>
+      <c r="AL23">
+        <f t="shared" si="10"/>
+        <v>1.8402925217059329E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:38" x14ac:dyDescent="0.3">
+      <c r="C24" s="6"/>
+      <c r="D24" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="7">
+        <v>-10</v>
+      </c>
+      <c r="F24" s="8">
+        <f>E25*SIN(RADIANS(E23))*COS(RADIANS(E24))</f>
+        <v>-4.2643426597622147</v>
+      </c>
+      <c r="G24" s="7">
+        <v>45</v>
+      </c>
+      <c r="H24" s="8">
+        <f>G25*SIN(RADIANS(G23))*COS(RADIANS(G24))</f>
+        <v>-0.35355339059327379</v>
+      </c>
+      <c r="I24" s="7">
+        <v>0</v>
+      </c>
+      <c r="J24" s="8">
+        <f>I25*SIN(RADIANS(I23))*COS(RADIANS(I24))</f>
+        <v>-5</v>
+      </c>
+      <c r="K24" s="7">
+        <v>-40</v>
+      </c>
+      <c r="L24" s="8">
+        <f>K25*SIN(RADIANS(K23))*COS(RADIANS(K24))</f>
+        <v>-2.7083761020985091</v>
+      </c>
+      <c r="M24" s="7">
+        <v>0</v>
+      </c>
+      <c r="N24" s="8">
+        <f>M25*SIN(RADIANS(M23))*COS(RADIANS(M24))</f>
+        <v>-4.9240387650610407</v>
+      </c>
+      <c r="O24" s="7">
+        <v>0</v>
+      </c>
+      <c r="P24" s="8">
+        <f>O25*SIN(RADIANS(O23))*COS(RADIANS(O24))</f>
+        <v>-0.43301270189221919</v>
+      </c>
+      <c r="Q24" s="7">
+        <v>0</v>
+      </c>
+      <c r="R24" s="8">
+        <f>Q25*SIN(RADIANS(Q23))*COS(RADIANS(Q24))</f>
+        <v>-0.40957602214449579</v>
+      </c>
+      <c r="S24" s="7">
+        <v>30</v>
+      </c>
+      <c r="T24" s="8">
+        <f>S25*SIN(RADIANS(S23))*COS(RADIANS(S24))</f>
+        <v>-0.40689884067468685</v>
+      </c>
+      <c r="U24" s="7">
+        <v>20</v>
+      </c>
+      <c r="V24" s="8">
+        <f>U25*SIN(RADIANS(U23))*COS(RADIANS(U24))</f>
+        <v>-0.93969262078590843</v>
+      </c>
+      <c r="W24" s="9">
+        <v>90</v>
+      </c>
+      <c r="X24" s="8">
+        <f>W25*SIN(RADIANS(W23))*COS(RADIANS(W24))</f>
+        <v>-3.06287113727155E-17</v>
+      </c>
+      <c r="Z24">
+        <f t="shared" si="0"/>
+        <v>2.7176362785023849</v>
+      </c>
+      <c r="AA24">
+        <f t="shared" si="11"/>
+        <v>324.76293826141432</v>
+      </c>
+      <c r="AB24">
+        <f t="shared" si="1"/>
+        <v>18.021180268268068</v>
+      </c>
+      <c r="AD24">
+        <f t="shared" si="2"/>
+        <v>1.4117109332996757E-3</v>
+      </c>
+      <c r="AE24">
+        <f t="shared" si="3"/>
+        <v>2.1887119741469997E-2</v>
+      </c>
+      <c r="AF24">
+        <f t="shared" si="4"/>
+        <v>1.3335447069188816E-3</v>
+      </c>
+      <c r="AG24">
+        <f t="shared" si="5"/>
+        <v>2.1887119741469997E-2</v>
+      </c>
+      <c r="AH24">
+        <f t="shared" si="6"/>
+        <v>2.1887119741469997E-2</v>
+      </c>
+      <c r="AI24">
+        <f t="shared" si="7"/>
+        <v>2.1887119741469997E-2</v>
+      </c>
+      <c r="AJ24">
+        <f t="shared" si="8"/>
+        <v>7.0379299353514517E-3</v>
+      </c>
+      <c r="AK24">
+        <f t="shared" si="9"/>
+        <v>1.3977176358036998E-2</v>
+      </c>
+      <c r="AL24">
+        <f t="shared" si="10"/>
+        <v>1.7837706038013051E-7</v>
+      </c>
+    </row>
+    <row r="25" spans="3:38" x14ac:dyDescent="0.3">
+      <c r="C25" s="10"/>
+      <c r="D25" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E25" s="11">
+        <v>5</v>
+      </c>
+      <c r="F25" s="12">
+        <f>E25*SIN(RADIANS(E24))</f>
+        <v>-0.86824088833465163</v>
+      </c>
+      <c r="G25" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="H25" s="12">
+        <f>G25*SIN(RADIANS(G24))</f>
+        <v>0.35355339059327373</v>
+      </c>
+      <c r="I25" s="11">
+        <v>5</v>
+      </c>
+      <c r="J25" s="12">
+        <f>I25*SIN(RADIANS(I24))</f>
+        <v>0</v>
+      </c>
+      <c r="K25" s="11">
+        <v>5</v>
+      </c>
+      <c r="L25" s="12">
+        <f>K25*SIN(RADIANS(K24))</f>
+        <v>-3.2139380484326963</v>
+      </c>
+      <c r="M25" s="11">
+        <v>5</v>
+      </c>
+      <c r="N25" s="12">
+        <f>M25*SIN(RADIANS(M24))</f>
+        <v>0</v>
+      </c>
+      <c r="O25" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="P25" s="12">
+        <f>O25*SIN(RADIANS(O24))</f>
+        <v>0</v>
+      </c>
+      <c r="Q25" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="R25" s="12">
+        <f>Q25*SIN(RADIANS(Q24))</f>
+        <v>0</v>
+      </c>
+      <c r="S25" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="T25" s="12">
+        <f>S25*SIN(RADIANS(S24))</f>
+        <v>0.24999999999999997</v>
+      </c>
+      <c r="U25" s="11">
+        <v>1</v>
+      </c>
+      <c r="V25" s="12">
+        <f>U25*SIN(RADIANS(U24))</f>
+        <v>0.34202014332566871</v>
+      </c>
+      <c r="W25" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="X25" s="12">
+        <f>W25*SIN(RADIANS(W24))</f>
+        <v>0.5</v>
+      </c>
+      <c r="Z25">
+        <f t="shared" si="0"/>
+        <v>1.0259743561440384</v>
+      </c>
+      <c r="AA25">
+        <f t="shared" si="11"/>
+        <v>4.7818364724790507</v>
+      </c>
+      <c r="AB25">
+        <f t="shared" si="1"/>
+        <v>2.1867410620553707</v>
+      </c>
+      <c r="AD25">
+        <f t="shared" si="2"/>
+        <v>0.17723514277924057</v>
+      </c>
+      <c r="AE25">
+        <f t="shared" si="3"/>
+        <v>3.4990058462135126E-2</v>
+      </c>
+      <c r="AF25">
+        <f t="shared" si="4"/>
+        <v>3.4990058462135126E-2</v>
+      </c>
+      <c r="AG25">
+        <f t="shared" si="5"/>
+        <v>3.4990058462135126E-2</v>
+      </c>
+      <c r="AH25">
+        <f t="shared" si="6"/>
+        <v>0.17723514277924057</v>
+      </c>
+      <c r="AI25">
+        <f t="shared" si="7"/>
+        <v>0.17723514277924057</v>
+      </c>
+      <c r="AJ25">
+        <f t="shared" si="8"/>
+        <v>0.17723514277924057</v>
+      </c>
+      <c r="AK25">
+        <f t="shared" si="9"/>
+        <v>0.18242403960021483</v>
+      </c>
+      <c r="AL25">
+        <f t="shared" si="10"/>
+        <v>0.17723514277924057</v>
+      </c>
+    </row>
+    <row r="26" spans="3:38" x14ac:dyDescent="0.3">
+      <c r="C26" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" s="3">
+        <f>360-355</f>
+        <v>5</v>
+      </c>
+      <c r="F26" s="4">
+        <f>E28*COS(RADIANS(E26))*COS(RADIANS(E27))</f>
+        <v>10.297284873291451</v>
+      </c>
+      <c r="G26" s="3">
+        <v>0</v>
+      </c>
+      <c r="H26" s="4">
+        <f>G28*COS(RADIANS(G26))*COS(RADIANS(G27))</f>
+        <v>5</v>
+      </c>
+      <c r="I26" s="3">
+        <v>0</v>
+      </c>
+      <c r="J26" s="4">
+        <f>I28*COS(RADIANS(I26))*COS(RADIANS(I27))</f>
+        <v>5</v>
+      </c>
+      <c r="K26" s="3">
+        <f>360-225</f>
+        <v>135</v>
+      </c>
+      <c r="L26" s="4">
+        <f>K28*COS(RADIANS(K26))*COS(RADIANS(K27))</f>
+        <v>-2.896139826697846</v>
+      </c>
+      <c r="M26" s="3">
+        <f>360-225</f>
+        <v>135</v>
+      </c>
+      <c r="N26" s="4">
+        <f>M28*COS(RADIANS(M26))*COS(RADIANS(M27))</f>
+        <v>-1.3289260487773493</v>
+      </c>
+      <c r="O26" s="3">
+        <f>360-300</f>
+        <v>60</v>
+      </c>
+      <c r="P26" s="4">
+        <f>O28*COS(RADIANS(O26))*COS(RADIANS(O27))</f>
+        <v>0.81915204428899202</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+      <c r="R26" s="4">
+        <f>Q28*COS(RADIANS(Q26))*COS(RADIANS(Q27))</f>
+        <v>6.1257422745431001E-17</v>
+      </c>
+      <c r="S26" s="3">
+        <v>0</v>
+      </c>
+      <c r="T26" s="4">
+        <f>S28*COS(RADIANS(S26))*COS(RADIANS(S27))</f>
+        <v>1</v>
+      </c>
+      <c r="U26" s="3">
+        <v>0</v>
+      </c>
+      <c r="V26" s="4">
+        <f>U28*COS(RADIANS(U26))*COS(RADIANS(U27))</f>
+        <v>4.9240387650610398</v>
+      </c>
+      <c r="W26" s="5">
+        <v>270</v>
+      </c>
+      <c r="X26" s="4">
+        <f>W28*COS(RADIANS(W26))*COS(RADIANS(W27))</f>
+        <v>-5.6287077621186709E-32</v>
+      </c>
+      <c r="Z26">
+        <f t="shared" si="0"/>
+        <v>22.506272411254255</v>
+      </c>
+      <c r="AA26">
+        <f t="shared" si="11"/>
+        <v>2167.5893475111206</v>
+      </c>
+      <c r="AB26">
+        <f t="shared" si="1"/>
+        <v>46.557376939762413</v>
+      </c>
+      <c r="AD26">
+        <f t="shared" si="2"/>
+        <v>7.6239070157672652E-3</v>
+      </c>
+      <c r="AE26">
+        <f t="shared" si="3"/>
+        <v>7.6239070157672652E-3</v>
+      </c>
+      <c r="AF26">
+        <f t="shared" si="4"/>
+        <v>4.6256276944177702E-4</v>
+      </c>
+      <c r="AG26">
+        <f t="shared" si="5"/>
+        <v>4.6256276944177702E-4</v>
+      </c>
+      <c r="AH26">
+        <f t="shared" si="6"/>
+        <v>6.1957197740354075E-3</v>
+      </c>
+      <c r="AI26">
+        <f t="shared" si="7"/>
+        <v>7.6239070157672652E-3</v>
+      </c>
+      <c r="AJ26">
+        <f t="shared" si="8"/>
+        <v>7.6239070157672652E-3</v>
+      </c>
+      <c r="AK26">
+        <f t="shared" si="9"/>
+        <v>7.6239070157672652E-3</v>
+      </c>
+      <c r="AL26">
+        <f t="shared" si="10"/>
+        <v>6.2608605950086929E-9</v>
+      </c>
+    </row>
+    <row r="27" spans="3:38" x14ac:dyDescent="0.3">
+      <c r="C27" s="6"/>
+      <c r="D27" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="7">
+        <v>-20</v>
+      </c>
+      <c r="F27" s="8">
+        <f>E28*SIN(RADIANS(E26))*COS(RADIANS(E27))</f>
+        <v>0.90089569150998272</v>
+      </c>
+      <c r="G27" s="7">
+        <v>0</v>
+      </c>
+      <c r="H27" s="8">
+        <f>G28*SIN(RADIANS(G26))*COS(RADIANS(G27))</f>
+        <v>0</v>
+      </c>
+      <c r="I27" s="7">
+        <v>0</v>
+      </c>
+      <c r="J27" s="8">
+        <f>I28*SIN(RADIANS(I26))*COS(RADIANS(I27))</f>
+        <v>0</v>
+      </c>
+      <c r="K27" s="7">
+        <v>-35</v>
+      </c>
+      <c r="L27" s="8">
+        <f>K28*SIN(RADIANS(K26))*COS(RADIANS(K27))</f>
+        <v>2.896139826697846</v>
+      </c>
+      <c r="M27" s="7">
+        <v>-20</v>
+      </c>
+      <c r="N27" s="8">
+        <f>M28*SIN(RADIANS(M26))*COS(RADIANS(M27))</f>
+        <v>1.3289260487773495</v>
+      </c>
+      <c r="O27" s="7">
+        <v>35</v>
+      </c>
+      <c r="P27" s="8">
+        <f>O28*SIN(RADIANS(O26))*COS(RADIANS(O27))</f>
+        <v>1.4188129598324448</v>
+      </c>
+      <c r="Q27" s="7">
+        <v>90</v>
+      </c>
+      <c r="R27" s="8">
+        <f>Q28*SIN(RADIANS(Q26))*COS(RADIANS(Q27))</f>
+        <v>0</v>
+      </c>
+      <c r="S27" s="7">
+        <v>0</v>
+      </c>
+      <c r="T27" s="8">
+        <f>S28*SIN(RADIANS(S26))*COS(RADIANS(S27))</f>
+        <v>0</v>
+      </c>
+      <c r="U27" s="7">
+        <v>10</v>
+      </c>
+      <c r="V27" s="8">
+        <f>U28*SIN(RADIANS(U26))*COS(RADIANS(U27))</f>
+        <v>0</v>
+      </c>
+      <c r="W27" s="9">
+        <v>90</v>
+      </c>
+      <c r="X27" s="8">
+        <f>W28*SIN(RADIANS(W26))*COS(RADIANS(W27))</f>
+        <v>-3.06287113727155E-16</v>
+      </c>
+      <c r="Z27">
+        <f t="shared" si="0"/>
+        <v>5.7095919223538427</v>
+      </c>
+      <c r="AA27">
+        <f t="shared" si="11"/>
+        <v>704.87834011711789</v>
+      </c>
+      <c r="AB27">
+        <f t="shared" si="1"/>
+        <v>26.549545007723161</v>
+      </c>
+      <c r="AD27">
+        <f t="shared" si="2"/>
+        <v>1.4682847485730626E-2</v>
+      </c>
+      <c r="AE27">
+        <f t="shared" si="3"/>
+        <v>1.4682847485730626E-2</v>
+      </c>
+      <c r="AF27">
+        <f t="shared" si="4"/>
+        <v>4.6377616909909266E-3</v>
+      </c>
+      <c r="AG27">
+        <f t="shared" si="5"/>
+        <v>9.4021733748982633E-3</v>
+      </c>
+      <c r="AH27">
+        <f t="shared" si="6"/>
+        <v>8.1762984736000015E-3</v>
+      </c>
+      <c r="AI27">
+        <f t="shared" si="7"/>
+        <v>9.7297448561518428E-5</v>
+      </c>
+      <c r="AJ27">
+        <f t="shared" si="8"/>
+        <v>1.4682847485730626E-2</v>
+      </c>
+      <c r="AK27">
+        <f t="shared" si="9"/>
+        <v>1.4831404311867772E-2</v>
+      </c>
+      <c r="AL27">
+        <f t="shared" si="10"/>
+        <v>9.7297448561518428E-5</v>
+      </c>
+    </row>
+    <row r="28" spans="3:38" x14ac:dyDescent="0.3">
+      <c r="C28" s="6"/>
+      <c r="D28" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E28" s="7">
+        <v>11</v>
+      </c>
+      <c r="F28" s="8">
+        <f>E28*SIN(RADIANS(E27))</f>
+        <v>-3.7622215765823559</v>
+      </c>
+      <c r="G28" s="7">
+        <v>5</v>
+      </c>
+      <c r="H28" s="8">
+        <f>G28*SIN(RADIANS(G27))</f>
+        <v>0</v>
+      </c>
+      <c r="I28" s="7">
+        <v>5</v>
+      </c>
+      <c r="J28" s="8">
+        <f>I28*SIN(RADIANS(I27))</f>
+        <v>0</v>
+      </c>
+      <c r="K28" s="7">
+        <v>5</v>
+      </c>
+      <c r="L28" s="8">
+        <f>K28*SIN(RADIANS(K27))</f>
+        <v>-2.8678821817552302</v>
+      </c>
+      <c r="M28" s="7">
+        <v>2</v>
+      </c>
+      <c r="N28" s="8">
+        <f>M28*SIN(RADIANS(M27))</f>
+        <v>-0.68404028665133743</v>
+      </c>
+      <c r="O28" s="7">
+        <v>2</v>
+      </c>
+      <c r="P28" s="8">
+        <f>O28*SIN(RADIANS(O27))</f>
+        <v>1.1471528727020921</v>
+      </c>
+      <c r="Q28" s="7">
+        <v>1</v>
+      </c>
+      <c r="R28" s="8">
+        <f>Q28*SIN(RADIANS(Q27))</f>
+        <v>1</v>
+      </c>
+      <c r="S28" s="7">
+        <v>1</v>
+      </c>
+      <c r="T28" s="8">
+        <f>S28*SIN(RADIANS(S27))</f>
+        <v>0</v>
+      </c>
+      <c r="U28" s="7">
+        <v>5</v>
+      </c>
+      <c r="V28" s="8">
+        <f>U28*SIN(RADIANS(U27))</f>
+        <v>0.86824088833465163</v>
+      </c>
+      <c r="W28" s="9">
+        <v>5</v>
+      </c>
+      <c r="X28" s="8">
+        <f>W28*SIN(RADIANS(W27))</f>
+        <v>5</v>
+      </c>
+      <c r="Z28">
+        <f t="shared" si="0"/>
+        <v>1.639682026953035</v>
+      </c>
+      <c r="AA28">
+        <f t="shared" si="11"/>
+        <v>5.378684119523176</v>
+      </c>
+      <c r="AB28">
+        <f t="shared" si="1"/>
+        <v>2.3191990254230395</v>
+      </c>
+      <c r="AD28">
+        <f t="shared" si="2"/>
+        <v>6.0214922549333402E-2</v>
+      </c>
+      <c r="AE28">
+        <f t="shared" si="3"/>
+        <v>6.0214922549333402E-2</v>
+      </c>
+      <c r="AF28">
+        <f t="shared" si="4"/>
+        <v>6.0214922549333402E-2</v>
+      </c>
+      <c r="AG28">
+        <f t="shared" si="5"/>
+        <v>0.16995369530954366</v>
+      </c>
+      <c r="AH28">
+        <f t="shared" si="6"/>
+        <v>0.16995369530954366</v>
+      </c>
+      <c r="AI28">
+        <f t="shared" si="7"/>
+        <v>0.1655968906576617</v>
+      </c>
+      <c r="AJ28">
+        <f t="shared" si="8"/>
+        <v>0.1655968906576617</v>
+      </c>
+      <c r="AK28">
+        <f t="shared" si="9"/>
+        <v>6.0214922549333402E-2</v>
+      </c>
+      <c r="AL28">
+        <f t="shared" si="10"/>
+        <v>6.0214922549333402E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="3:38" x14ac:dyDescent="0.3">
+      <c r="C29" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="4">
+        <f>E31*COS(RADIANS(E29))*COS(RADIANS(E30))</f>
+        <v>2</v>
+      </c>
+      <c r="G29" s="3">
+        <f>360-180</f>
+        <v>180</v>
+      </c>
+      <c r="H29" s="4">
+        <f>G31*COS(RADIANS(G29))*COS(RADIANS(G30))</f>
+        <v>-5</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="4">
+        <f>I31*COS(RADIANS(I29))*COS(RADIANS(I30))</f>
+        <v>7.6604444311897799</v>
+      </c>
+      <c r="K29" s="3">
+        <f>360-90</f>
+        <v>270</v>
+      </c>
+      <c r="L29" s="4">
+        <f>K31*COS(RADIANS(K29))*COS(RADIANS(K30))</f>
+        <v>-1.83772268236293E-15</v>
+      </c>
+      <c r="M29" s="3">
+        <f>360-200</f>
+        <v>160</v>
+      </c>
+      <c r="N29" s="4">
+        <f>M31*COS(RADIANS(M29))*COS(RADIANS(M30))</f>
+        <v>-4.4151111077974452</v>
+      </c>
+      <c r="O29" s="3">
+        <f>360-45</f>
+        <v>315</v>
+      </c>
+      <c r="P29" s="4">
+        <f>O31*COS(RADIANS(O29))*COS(RADIANS(O30))</f>
+        <v>3.0618621784789721</v>
+      </c>
+      <c r="Q29" s="3">
+        <f>360-225</f>
+        <v>135</v>
+      </c>
+      <c r="R29" s="4">
+        <f>Q31*COS(RADIANS(Q29))*COS(RADIANS(Q30))</f>
+        <v>-1.4142135623730949</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="4">
+        <f>S31*COS(RADIANS(S29))*COS(RADIANS(S30))</f>
+        <v>5.6381557247154506</v>
+      </c>
+      <c r="U29" s="3">
+        <f>360-180</f>
+        <v>180</v>
+      </c>
+      <c r="V29" s="4">
+        <f>U31*COS(RADIANS(U29))*COS(RADIANS(U30))</f>
+        <v>-6.5778483455013586</v>
+      </c>
+      <c r="W29" s="5">
+        <v>270</v>
+      </c>
+      <c r="X29" s="4">
+        <f>W31*COS(RADIANS(W29))*COS(RADIANS(W30))</f>
+        <v>-1.83772268236293E-16</v>
+      </c>
+      <c r="Z29">
+        <f t="shared" si="0"/>
+        <v>83.035409177614241</v>
+      </c>
+      <c r="AA29">
+        <f t="shared" si="11"/>
+        <v>11831.543450369756</v>
+      </c>
+      <c r="AB29">
+        <f t="shared" si="1"/>
+        <v>108.77289851047344</v>
+      </c>
+      <c r="AD29">
+        <f t="shared" si="2"/>
+        <v>2.4650726002293762E-3</v>
+      </c>
+      <c r="AE29">
+        <f t="shared" si="3"/>
+        <v>2.7406018264043782E-3</v>
+      </c>
+      <c r="AF29">
+        <f t="shared" si="4"/>
+        <v>8.3721633797592958E-4</v>
+      </c>
+      <c r="AG29">
+        <f t="shared" si="5"/>
+        <v>2.8554398722952842E-3</v>
+      </c>
+      <c r="AH29">
+        <f t="shared" si="6"/>
+        <v>3.7743807510904568E-4</v>
+      </c>
+      <c r="AI29">
+        <f t="shared" si="7"/>
+        <v>3.2721239594378296E-3</v>
+      </c>
+      <c r="AJ29">
+        <f t="shared" si="8"/>
+        <v>2.7406018264043782E-3</v>
+      </c>
+      <c r="AK29">
+        <f t="shared" si="9"/>
+        <v>2.4650726002293762E-3</v>
+      </c>
+      <c r="AL29">
+        <f t="shared" si="10"/>
+        <v>8.3721633797592958E-4</v>
+      </c>
+    </row>
+    <row r="30" spans="3:38" x14ac:dyDescent="0.3">
+      <c r="C30" s="6"/>
+      <c r="D30" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" s="7">
+        <v>0</v>
+      </c>
+      <c r="F30" s="8">
+        <f>E31*SIN(RADIANS(E29))*COS(RADIANS(E30))</f>
+        <v>0</v>
+      </c>
+      <c r="G30" s="7">
+        <v>0</v>
+      </c>
+      <c r="H30" s="8">
+        <f>G31*SIN(RADIANS(G29))*COS(RADIANS(G30))</f>
+        <v>6.1257422745431001E-16</v>
+      </c>
+      <c r="I30" s="7">
+        <v>-40</v>
+      </c>
+      <c r="J30" s="8">
+        <f>I31*SIN(RADIANS(I29))*COS(RADIANS(I30))</f>
+        <v>0</v>
+      </c>
+      <c r="K30" s="7">
+        <v>0</v>
+      </c>
+      <c r="L30" s="8">
+        <f>K31*SIN(RADIANS(K29))*COS(RADIANS(K30))</f>
+        <v>-10</v>
+      </c>
+      <c r="M30" s="7">
+        <v>-20</v>
+      </c>
+      <c r="N30" s="8">
+        <f>M31*SIN(RADIANS(M29))*COS(RADIANS(M30))</f>
+        <v>1.606969024216349</v>
+      </c>
+      <c r="O30" s="7">
+        <v>-30</v>
+      </c>
+      <c r="P30" s="8">
+        <f>O31*SIN(RADIANS(O29))*COS(RADIANS(O30))</f>
+        <v>-3.0618621784789739</v>
+      </c>
+      <c r="Q30" s="7">
+        <v>0</v>
+      </c>
+      <c r="R30" s="8">
+        <f>Q31*SIN(RADIANS(Q29))*COS(RADIANS(Q30))</f>
+        <v>1.4142135623730951</v>
+      </c>
+      <c r="S30" s="7">
+        <v>20</v>
+      </c>
+      <c r="T30" s="8">
+        <f>S31*SIN(RADIANS(S29))*COS(RADIANS(S30))</f>
+        <v>0</v>
+      </c>
+      <c r="U30" s="7">
+        <v>-20</v>
+      </c>
+      <c r="V30" s="8">
+        <f>U31*SIN(RADIANS(U29))*COS(RADIANS(U30))</f>
+        <v>8.058840737114212E-16</v>
+      </c>
+      <c r="W30" s="9">
+        <v>0</v>
+      </c>
+      <c r="X30" s="8">
+        <f>W31*SIN(RADIANS(W29))*COS(RADIANS(W30))</f>
+        <v>-1</v>
+      </c>
+      <c r="Z30">
+        <f t="shared" si="0"/>
+        <v>-6.6693786394593015</v>
+      </c>
+      <c r="AA30">
+        <f t="shared" si="11"/>
+        <v>209.78321185984339</v>
+      </c>
+      <c r="AB30">
+        <f t="shared" si="1"/>
+        <v>14.483894913311246</v>
+      </c>
+      <c r="AD30">
+        <f t="shared" si="2"/>
+        <v>2.4773232832081472E-2</v>
+      </c>
+      <c r="AE30">
+        <f t="shared" si="3"/>
+        <v>1.9502816998539965E-3</v>
+      </c>
+      <c r="AF30">
+        <f t="shared" si="4"/>
+        <v>2.4773232832081472E-2</v>
+      </c>
+      <c r="AG30">
+        <f t="shared" si="5"/>
+        <v>1.8033550161340391E-2</v>
+      </c>
+      <c r="AH30">
+        <f t="shared" si="6"/>
+        <v>7.5266131207111396E-3</v>
+      </c>
+      <c r="AI30">
+        <f t="shared" si="7"/>
+        <v>2.4773232832081472E-2</v>
+      </c>
+      <c r="AJ30">
+        <f t="shared" si="8"/>
+        <v>5.0559375649236633E-3</v>
+      </c>
+      <c r="AK30">
+        <f t="shared" si="9"/>
+        <v>1.8033550161340391E-2</v>
+      </c>
+      <c r="AL30">
+        <f t="shared" si="10"/>
+        <v>2.4773232832081472E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="3:38" x14ac:dyDescent="0.3">
+      <c r="C31" s="10"/>
+      <c r="D31" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E31" s="11">
+        <v>2</v>
+      </c>
+      <c r="F31" s="12">
+        <f>E31*SIN(RADIANS(E30))</f>
+        <v>0</v>
+      </c>
+      <c r="G31" s="11">
+        <v>5</v>
+      </c>
+      <c r="H31" s="12">
+        <f>G31*SIN(RADIANS(G30))</f>
+        <v>0</v>
+      </c>
+      <c r="I31" s="11">
+        <v>10</v>
+      </c>
+      <c r="J31" s="12">
+        <f>I31*SIN(RADIANS(I30))</f>
+        <v>-6.4278760968653925</v>
+      </c>
+      <c r="K31" s="11">
+        <v>10</v>
+      </c>
+      <c r="L31" s="12">
+        <f>K31*SIN(RADIANS(K30))</f>
+        <v>0</v>
+      </c>
+      <c r="M31" s="11">
+        <v>5</v>
+      </c>
+      <c r="N31" s="12">
+        <f>M31*SIN(RADIANS(M30))</f>
+        <v>-1.7101007166283435</v>
+      </c>
+      <c r="O31" s="11">
+        <v>5</v>
+      </c>
+      <c r="P31" s="12">
+        <f>O31*SIN(RADIANS(O30))</f>
+        <v>-2.4999999999999996</v>
+      </c>
+      <c r="Q31" s="11">
+        <v>2</v>
+      </c>
+      <c r="R31" s="12">
+        <f>Q31*SIN(RADIANS(Q30))</f>
+        <v>0</v>
+      </c>
+      <c r="S31" s="11">
+        <v>6</v>
+      </c>
+      <c r="T31" s="12">
+        <f>S31*SIN(RADIANS(S30))</f>
+        <v>2.0521208599540124</v>
+      </c>
+      <c r="U31" s="11">
+        <v>7</v>
+      </c>
+      <c r="V31" s="12">
+        <f>U31*SIN(RADIANS(U30))</f>
+        <v>-2.3941410032796808</v>
+      </c>
+      <c r="W31" s="13">
+        <v>1</v>
+      </c>
+      <c r="X31" s="12">
+        <f>W31*SIN(RADIANS(W30))</f>
+        <v>0</v>
+      </c>
+      <c r="Z31">
+        <f t="shared" si="0"/>
+        <v>2.7609429364306854</v>
+      </c>
+      <c r="AA31">
+        <f t="shared" si="11"/>
+        <v>20.290743141875154</v>
+      </c>
+      <c r="AB31">
+        <f t="shared" si="1"/>
+        <v>4.5045247409549383</v>
+      </c>
+      <c r="AD31">
+        <f t="shared" si="2"/>
+        <v>7.8272461928753881E-2</v>
+      </c>
+      <c r="AE31">
+        <f t="shared" si="3"/>
+        <v>2.4346981835994153E-2</v>
+      </c>
+      <c r="AF31">
+        <f t="shared" si="4"/>
+        <v>2.4346981835994153E-2</v>
+      </c>
+      <c r="AG31">
+        <f t="shared" si="5"/>
+        <v>7.8272461928753881E-2</v>
+      </c>
+      <c r="AH31">
+        <f t="shared" si="6"/>
+        <v>7.8272461928753881E-2</v>
+      </c>
+      <c r="AI31">
+        <f t="shared" si="7"/>
+        <v>8.7310080410705093E-2</v>
+      </c>
+      <c r="AJ31">
+        <f t="shared" si="8"/>
+        <v>6.8388546802481409E-2</v>
+      </c>
+      <c r="AK31">
+        <f t="shared" si="9"/>
+        <v>5.6879291739596757E-2</v>
+      </c>
+      <c r="AL31">
+        <f t="shared" si="10"/>
+        <v>8.2049454693274432E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="3:38" x14ac:dyDescent="0.3">
+      <c r="C32" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32" s="3">
+        <f>360-225</f>
+        <v>135</v>
+      </c>
+      <c r="F32" s="4">
+        <f>E34*COS(RADIANS(E32))*COS(RADIANS(E33))</f>
+        <v>-6.9296464556281654</v>
+      </c>
+      <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="4">
+        <f>G34*COS(RADIANS(G32))*COS(RADIANS(G33))</f>
+        <v>10</v>
+      </c>
+      <c r="I32" s="3">
+        <f>360-90</f>
+        <v>270</v>
+      </c>
+      <c r="J32" s="4">
+        <f>I34*COS(RADIANS(I32))*COS(RADIANS(I33))</f>
+        <v>-1.8098035454774049E-15</v>
+      </c>
+      <c r="K32" s="3">
+        <f>360-225</f>
+        <v>135</v>
+      </c>
+      <c r="L32" s="4">
+        <f>K34*COS(RADIANS(K32))*COS(RADIANS(K33))</f>
+        <v>-5.4167522041970182</v>
+      </c>
+      <c r="M32" s="3">
+        <f>360-200</f>
+        <v>160</v>
+      </c>
+      <c r="N32" s="4">
+        <f>M34*COS(RADIANS(M32))*COS(RADIANS(M33))</f>
+        <v>-7.1984631039295417</v>
+      </c>
+      <c r="O32" s="3">
+        <f>360-300</f>
+        <v>60</v>
+      </c>
+      <c r="P32" s="4">
+        <f>O34*COS(RADIANS(O32))*COS(RADIANS(O33))</f>
+        <v>3.8302222155948908</v>
+      </c>
+      <c r="Q32" s="3">
+        <f>360-225</f>
+        <v>135</v>
+      </c>
+      <c r="R32" s="4">
+        <f>Q34*COS(RADIANS(Q32))*COS(RADIANS(Q33))</f>
+        <v>-5.3157041951093973</v>
+      </c>
+      <c r="S32" s="3">
+        <f>360-260</f>
+        <v>100</v>
+      </c>
+      <c r="T32" s="4">
+        <f>S34*COS(RADIANS(S32))*COS(RADIANS(S33))</f>
+        <v>-1.5038373318043528</v>
+      </c>
+      <c r="U32" s="3">
+        <f>360-325</f>
+        <v>35</v>
+      </c>
+      <c r="V32" s="4">
+        <f>U34*COS(RADIANS(U32))*COS(RADIANS(U33))</f>
+        <v>2.8016649959323559</v>
+      </c>
+      <c r="W32" s="5">
+        <v>80</v>
+      </c>
+      <c r="X32" s="4">
+        <f>W34*COS(RADIANS(W32))*COS(RADIANS(W33))</f>
+        <v>0.86824088833465207</v>
+      </c>
+      <c r="Z32">
+        <f t="shared" si="0"/>
+        <v>59.293031025370304</v>
+      </c>
+      <c r="AA32">
+        <f t="shared" si="11"/>
+        <v>6484.4263328599127</v>
+      </c>
+      <c r="AB32">
+        <f t="shared" si="1"/>
+        <v>80.525935777610883</v>
+      </c>
+      <c r="AD32">
+        <f t="shared" si="2"/>
+        <v>3.7778394324081348E-3</v>
+      </c>
+      <c r="AE32">
+        <f t="shared" si="3"/>
+        <v>1.6151592895552244E-4</v>
+      </c>
+      <c r="AF32">
+        <f t="shared" si="4"/>
+        <v>3.1844846124277084E-3</v>
+      </c>
+      <c r="AG32">
+        <f t="shared" si="5"/>
+        <v>2.2664576133034991E-3</v>
+      </c>
+      <c r="AH32">
+        <f t="shared" si="6"/>
+        <v>4.9540176348704616E-3</v>
+      </c>
+      <c r="AI32">
+        <f t="shared" si="7"/>
+        <v>3.1844846124277084E-3</v>
+      </c>
+      <c r="AJ32">
+        <f t="shared" si="8"/>
+        <v>4.3599707401810019E-3</v>
+      </c>
+      <c r="AK32">
+        <f t="shared" si="9"/>
+        <v>4.7338183696447704E-3</v>
+      </c>
+      <c r="AL32">
+        <f t="shared" si="10"/>
+        <v>4.7930897628395124E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="3:38" x14ac:dyDescent="0.3">
+      <c r="C33" s="6"/>
+      <c r="D33" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" s="7">
+        <v>0</v>
+      </c>
+      <c r="F33" s="8">
+        <f>E34*SIN(RADIANS(E32))*COS(RADIANS(E33))</f>
+        <v>6.9296464556281663</v>
+      </c>
+      <c r="G33" s="7">
+        <v>0</v>
+      </c>
+      <c r="H33" s="8">
+        <f>G34*SIN(RADIANS(G32))*COS(RADIANS(G33))</f>
+        <v>0</v>
+      </c>
+      <c r="I33" s="7">
+        <v>10</v>
+      </c>
+      <c r="J33" s="8">
+        <f>I34*SIN(RADIANS(I32))*COS(RADIANS(I33))</f>
+        <v>-9.8480775301220795</v>
+      </c>
+      <c r="K33" s="7">
+        <v>-40</v>
+      </c>
+      <c r="L33" s="8">
+        <f>K34*SIN(RADIANS(K32))*COS(RADIANS(K33))</f>
+        <v>5.4167522041970182</v>
+      </c>
+      <c r="M33" s="7">
+        <v>-40</v>
+      </c>
+      <c r="N33" s="8">
+        <f>M34*SIN(RADIANS(M32))*COS(RADIANS(M33))</f>
+        <v>2.6200263022938506</v>
+      </c>
+      <c r="O33" s="7">
+        <v>-40</v>
+      </c>
+      <c r="P33" s="8">
+        <f>O34*SIN(RADIANS(O32))*COS(RADIANS(O33))</f>
+        <v>6.6341394816893828</v>
+      </c>
+      <c r="Q33" s="7">
+        <v>-20</v>
+      </c>
+      <c r="R33" s="8">
+        <f>Q34*SIN(RADIANS(Q32))*COS(RADIANS(Q33))</f>
+        <v>5.3157041951093982</v>
+      </c>
+      <c r="S33" s="7">
+        <v>30</v>
+      </c>
+      <c r="T33" s="8">
+        <f>S34*SIN(RADIANS(S32))*COS(RADIANS(S33))</f>
+        <v>8.5286853195244312</v>
+      </c>
+      <c r="U33" s="7">
+        <v>70</v>
+      </c>
+      <c r="V33" s="8">
+        <f>U34*SIN(RADIANS(U32))*COS(RADIANS(U33))</f>
+        <v>1.9617469496901112</v>
+      </c>
+      <c r="W33" s="9">
+        <v>0</v>
+      </c>
+      <c r="X33" s="8">
+        <f>W34*SIN(RADIANS(W32))*COS(RADIANS(W33))</f>
+        <v>4.9240387650610398</v>
+      </c>
+      <c r="Z33">
+        <f t="shared" si="0"/>
+        <v>-0.75551800182053241</v>
+      </c>
+      <c r="AA33">
+        <f t="shared" si="11"/>
+        <v>757.97568350476274</v>
+      </c>
+      <c r="AB33">
+        <f t="shared" si="1"/>
+        <v>27.531358184890966</v>
+      </c>
+      <c r="AD33">
+        <f t="shared" si="2"/>
+        <v>1.4485013438497757E-2</v>
+      </c>
+      <c r="AE33">
+        <f t="shared" si="3"/>
+        <v>1.3425848030651773E-2</v>
+      </c>
+      <c r="AF33">
+        <f t="shared" si="4"/>
+        <v>5.2463995034762803E-3</v>
+      </c>
+      <c r="AG33">
+        <f t="shared" si="5"/>
+        <v>5.2463995034762803E-3</v>
+      </c>
+      <c r="AH33">
+        <f t="shared" si="6"/>
+        <v>5.2463995034762803E-3</v>
+      </c>
+      <c r="AI33">
+        <f t="shared" si="7"/>
+        <v>1.1349673795906725E-2</v>
+      </c>
+      <c r="AJ33">
+        <f t="shared" si="8"/>
+        <v>7.7642140951302424E-3</v>
+      </c>
+      <c r="AK33">
+        <f t="shared" si="9"/>
+        <v>5.3315017726331419E-4</v>
+      </c>
+      <c r="AL33">
+        <f t="shared" si="10"/>
+        <v>1.4485013438497757E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="3:38" x14ac:dyDescent="0.3">
+      <c r="C34" s="10"/>
+      <c r="D34" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E34" s="11">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="F34" s="12">
+        <f>E34*SIN(RADIANS(E33))</f>
+        <v>0</v>
+      </c>
+      <c r="G34" s="11">
+        <v>10</v>
+      </c>
+      <c r="H34" s="12">
+        <f>G34*SIN(RADIANS(G33))</f>
+        <v>0</v>
+      </c>
+      <c r="I34" s="11">
+        <v>10</v>
+      </c>
+      <c r="J34" s="12">
+        <f>I34*SIN(RADIANS(I33))</f>
+        <v>1.7364817766693033</v>
+      </c>
+      <c r="K34" s="11">
+        <v>10</v>
+      </c>
+      <c r="L34" s="12">
+        <f>K34*SIN(RADIANS(K33))</f>
+        <v>-6.4278760968653925</v>
+      </c>
+      <c r="M34" s="11">
+        <v>10</v>
+      </c>
+      <c r="N34" s="12">
+        <f>M34*SIN(RADIANS(M33))</f>
+        <v>-6.4278760968653925</v>
+      </c>
+      <c r="O34" s="11">
+        <v>10</v>
+      </c>
+      <c r="P34" s="12">
+        <f>O34*SIN(RADIANS(O33))</f>
+        <v>-6.4278760968653925</v>
+      </c>
+      <c r="Q34" s="11">
+        <v>8</v>
+      </c>
+      <c r="R34" s="12">
+        <f>Q34*SIN(RADIANS(Q33))</f>
+        <v>-2.7361611466053497</v>
+      </c>
+      <c r="S34" s="11">
+        <v>10</v>
+      </c>
+      <c r="T34" s="12">
+        <f>S34*SIN(RADIANS(S33))</f>
+        <v>4.9999999999999991</v>
+      </c>
+      <c r="U34" s="11">
+        <v>10</v>
+      </c>
+      <c r="V34" s="12">
+        <f>U34*SIN(RADIANS(U33))</f>
+        <v>9.3969262078590834</v>
+      </c>
+      <c r="W34" s="13">
+        <v>5</v>
+      </c>
+      <c r="X34" s="12">
+        <f>W34*SIN(RADIANS(W33))</f>
+        <v>0</v>
+      </c>
+      <c r="Z34">
+        <f t="shared" si="0"/>
+        <v>4.1811128226311851</v>
+      </c>
+      <c r="AA34">
+        <f t="shared" si="11"/>
+        <v>44.081943573152934</v>
+      </c>
+      <c r="AB34">
+        <f t="shared" si="1"/>
+        <v>6.6394234368017928</v>
+      </c>
+      <c r="AD34">
+        <f t="shared" si="2"/>
+        <v>4.092497051555468E-2</v>
+      </c>
+      <c r="AE34">
+        <f t="shared" si="3"/>
+        <v>4.092497051555468E-2</v>
+      </c>
+      <c r="AF34">
+        <f t="shared" si="4"/>
+        <v>4.092497051555468E-2</v>
+      </c>
+      <c r="AG34">
+        <f t="shared" si="5"/>
+        <v>4.092497051555468E-2</v>
+      </c>
+      <c r="AH34">
+        <f t="shared" si="6"/>
+        <v>4.092497051555468E-2</v>
+      </c>
+      <c r="AI34">
+        <f t="shared" si="7"/>
+        <v>5.0925997865941965E-2</v>
+      </c>
+      <c r="AJ34">
+        <f t="shared" si="8"/>
+        <v>4.092497051555468E-2</v>
+      </c>
+      <c r="AK34">
+        <f t="shared" si="9"/>
+        <v>4.092497051555468E-2</v>
+      </c>
+      <c r="AL34">
+        <f t="shared" si="10"/>
+        <v>5.9631597845100921E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="20">
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="C20:C22"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/AUTE/Testsignaler.xlsx
+++ b/AUTE/Testsignaler.xlsx
@@ -9,8 +9,8 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9228" activeTab="1"/>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="9228"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9228" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="9228" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -121,7 +121,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="170" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -242,28 +242,28 @@
   </cellStyleXfs>
   <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -552,7 +552,7 @@
     <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="K18" sqref="K18"/>
     </sheetView>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="1">
+    <sheetView topLeftCell="C1" workbookViewId="1">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
@@ -929,7 +929,9 @@
     <sheetView tabSelected="1" topLeftCell="O7" workbookViewId="0">
       <selection activeCell="W35" sqref="W35"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="1">
+      <selection activeCell="Q45" sqref="Q45"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1016,46 +1018,46 @@
       <c r="D4" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14">
-        <v>1</v>
-      </c>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14">
+      <c r="F4" s="10"/>
+      <c r="G4" s="10">
+        <v>1</v>
+      </c>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10">
         <v>2</v>
       </c>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14">
+      <c r="J4" s="10"/>
+      <c r="K4" s="10">
         <v>3</v>
       </c>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14">
+      <c r="L4" s="10"/>
+      <c r="M4" s="10">
         <v>4</v>
       </c>
-      <c r="N4" s="14"/>
-      <c r="O4" s="14">
+      <c r="N4" s="10"/>
+      <c r="O4" s="10">
         <v>5</v>
       </c>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="14">
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10">
         <v>6</v>
       </c>
-      <c r="R4" s="14"/>
-      <c r="S4" s="14">
+      <c r="R4" s="10"/>
+      <c r="S4" s="10">
         <v>7</v>
       </c>
-      <c r="T4" s="14"/>
-      <c r="U4" s="14">
+      <c r="T4" s="10"/>
+      <c r="U4" s="10">
         <v>8</v>
       </c>
-      <c r="V4" s="14"/>
-      <c r="W4" s="1">
+      <c r="V4" s="10"/>
+      <c r="W4" s="14">
         <v>9</v>
       </c>
-      <c r="X4" s="1"/>
+      <c r="X4" s="14"/>
       <c r="Z4" t="s">
         <v>26</v>
       </c>
@@ -1094,87 +1096,87 @@
       </c>
     </row>
     <row r="5" spans="3:38" x14ac:dyDescent="0.3">
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="1">
         <v>90</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="2">
         <f>E7*COS(RADIANS(E5))*COS(RADIANS(E6))</f>
         <v>6.1257422745431001E-17</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="1">
         <f>360-315</f>
         <v>45</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="2">
         <f>G7*COS(RADIANS(G5))*COS(RADIANS(G6))</f>
         <v>0.25000000000000006</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5" s="1">
         <f>360-270</f>
         <v>90</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5" s="2">
         <f>I7*COS(RADIANS(I5))*COS(RADIANS(I6))</f>
         <v>6.1257422745431001E-17</v>
       </c>
-      <c r="K5" s="3">
+      <c r="K5" s="1">
         <f>360-270</f>
         <v>90</v>
       </c>
-      <c r="L5" s="4">
+      <c r="L5" s="2">
         <f>K7*COS(RADIANS(K5))*COS(RADIANS(K6))</f>
         <v>6.1257422745431001E-17</v>
       </c>
-      <c r="M5" s="3">
+      <c r="M5" s="1">
         <f>360-270</f>
         <v>90</v>
       </c>
-      <c r="N5" s="4">
+      <c r="N5" s="2">
         <f>M7*COS(RADIANS(M5))*COS(RADIANS(M6))</f>
         <v>3.06287113727155E-17</v>
       </c>
-      <c r="O5" s="3">
+      <c r="O5" s="1">
         <f>360-270</f>
         <v>90</v>
       </c>
-      <c r="P5" s="4">
+      <c r="P5" s="2">
         <f>O7*COS(RADIANS(O5))*COS(RADIANS(O6))</f>
         <v>1.1512629624448876E-16</v>
       </c>
-      <c r="Q5" s="3">
+      <c r="Q5" s="1">
         <f>360-300</f>
         <v>60</v>
       </c>
-      <c r="R5" s="4">
+      <c r="R5" s="2">
         <f>Q7*COS(RADIANS(Q5))*COS(RADIANS(Q6))</f>
         <v>0.35355339059327384</v>
       </c>
-      <c r="S5" s="3">
+      <c r="S5" s="1">
         <f>360-270</f>
         <v>90</v>
       </c>
-      <c r="T5" s="4">
+      <c r="T5" s="2">
         <f>S7*COS(RADIANS(S5))*COS(RADIANS(S6))</f>
         <v>2.1657769510652661E-17</v>
       </c>
-      <c r="U5" s="3">
+      <c r="U5" s="1">
         <f>360-270</f>
         <v>90</v>
       </c>
-      <c r="V5" s="4">
+      <c r="V5" s="2">
         <f>U7*COS(RADIANS(U5))*COS(RADIANS(U6))</f>
         <v>6.1257422745431001E-17</v>
       </c>
-      <c r="W5" s="5">
+      <c r="W5" s="3">
         <v>90</v>
       </c>
-      <c r="X5" s="4">
+      <c r="X5" s="2">
         <f>W7*COS(RADIANS(W5))*COS(RADIANS(W6))</f>
         <v>3.06287113727155E-17</v>
       </c>
@@ -1228,77 +1230,77 @@
       </c>
     </row>
     <row r="6" spans="3:38" x14ac:dyDescent="0.3">
-      <c r="C6" s="6"/>
-      <c r="D6" s="7" t="s">
+      <c r="C6" s="12"/>
+      <c r="D6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="7">
-        <v>0</v>
-      </c>
-      <c r="F6" s="8">
+      <c r="E6" s="4">
+        <v>0</v>
+      </c>
+      <c r="F6" s="5">
         <f>E7*SIN(RADIANS(E5))*COS(RADIANS(E6))</f>
         <v>1</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="4">
         <v>45</v>
       </c>
-      <c r="H6" s="8">
+      <c r="H6" s="5">
         <f>G7*SIN(RADIANS(G5))*COS(RADIANS(G6))</f>
         <v>0.25</v>
       </c>
-      <c r="I6" s="7">
-        <v>0</v>
-      </c>
-      <c r="J6" s="8">
+      <c r="I6" s="4">
+        <v>0</v>
+      </c>
+      <c r="J6" s="5">
         <f>I7*SIN(RADIANS(I5))*COS(RADIANS(I6))</f>
         <v>1</v>
       </c>
-      <c r="K6" s="7">
-        <v>0</v>
-      </c>
-      <c r="L6" s="8">
+      <c r="K6" s="4">
+        <v>0</v>
+      </c>
+      <c r="L6" s="5">
         <f>K7*SIN(RADIANS(K5))*COS(RADIANS(K6))</f>
         <v>1</v>
       </c>
-      <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="8">
+      <c r="M6" s="4">
+        <v>0</v>
+      </c>
+      <c r="N6" s="5">
         <f>M7*SIN(RADIANS(M5))*COS(RADIANS(M6))</f>
         <v>0.5</v>
       </c>
-      <c r="O6" s="7">
+      <c r="O6" s="4">
         <v>20</v>
       </c>
-      <c r="P6" s="8">
+      <c r="P6" s="5">
         <f>O7*SIN(RADIANS(O5))*COS(RADIANS(O6))</f>
         <v>1.8793852415718169</v>
       </c>
-      <c r="Q6" s="7">
+      <c r="Q6" s="4">
         <v>45</v>
       </c>
-      <c r="R6" s="8">
+      <c r="R6" s="5">
         <f>Q7*SIN(RADIANS(Q5))*COS(RADIANS(Q6))</f>
         <v>0.61237243569579458</v>
       </c>
-      <c r="S6" s="7">
+      <c r="S6" s="4">
         <v>45</v>
       </c>
-      <c r="T6" s="8">
+      <c r="T6" s="5">
         <f>S7*SIN(RADIANS(S5))*COS(RADIANS(S6))</f>
         <v>0.35355339059327379</v>
       </c>
-      <c r="U6" s="7">
-        <v>0</v>
-      </c>
-      <c r="V6" s="8">
+      <c r="U6" s="4">
+        <v>0</v>
+      </c>
+      <c r="V6" s="5">
         <f>U7*SIN(RADIANS(U5))*COS(RADIANS(U6))</f>
         <v>1</v>
       </c>
-      <c r="W6" s="9">
-        <v>0</v>
-      </c>
-      <c r="X6" s="8">
+      <c r="W6" s="6">
+        <v>0</v>
+      </c>
+      <c r="X6" s="5">
         <f>W7*SIN(RADIANS(W5))*COS(RADIANS(W6))</f>
         <v>0.5</v>
       </c>
@@ -1352,77 +1354,77 @@
       </c>
     </row>
     <row r="7" spans="3:38" x14ac:dyDescent="0.3">
-      <c r="C7" s="6"/>
-      <c r="D7" s="7" t="s">
+      <c r="C7" s="12"/>
+      <c r="D7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="7">
-        <v>1</v>
-      </c>
-      <c r="F7" s="8">
+      <c r="E7" s="4">
+        <v>1</v>
+      </c>
+      <c r="F7" s="5">
         <f>E7*SIN(RADIANS(E6))</f>
         <v>0</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="4">
         <v>0.5</v>
       </c>
-      <c r="H7" s="8">
+      <c r="H7" s="5">
         <f>G7*SIN(RADIANS(G6))</f>
         <v>0.35355339059327373</v>
       </c>
-      <c r="I7" s="7">
-        <v>1</v>
-      </c>
-      <c r="J7" s="8">
+      <c r="I7" s="4">
+        <v>1</v>
+      </c>
+      <c r="J7" s="5">
         <f>I7*SIN(RADIANS(I6))</f>
         <v>0</v>
       </c>
-      <c r="K7" s="7">
-        <v>1</v>
-      </c>
-      <c r="L7" s="8">
+      <c r="K7" s="4">
+        <v>1</v>
+      </c>
+      <c r="L7" s="5">
         <f>K7*SIN(RADIANS(K6))</f>
         <v>0</v>
       </c>
-      <c r="M7" s="7">
+      <c r="M7" s="4">
         <v>0.5</v>
       </c>
-      <c r="N7" s="8">
+      <c r="N7" s="5">
         <f>M7*SIN(RADIANS(M6))</f>
         <v>0</v>
       </c>
-      <c r="O7" s="7">
+      <c r="O7" s="4">
         <v>2</v>
       </c>
-      <c r="P7" s="8">
+      <c r="P7" s="5">
         <f>O7*SIN(RADIANS(O6))</f>
         <v>0.68404028665133743</v>
       </c>
-      <c r="Q7" s="7">
-        <v>1</v>
-      </c>
-      <c r="R7" s="8">
+      <c r="Q7" s="4">
+        <v>1</v>
+      </c>
+      <c r="R7" s="5">
         <f>Q7*SIN(RADIANS(Q6))</f>
         <v>0.70710678118654746</v>
       </c>
-      <c r="S7" s="7">
+      <c r="S7" s="4">
         <v>0.5</v>
       </c>
-      <c r="T7" s="8">
+      <c r="T7" s="5">
         <f>S7*SIN(RADIANS(S6))</f>
         <v>0.35355339059327373</v>
       </c>
-      <c r="U7" s="7">
-        <v>1</v>
-      </c>
-      <c r="V7" s="8">
+      <c r="U7" s="4">
+        <v>1</v>
+      </c>
+      <c r="V7" s="5">
         <f>U7*SIN(RADIANS(U6))</f>
         <v>0</v>
       </c>
-      <c r="W7" s="9">
+      <c r="W7" s="6">
         <v>0.5</v>
       </c>
-      <c r="X7" s="8">
+      <c r="X7" s="5">
         <f>W7*SIN(RADIANS(W6))</f>
         <v>0</v>
       </c>
@@ -1476,88 +1478,88 @@
       </c>
     </row>
     <row r="8" spans="3:38" x14ac:dyDescent="0.3">
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="1">
         <f>360-270</f>
         <v>90</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="2">
         <f>E10*COS(RADIANS(E8))*COS(RADIANS(E9))</f>
         <v>1.22514845490862E-16</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="1">
         <f>360-90</f>
         <v>270</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="2">
         <f>G10*COS(RADIANS(G8))*COS(RADIANS(G9))</f>
         <v>-1.83772268236293E-15</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8" s="1">
         <f>360-270</f>
         <v>90</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J8" s="2">
         <f>I10*COS(RADIANS(I8))*COS(RADIANS(I9))</f>
         <v>3.06287113727155E-17</v>
       </c>
-      <c r="K8" s="3">
+      <c r="K8" s="1">
         <f>360-135</f>
         <v>225</v>
       </c>
-      <c r="L8" s="4">
+      <c r="L8" s="2">
         <f>K10*COS(RADIANS(K8))*COS(RADIANS(K9))</f>
         <v>-5.7922796533956937</v>
       </c>
-      <c r="M8" s="3">
+      <c r="M8" s="1">
         <f>360-135</f>
         <v>225</v>
       </c>
-      <c r="N8" s="4">
+      <c r="N8" s="2">
         <f>M10*COS(RADIANS(M8))*COS(RADIANS(M9))</f>
         <v>-4.2866070498705628</v>
       </c>
-      <c r="O8" s="3">
+      <c r="O8" s="1">
         <f>360-120</f>
         <v>240</v>
       </c>
-      <c r="P8" s="4">
+      <c r="P8" s="2">
         <f>O10*COS(RADIANS(O8))*COS(RADIANS(O9))</f>
         <v>-0.43301270189221974</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="Q8" s="1">
         <f>360-110</f>
         <v>250</v>
       </c>
-      <c r="R8" s="4">
+      <c r="R8" s="2">
         <f>Q10*COS(RADIANS(Q8))*COS(RADIANS(Q9))</f>
         <v>-1.2855752193730781</v>
       </c>
-      <c r="S8" s="3">
+      <c r="S8" s="1">
         <f>360-90</f>
         <v>270</v>
       </c>
-      <c r="T8" s="4">
+      <c r="T8" s="2">
         <f>S10*COS(RADIANS(S8))*COS(RADIANS(S9))</f>
         <v>-1.2994661706391596E-15</v>
       </c>
-      <c r="U8" s="3">
+      <c r="U8" s="1">
         <f>360-60</f>
         <v>300</v>
       </c>
-      <c r="V8" s="4">
+      <c r="V8" s="2">
         <f>U10*COS(RADIANS(U8))*COS(RADIANS(U9))</f>
         <v>0.8550503583141722</v>
       </c>
-      <c r="W8" s="5">
+      <c r="W8" s="3">
         <v>270</v>
       </c>
-      <c r="X8" s="4">
+      <c r="X8" s="2">
         <f>W10*COS(RADIANS(W8))*COS(RADIANS(W9))</f>
         <v>-6.4973308531957978E-17</v>
       </c>
@@ -1611,77 +1613,77 @@
       </c>
     </row>
     <row r="9" spans="3:38" x14ac:dyDescent="0.3">
-      <c r="C9" s="6"/>
-      <c r="D9" s="7" t="s">
+      <c r="C9" s="12"/>
+      <c r="D9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="7">
-        <v>0</v>
-      </c>
-      <c r="F9" s="8">
+      <c r="E9" s="4">
+        <v>0</v>
+      </c>
+      <c r="F9" s="5">
         <f>E10*SIN(RADIANS(E8))*COS(RADIANS(E9))</f>
         <v>2</v>
       </c>
-      <c r="G9" s="7">
-        <v>0</v>
-      </c>
-      <c r="H9" s="8">
+      <c r="G9" s="4">
+        <v>0</v>
+      </c>
+      <c r="H9" s="5">
         <f>G10*SIN(RADIANS(G8))*COS(RADIANS(G9))</f>
         <v>-10</v>
       </c>
-      <c r="I9" s="7">
-        <v>0</v>
-      </c>
-      <c r="J9" s="8">
+      <c r="I9" s="4">
+        <v>0</v>
+      </c>
+      <c r="J9" s="5">
         <f>I10*SIN(RADIANS(I8))*COS(RADIANS(I9))</f>
         <v>0.5</v>
       </c>
-      <c r="K9" s="7">
+      <c r="K9" s="4">
         <v>-35</v>
       </c>
-      <c r="L9" s="8">
+      <c r="L9" s="5">
         <f>K10*SIN(RADIANS(K8))*COS(RADIANS(K9))</f>
         <v>-5.792279653395692</v>
       </c>
-      <c r="M9" s="7">
+      <c r="M9" s="4">
         <v>-30</v>
       </c>
-      <c r="N9" s="8">
+      <c r="N9" s="5">
         <f>M10*SIN(RADIANS(M8))*COS(RADIANS(M9))</f>
         <v>-4.2866070498705611</v>
       </c>
-      <c r="O9" s="7">
+      <c r="O9" s="4">
         <v>-30</v>
       </c>
-      <c r="P9" s="8">
+      <c r="P9" s="5">
         <f>O10*SIN(RADIANS(O8))*COS(RADIANS(O9))</f>
         <v>-0.74999999999999978</v>
       </c>
-      <c r="Q9" s="7">
+      <c r="Q9" s="4">
         <v>-20</v>
       </c>
-      <c r="R9" s="8">
+      <c r="R9" s="5">
         <f>Q10*SIN(RADIANS(Q8))*COS(RADIANS(Q9))</f>
         <v>-3.5320888862379562</v>
       </c>
-      <c r="S9" s="7">
+      <c r="S9" s="4">
         <v>45</v>
       </c>
-      <c r="T9" s="8">
+      <c r="T9" s="5">
         <f>S10*SIN(RADIANS(S8))*COS(RADIANS(S9))</f>
         <v>-7.0710678118654755</v>
       </c>
-      <c r="U9" s="7">
+      <c r="U9" s="4">
         <v>70</v>
       </c>
-      <c r="V9" s="8">
+      <c r="V9" s="5">
         <f>U10*SIN(RADIANS(U8))*COS(RADIANS(U9))</f>
         <v>-1.4809906636301196</v>
       </c>
-      <c r="W9" s="9">
+      <c r="W9" s="6">
         <v>45</v>
       </c>
-      <c r="X9" s="8">
+      <c r="X9" s="5">
         <f>W10*SIN(RADIANS(W8))*COS(RADIANS(W9))</f>
         <v>-0.35355339059327379</v>
       </c>
@@ -1735,77 +1737,77 @@
       </c>
     </row>
     <row r="10" spans="3:38" x14ac:dyDescent="0.3">
-      <c r="C10" s="10"/>
-      <c r="D10" s="11" t="s">
+      <c r="C10" s="13"/>
+      <c r="D10" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="7">
         <v>2</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F10" s="8">
         <f>E10*SIN(RADIANS(E9))</f>
         <v>0</v>
       </c>
-      <c r="G10" s="11">
+      <c r="G10" s="7">
         <v>10</v>
       </c>
-      <c r="H10" s="12">
+      <c r="H10" s="8">
         <f>G10*SIN(RADIANS(G9))</f>
         <v>0</v>
       </c>
-      <c r="I10" s="11">
+      <c r="I10" s="7">
         <v>0.5</v>
       </c>
-      <c r="J10" s="12">
+      <c r="J10" s="8">
         <f>I10*SIN(RADIANS(I9))</f>
         <v>0</v>
       </c>
-      <c r="K10" s="11">
+      <c r="K10" s="7">
         <v>10</v>
       </c>
-      <c r="L10" s="12">
+      <c r="L10" s="8">
         <f>K10*SIN(RADIANS(K9))</f>
         <v>-5.7357643635104605</v>
       </c>
-      <c r="M10" s="11">
+      <c r="M10" s="7">
         <v>7</v>
       </c>
-      <c r="N10" s="12">
+      <c r="N10" s="8">
         <f>M10*SIN(RADIANS(M9))</f>
         <v>-3.4999999999999996</v>
       </c>
-      <c r="O10" s="11">
-        <v>1</v>
-      </c>
-      <c r="P10" s="12">
+      <c r="O10" s="7">
+        <v>1</v>
+      </c>
+      <c r="P10" s="8">
         <f>O10*SIN(RADIANS(O9))</f>
         <v>-0.49999999999999994</v>
       </c>
-      <c r="Q10" s="11">
+      <c r="Q10" s="7">
         <v>4</v>
       </c>
-      <c r="R10" s="12">
+      <c r="R10" s="8">
         <f>Q10*SIN(RADIANS(Q9))</f>
         <v>-1.3680805733026749</v>
       </c>
-      <c r="S10" s="11">
+      <c r="S10" s="7">
         <v>10</v>
       </c>
-      <c r="T10" s="12">
+      <c r="T10" s="8">
         <f>S10*SIN(RADIANS(S9))</f>
         <v>7.0710678118654746</v>
       </c>
-      <c r="U10" s="11">
+      <c r="U10" s="7">
         <v>5</v>
       </c>
-      <c r="V10" s="12">
+      <c r="V10" s="8">
         <f>U10*SIN(RADIANS(U9))</f>
         <v>4.6984631039295417</v>
       </c>
-      <c r="W10" s="13">
+      <c r="W10" s="9">
         <v>0.5</v>
       </c>
-      <c r="X10" s="12">
+      <c r="X10" s="8">
         <f>W10*SIN(RADIANS(W9))</f>
         <v>0.35355339059327373</v>
       </c>
@@ -1859,81 +1861,81 @@
       </c>
     </row>
     <row r="11" spans="3:38" x14ac:dyDescent="0.3">
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="1">
         <f>360-180</f>
         <v>180</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="2">
         <f>E13*COS(RADIANS(E11))*COS(RADIANS(E12))</f>
         <v>-1</v>
       </c>
-      <c r="G11" s="3">
-        <v>0</v>
-      </c>
-      <c r="H11" s="4">
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="H11" s="2">
         <f>G13*COS(RADIANS(G11))*COS(RADIANS(G12))</f>
         <v>1</v>
       </c>
-      <c r="I11" s="3">
+      <c r="I11" s="1">
         <f>360-315</f>
         <v>45</v>
       </c>
-      <c r="J11" s="4">
+      <c r="J11" s="2">
         <f>I13*COS(RADIANS(I11))*COS(RADIANS(I12))</f>
         <v>0.50000000000000011</v>
       </c>
-      <c r="K11" s="3">
-        <v>0</v>
-      </c>
-      <c r="L11" s="4">
+      <c r="K11" s="1">
+        <v>0</v>
+      </c>
+      <c r="L11" s="2">
         <f>K13*COS(RADIANS(K11))*COS(RADIANS(K12))</f>
         <v>1</v>
       </c>
-      <c r="M11" s="3">
-        <v>0</v>
-      </c>
-      <c r="N11" s="4">
+      <c r="M11" s="1">
+        <v>0</v>
+      </c>
+      <c r="N11" s="2">
         <f>M13*COS(RADIANS(M11))*COS(RADIANS(M12))</f>
         <v>1</v>
       </c>
-      <c r="O11" s="3">
-        <v>0</v>
-      </c>
-      <c r="P11" s="4">
+      <c r="O11" s="1">
+        <v>0</v>
+      </c>
+      <c r="P11" s="2">
         <f>O13*COS(RADIANS(O11))*COS(RADIANS(O12))</f>
         <v>1</v>
       </c>
-      <c r="Q11" s="3">
-        <v>0</v>
-      </c>
-      <c r="R11" s="4">
+      <c r="Q11" s="1">
+        <v>0</v>
+      </c>
+      <c r="R11" s="2">
         <f>Q13*COS(RADIANS(Q11))*COS(RADIANS(Q12))</f>
         <v>6.1257422745431001E-17</v>
       </c>
-      <c r="S11" s="3">
-        <v>0</v>
-      </c>
-      <c r="T11" s="4">
+      <c r="S11" s="1">
+        <v>0</v>
+      </c>
+      <c r="T11" s="2">
         <f>S13*COS(RADIANS(S11))*COS(RADIANS(S12))</f>
         <v>1</v>
       </c>
-      <c r="U11" s="3">
-        <v>0</v>
-      </c>
-      <c r="V11" s="4">
+      <c r="U11" s="1">
+        <v>0</v>
+      </c>
+      <c r="V11" s="2">
         <f>U13*COS(RADIANS(U11))*COS(RADIANS(U12))</f>
         <v>1</v>
       </c>
-      <c r="W11" s="5">
+      <c r="W11" s="3">
         <v>270</v>
       </c>
-      <c r="X11" s="4">
+      <c r="X11" s="2">
         <f>W13*COS(RADIANS(W11))*COS(RADIANS(W12))</f>
         <v>-5.6287077621186709E-32</v>
       </c>
@@ -1987,77 +1989,77 @@
       </c>
     </row>
     <row r="12" spans="3:38" x14ac:dyDescent="0.3">
-      <c r="C12" s="6"/>
-      <c r="D12" s="7" t="s">
+      <c r="C12" s="12"/>
+      <c r="D12" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="7">
-        <v>0</v>
-      </c>
-      <c r="F12" s="8">
+      <c r="E12" s="4">
+        <v>0</v>
+      </c>
+      <c r="F12" s="5">
         <f>E13*SIN(RADIANS(E11))*COS(RADIANS(E12))</f>
         <v>1.22514845490862E-16</v>
       </c>
-      <c r="G12" s="7">
-        <v>0</v>
-      </c>
-      <c r="H12" s="8">
+      <c r="G12" s="4">
+        <v>0</v>
+      </c>
+      <c r="H12" s="5">
         <f>G13*SIN(RADIANS(G11))*COS(RADIANS(G12))</f>
         <v>0</v>
       </c>
-      <c r="I12" s="7">
+      <c r="I12" s="4">
         <v>45</v>
       </c>
-      <c r="J12" s="8">
+      <c r="J12" s="5">
         <f>I13*SIN(RADIANS(I11))*COS(RADIANS(I12))</f>
         <v>0.5</v>
       </c>
-      <c r="K12" s="7">
-        <v>0</v>
-      </c>
-      <c r="L12" s="8">
+      <c r="K12" s="4">
+        <v>0</v>
+      </c>
+      <c r="L12" s="5">
         <f>K13*SIN(RADIANS(K11))*COS(RADIANS(K12))</f>
         <v>0</v>
       </c>
-      <c r="M12" s="7">
-        <v>0</v>
-      </c>
-      <c r="N12" s="8">
+      <c r="M12" s="4">
+        <v>0</v>
+      </c>
+      <c r="N12" s="5">
         <f>M13*SIN(RADIANS(M11))*COS(RADIANS(M12))</f>
         <v>0</v>
       </c>
-      <c r="O12" s="7">
-        <v>0</v>
-      </c>
-      <c r="P12" s="8">
+      <c r="O12" s="4">
+        <v>0</v>
+      </c>
+      <c r="P12" s="5">
         <f>O13*SIN(RADIANS(O11))*COS(RADIANS(O12))</f>
         <v>0</v>
       </c>
-      <c r="Q12" s="7">
+      <c r="Q12" s="4">
         <v>90</v>
       </c>
-      <c r="R12" s="8">
+      <c r="R12" s="5">
         <f>Q13*SIN(RADIANS(Q11))*COS(RADIANS(Q12))</f>
         <v>0</v>
       </c>
-      <c r="S12" s="7">
-        <v>0</v>
-      </c>
-      <c r="T12" s="8">
+      <c r="S12" s="4">
+        <v>0</v>
+      </c>
+      <c r="T12" s="5">
         <f>S13*SIN(RADIANS(S11))*COS(RADIANS(S12))</f>
         <v>0</v>
       </c>
-      <c r="U12" s="7">
-        <v>0</v>
-      </c>
-      <c r="V12" s="8">
+      <c r="U12" s="4">
+        <v>0</v>
+      </c>
+      <c r="V12" s="5">
         <f>U13*SIN(RADIANS(U11))*COS(RADIANS(U12))</f>
         <v>0</v>
       </c>
-      <c r="W12" s="9">
+      <c r="W12" s="6">
         <v>90</v>
       </c>
-      <c r="X12" s="8">
+      <c r="X12" s="5">
         <f>W13*SIN(RADIANS(W11))*COS(RADIANS(W12))</f>
         <v>-3.06287113727155E-16</v>
       </c>
@@ -2111,77 +2113,77 @@
       </c>
     </row>
     <row r="13" spans="3:38" x14ac:dyDescent="0.3">
-      <c r="C13" s="10"/>
-      <c r="D13" s="11" t="s">
+      <c r="C13" s="13"/>
+      <c r="D13" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E13" s="11">
-        <v>1</v>
-      </c>
-      <c r="F13" s="12">
+      <c r="E13" s="7">
+        <v>1</v>
+      </c>
+      <c r="F13" s="8">
         <f>E13*SIN(RADIANS(E12))</f>
         <v>0</v>
       </c>
-      <c r="G13" s="11">
-        <v>1</v>
-      </c>
-      <c r="H13" s="12">
+      <c r="G13" s="7">
+        <v>1</v>
+      </c>
+      <c r="H13" s="8">
         <f>G13*SIN(RADIANS(G12))</f>
         <v>0</v>
       </c>
-      <c r="I13" s="11">
-        <v>1</v>
-      </c>
-      <c r="J13" s="12">
+      <c r="I13" s="7">
+        <v>1</v>
+      </c>
+      <c r="J13" s="8">
         <f>I13*SIN(RADIANS(I12))</f>
         <v>0.70710678118654746</v>
       </c>
-      <c r="K13" s="11">
-        <v>1</v>
-      </c>
-      <c r="L13" s="12">
+      <c r="K13" s="7">
+        <v>1</v>
+      </c>
+      <c r="L13" s="8">
         <f>K13*SIN(RADIANS(K12))</f>
         <v>0</v>
       </c>
-      <c r="M13" s="11">
-        <v>1</v>
-      </c>
-      <c r="N13" s="12">
+      <c r="M13" s="7">
+        <v>1</v>
+      </c>
+      <c r="N13" s="8">
         <f>M13*SIN(RADIANS(M12))</f>
         <v>0</v>
       </c>
-      <c r="O13" s="11">
-        <v>1</v>
-      </c>
-      <c r="P13" s="12">
+      <c r="O13" s="7">
+        <v>1</v>
+      </c>
+      <c r="P13" s="8">
         <f>O13*SIN(RADIANS(O12))</f>
         <v>0</v>
       </c>
-      <c r="Q13" s="11">
-        <v>1</v>
-      </c>
-      <c r="R13" s="12">
+      <c r="Q13" s="7">
+        <v>1</v>
+      </c>
+      <c r="R13" s="8">
         <f>Q13*SIN(RADIANS(Q12))</f>
         <v>1</v>
       </c>
-      <c r="S13" s="11">
-        <v>1</v>
-      </c>
-      <c r="T13" s="12">
+      <c r="S13" s="7">
+        <v>1</v>
+      </c>
+      <c r="T13" s="8">
         <f>S13*SIN(RADIANS(S12))</f>
         <v>0</v>
       </c>
-      <c r="U13" s="11">
-        <v>1</v>
-      </c>
-      <c r="V13" s="12">
+      <c r="U13" s="7">
+        <v>1</v>
+      </c>
+      <c r="V13" s="8">
         <f>U13*SIN(RADIANS(U12))</f>
         <v>0</v>
       </c>
-      <c r="W13" s="13">
+      <c r="W13" s="9">
         <v>5</v>
       </c>
-      <c r="X13" s="12">
+      <c r="X13" s="8">
         <f>W13*SIN(RADIANS(W12))</f>
         <v>5</v>
       </c>
@@ -2235,82 +2237,82 @@
       </c>
     </row>
     <row r="14" spans="3:38" x14ac:dyDescent="0.3">
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="1">
         <f>360-180</f>
         <v>180</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="2">
         <f>E16*COS(RADIANS(E14))*COS(RADIANS(E15))</f>
         <v>-0.86602540378443871</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="4">
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+      <c r="H14" s="2">
         <f>G16*COS(RADIANS(G14))*COS(RADIANS(G15))</f>
         <v>0.70710678118654757</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="4">
+      <c r="I14" s="1">
+        <v>0</v>
+      </c>
+      <c r="J14" s="2">
         <f>I16*COS(RADIANS(I14))*COS(RADIANS(I15))</f>
         <v>0.35355339059327379</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="4">
+      <c r="K14" s="1">
+        <v>0</v>
+      </c>
+      <c r="L14" s="2">
         <f>K16*COS(RADIANS(K14))*COS(RADIANS(K15))</f>
         <v>1</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M14" s="1">
         <f>360-180</f>
         <v>180</v>
       </c>
-      <c r="N14" s="4">
+      <c r="N14" s="2">
         <f>M16*COS(RADIANS(M14))*COS(RADIANS(M15))</f>
         <v>-1</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="4">
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="2">
         <f>O16*COS(RADIANS(O14))*COS(RADIANS(O15))</f>
         <v>3.9847787923669822</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="Q14" s="1">
         <f>360-30</f>
         <v>330</v>
       </c>
-      <c r="R14" s="4">
+      <c r="R14" s="2">
         <f>Q16*COS(RADIANS(Q14))*COS(RADIANS(Q15))</f>
         <v>0.61237243569579436</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
-      <c r="T14" s="4">
+      <c r="S14" s="1">
+        <v>0</v>
+      </c>
+      <c r="T14" s="2">
         <f>S16*COS(RADIANS(S14))*COS(RADIANS(S15))</f>
         <v>1</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
-      <c r="V14" s="4">
+      <c r="U14" s="1">
+        <v>0</v>
+      </c>
+      <c r="V14" s="2">
         <f>U16*COS(RADIANS(U14))*COS(RADIANS(U15))</f>
         <v>1</v>
       </c>
-      <c r="W14" s="5">
+      <c r="W14" s="3">
         <v>270</v>
       </c>
-      <c r="X14" s="4">
+      <c r="X14" s="2">
         <f>W16*COS(RADIANS(W14))*COS(RADIANS(W15))</f>
         <v>-5.6287077621186709E-32</v>
       </c>
@@ -2364,77 +2366,77 @@
       </c>
     </row>
     <row r="15" spans="3:38" x14ac:dyDescent="0.3">
-      <c r="C15" s="6"/>
-      <c r="D15" s="7" t="s">
+      <c r="C15" s="12"/>
+      <c r="D15" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15" s="4">
         <v>-30</v>
       </c>
-      <c r="F15" s="8">
+      <c r="F15" s="5">
         <f>E16*SIN(RADIANS(E14))*COS(RADIANS(E15))</f>
         <v>1.0610096853581189E-16</v>
       </c>
-      <c r="G15" s="7">
+      <c r="G15" s="4">
         <v>45</v>
       </c>
-      <c r="H15" s="8">
+      <c r="H15" s="5">
         <f>G16*SIN(RADIANS(G14))*COS(RADIANS(G15))</f>
         <v>0</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I15" s="4">
         <v>45</v>
       </c>
-      <c r="J15" s="8">
+      <c r="J15" s="5">
         <f>I16*SIN(RADIANS(I14))*COS(RADIANS(I15))</f>
         <v>0</v>
       </c>
-      <c r="K15" s="7">
-        <v>0</v>
-      </c>
-      <c r="L15" s="8">
+      <c r="K15" s="4">
+        <v>0</v>
+      </c>
+      <c r="L15" s="5">
         <f>K16*SIN(RADIANS(K14))*COS(RADIANS(K15))</f>
         <v>0</v>
       </c>
-      <c r="M15" s="7">
-        <v>0</v>
-      </c>
-      <c r="N15" s="8">
+      <c r="M15" s="4">
+        <v>0</v>
+      </c>
+      <c r="N15" s="5">
         <f>M16*SIN(RADIANS(M14))*COS(RADIANS(M15))</f>
         <v>1.22514845490862E-16</v>
       </c>
-      <c r="O15" s="7">
+      <c r="O15" s="4">
         <v>5</v>
       </c>
-      <c r="P15" s="8">
+      <c r="P15" s="5">
         <f>O16*SIN(RADIANS(O14))*COS(RADIANS(O15))</f>
         <v>0</v>
       </c>
-      <c r="Q15" s="7">
+      <c r="Q15" s="4">
         <v>45</v>
       </c>
-      <c r="R15" s="8">
+      <c r="R15" s="5">
         <f>Q16*SIN(RADIANS(Q14))*COS(RADIANS(Q15))</f>
         <v>-0.35355339059327412</v>
       </c>
-      <c r="S15" s="7">
-        <v>0</v>
-      </c>
-      <c r="T15" s="8">
+      <c r="S15" s="4">
+        <v>0</v>
+      </c>
+      <c r="T15" s="5">
         <f>S16*SIN(RADIANS(S14))*COS(RADIANS(S15))</f>
         <v>0</v>
       </c>
-      <c r="U15" s="7">
-        <v>0</v>
-      </c>
-      <c r="V15" s="8">
+      <c r="U15" s="4">
+        <v>0</v>
+      </c>
+      <c r="V15" s="5">
         <f>U16*SIN(RADIANS(U14))*COS(RADIANS(U15))</f>
         <v>0</v>
       </c>
-      <c r="W15" s="9">
+      <c r="W15" s="6">
         <v>90</v>
       </c>
-      <c r="X15" s="8">
+      <c r="X15" s="5">
         <f>W16*SIN(RADIANS(W14))*COS(RADIANS(W15))</f>
         <v>-3.06287113727155E-16</v>
       </c>
@@ -2488,77 +2490,77 @@
       </c>
     </row>
     <row r="16" spans="3:38" x14ac:dyDescent="0.3">
-      <c r="C16" s="10"/>
-      <c r="D16" s="11" t="s">
+      <c r="C16" s="13"/>
+      <c r="D16" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E16" s="11">
-        <v>1</v>
-      </c>
-      <c r="F16" s="12">
+      <c r="E16" s="7">
+        <v>1</v>
+      </c>
+      <c r="F16" s="8">
         <f>E16*SIN(RADIANS(E15))</f>
         <v>-0.49999999999999994</v>
       </c>
-      <c r="G16" s="11">
-        <v>1</v>
-      </c>
-      <c r="H16" s="12">
+      <c r="G16" s="7">
+        <v>1</v>
+      </c>
+      <c r="H16" s="8">
         <f>G16*SIN(RADIANS(G15))</f>
         <v>0.70710678118654746</v>
       </c>
-      <c r="I16" s="11">
+      <c r="I16" s="7">
         <v>0.5</v>
       </c>
-      <c r="J16" s="12">
+      <c r="J16" s="8">
         <f>I16*SIN(RADIANS(I15))</f>
         <v>0.35355339059327373</v>
       </c>
-      <c r="K16" s="11">
-        <v>1</v>
-      </c>
-      <c r="L16" s="12">
+      <c r="K16" s="7">
+        <v>1</v>
+      </c>
+      <c r="L16" s="8">
         <f>K16*SIN(RADIANS(K15))</f>
         <v>0</v>
       </c>
-      <c r="M16" s="11">
-        <v>1</v>
-      </c>
-      <c r="N16" s="12">
+      <c r="M16" s="7">
+        <v>1</v>
+      </c>
+      <c r="N16" s="8">
         <f>M16*SIN(RADIANS(M15))</f>
         <v>0</v>
       </c>
-      <c r="O16" s="11">
+      <c r="O16" s="7">
         <v>4</v>
       </c>
-      <c r="P16" s="12">
+      <c r="P16" s="8">
         <f>O16*SIN(RADIANS(O15))</f>
         <v>0.34862297099063266</v>
       </c>
-      <c r="Q16" s="11">
-        <v>1</v>
-      </c>
-      <c r="R16" s="12">
+      <c r="Q16" s="7">
+        <v>1</v>
+      </c>
+      <c r="R16" s="8">
         <f>Q16*SIN(RADIANS(Q15))</f>
         <v>0.70710678118654746</v>
       </c>
-      <c r="S16" s="11">
-        <v>1</v>
-      </c>
-      <c r="T16" s="12">
+      <c r="S16" s="7">
+        <v>1</v>
+      </c>
+      <c r="T16" s="8">
         <f>S16*SIN(RADIANS(S15))</f>
         <v>0</v>
       </c>
-      <c r="U16" s="11">
-        <v>1</v>
-      </c>
-      <c r="V16" s="12">
+      <c r="U16" s="7">
+        <v>1</v>
+      </c>
+      <c r="V16" s="8">
         <f>U16*SIN(RADIANS(U15))</f>
         <v>0</v>
       </c>
-      <c r="W16" s="13">
+      <c r="W16" s="9">
         <v>5</v>
       </c>
-      <c r="X16" s="12">
+      <c r="X16" s="8">
         <f>W16*SIN(RADIANS(W15))</f>
         <v>5</v>
       </c>
@@ -2612,84 +2614,84 @@
       </c>
     </row>
     <row r="17" spans="3:38" x14ac:dyDescent="0.3">
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E17" s="3">
-        <v>0</v>
-      </c>
-      <c r="F17" s="4">
+      <c r="E17" s="1">
+        <v>0</v>
+      </c>
+      <c r="F17" s="2">
         <f>E19*COS(RADIANS(E17))*COS(RADIANS(E18))</f>
         <v>0.86602540378443871</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G17" s="1">
         <f>360-180</f>
         <v>180</v>
       </c>
-      <c r="H17" s="4">
+      <c r="H17" s="2">
         <f>G19*COS(RADIANS(G17))*COS(RADIANS(G18))</f>
         <v>-0.70710678118654757</v>
       </c>
-      <c r="I17" s="3">
-        <v>0</v>
-      </c>
-      <c r="J17" s="4">
+      <c r="I17" s="1">
+        <v>0</v>
+      </c>
+      <c r="J17" s="2">
         <f>I19*COS(RADIANS(I17))*COS(RADIANS(I18))</f>
         <v>1.915111107797445</v>
       </c>
-      <c r="K17" s="3">
-        <v>0</v>
-      </c>
-      <c r="L17" s="4">
+      <c r="K17" s="1">
+        <v>0</v>
+      </c>
+      <c r="L17" s="2">
         <f>K19*COS(RADIANS(K17))*COS(RADIANS(K18))</f>
         <v>1</v>
       </c>
-      <c r="M17" s="3">
+      <c r="M17" s="1">
         <f>360-30</f>
         <v>330</v>
       </c>
-      <c r="N17" s="4">
+      <c r="N17" s="2">
         <f>M19*COS(RADIANS(M17))*COS(RADIANS(M18))</f>
         <v>2.5095489112134231</v>
       </c>
-      <c r="O17" s="3">
+      <c r="O17" s="1">
         <f>360-330</f>
         <v>30</v>
       </c>
-      <c r="P17" s="4">
+      <c r="P17" s="2">
         <f>O19*COS(RADIANS(O17))*COS(RADIANS(O18))</f>
         <v>2.5586055958573297</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="Q17" s="1">
         <f>360-135</f>
         <v>225</v>
       </c>
-      <c r="R17" s="4">
+      <c r="R17" s="2">
         <f>Q19*COS(RADIANS(Q17))*COS(RADIANS(Q18))</f>
         <v>-0.50000000000000011</v>
       </c>
-      <c r="S17" s="3">
-        <v>0</v>
-      </c>
-      <c r="T17" s="4">
+      <c r="S17" s="1">
+        <v>0</v>
+      </c>
+      <c r="T17" s="2">
         <f>S19*COS(RADIANS(S17))*COS(RADIANS(S18))</f>
         <v>0.5</v>
       </c>
-      <c r="U17" s="3">
+      <c r="U17" s="1">
         <f>360-180</f>
         <v>180</v>
       </c>
-      <c r="V17" s="4">
+      <c r="V17" s="2">
         <f>U19*COS(RADIANS(U17))*COS(RADIANS(U18))</f>
         <v>-1.7101007166283442</v>
       </c>
-      <c r="W17" s="5">
+      <c r="W17" s="3">
         <v>270</v>
       </c>
-      <c r="X17" s="4">
+      <c r="X17" s="2">
         <f>W19*COS(RADIANS(W17))*COS(RADIANS(W18))</f>
         <v>-5.6287077621186709E-32</v>
       </c>
@@ -2743,77 +2745,77 @@
       </c>
     </row>
     <row r="18" spans="3:38" x14ac:dyDescent="0.3">
-      <c r="C18" s="6"/>
-      <c r="D18" s="7" t="s">
+      <c r="C18" s="12"/>
+      <c r="D18" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E18" s="4">
         <v>30</v>
       </c>
-      <c r="F18" s="8">
+      <c r="F18" s="5">
         <f>E19*SIN(RADIANS(E17))*COS(RADIANS(E18))</f>
         <v>0</v>
       </c>
-      <c r="G18" s="7">
+      <c r="G18" s="4">
         <v>45</v>
       </c>
-      <c r="H18" s="8">
+      <c r="H18" s="5">
         <f>G19*SIN(RADIANS(G17))*COS(RADIANS(G18))</f>
         <v>8.6631078042610645E-17</v>
       </c>
-      <c r="I18" s="7">
+      <c r="I18" s="4">
         <v>-40</v>
       </c>
-      <c r="J18" s="8">
+      <c r="J18" s="5">
         <f>I19*SIN(RADIANS(I17))*COS(RADIANS(I18))</f>
         <v>0</v>
       </c>
-      <c r="K18" s="7">
-        <v>0</v>
-      </c>
-      <c r="L18" s="8">
+      <c r="K18" s="4">
+        <v>0</v>
+      </c>
+      <c r="L18" s="5">
         <f>K19*SIN(RADIANS(K17))*COS(RADIANS(K18))</f>
         <v>0</v>
       </c>
-      <c r="M18" s="7">
+      <c r="M18" s="4">
         <v>15</v>
       </c>
-      <c r="N18" s="8">
+      <c r="N18" s="5">
         <f>M19*SIN(RADIANS(M17))*COS(RADIANS(M18))</f>
         <v>-1.4488887394336039</v>
       </c>
-      <c r="O18" s="7">
+      <c r="O18" s="4">
         <v>10</v>
       </c>
-      <c r="P18" s="8">
+      <c r="P18" s="5">
         <f>O19*SIN(RADIANS(O17))*COS(RADIANS(O18))</f>
         <v>1.4772116295183118</v>
       </c>
-      <c r="Q18" s="7">
+      <c r="Q18" s="4">
         <v>45</v>
       </c>
-      <c r="R18" s="8">
+      <c r="R18" s="5">
         <f>Q19*SIN(RADIANS(Q17))*COS(RADIANS(Q18))</f>
         <v>-0.5</v>
       </c>
-      <c r="S18" s="7">
-        <v>0</v>
-      </c>
-      <c r="T18" s="8">
+      <c r="S18" s="4">
+        <v>0</v>
+      </c>
+      <c r="T18" s="5">
         <f>S19*SIN(RADIANS(S17))*COS(RADIANS(S18))</f>
         <v>0</v>
       </c>
-      <c r="U18" s="7">
+      <c r="U18" s="4">
         <v>70</v>
       </c>
-      <c r="V18" s="8">
+      <c r="V18" s="5">
         <f>U19*SIN(RADIANS(U17))*COS(RADIANS(U18))</f>
         <v>2.0951272507153396E-16</v>
       </c>
-      <c r="W18" s="9">
+      <c r="W18" s="6">
         <v>90</v>
       </c>
-      <c r="X18" s="8">
+      <c r="X18" s="5">
         <f>W19*SIN(RADIANS(W17))*COS(RADIANS(W18))</f>
         <v>-3.06287113727155E-16</v>
       </c>
@@ -2867,77 +2869,77 @@
       </c>
     </row>
     <row r="19" spans="3:38" x14ac:dyDescent="0.3">
-      <c r="C19" s="6"/>
-      <c r="D19" s="7" t="s">
+      <c r="C19" s="12"/>
+      <c r="D19" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E19" s="7">
-        <v>1</v>
-      </c>
-      <c r="F19" s="8">
+      <c r="E19" s="4">
+        <v>1</v>
+      </c>
+      <c r="F19" s="5">
         <f>E19*SIN(RADIANS(E18))</f>
         <v>0.49999999999999994</v>
       </c>
-      <c r="G19" s="7">
-        <v>1</v>
-      </c>
-      <c r="H19" s="8">
+      <c r="G19" s="4">
+        <v>1</v>
+      </c>
+      <c r="H19" s="5">
         <f>G19*SIN(RADIANS(G18))</f>
         <v>0.70710678118654746</v>
       </c>
-      <c r="I19" s="7">
+      <c r="I19" s="4">
         <v>2.5</v>
       </c>
-      <c r="J19" s="8">
+      <c r="J19" s="5">
         <f>I19*SIN(RADIANS(I18))</f>
         <v>-1.6069690242163481</v>
       </c>
-      <c r="K19" s="7">
-        <v>1</v>
-      </c>
-      <c r="L19" s="8">
+      <c r="K19" s="4">
+        <v>1</v>
+      </c>
+      <c r="L19" s="5">
         <f>K19*SIN(RADIANS(K18))</f>
         <v>0</v>
       </c>
-      <c r="M19" s="7">
+      <c r="M19" s="4">
         <v>3</v>
       </c>
-      <c r="N19" s="8">
+      <c r="N19" s="5">
         <f>M19*SIN(RADIANS(M18))</f>
         <v>0.77645713530756222</v>
       </c>
-      <c r="O19" s="7">
+      <c r="O19" s="4">
         <v>3</v>
       </c>
-      <c r="P19" s="8">
+      <c r="P19" s="5">
         <f>O19*SIN(RADIANS(O18))</f>
         <v>0.52094453300079102</v>
       </c>
-      <c r="Q19" s="7">
-        <v>1</v>
-      </c>
-      <c r="R19" s="8">
+      <c r="Q19" s="4">
+        <v>1</v>
+      </c>
+      <c r="R19" s="5">
         <f>Q19*SIN(RADIANS(Q18))</f>
         <v>0.70710678118654746</v>
       </c>
-      <c r="S19" s="7">
+      <c r="S19" s="4">
         <v>0.5</v>
       </c>
-      <c r="T19" s="8">
+      <c r="T19" s="5">
         <f>S19*SIN(RADIANS(S18))</f>
         <v>0</v>
       </c>
-      <c r="U19" s="7">
+      <c r="U19" s="4">
         <v>5</v>
       </c>
-      <c r="V19" s="8">
+      <c r="V19" s="5">
         <f>U19*SIN(RADIANS(U18))</f>
         <v>4.6984631039295417</v>
       </c>
-      <c r="W19" s="9">
+      <c r="W19" s="6">
         <v>5</v>
       </c>
-      <c r="X19" s="8">
+      <c r="X19" s="5">
         <f>W19*SIN(RADIANS(W18))</f>
         <v>5</v>
       </c>
@@ -2991,88 +2993,88 @@
       </c>
     </row>
     <row r="20" spans="3:38" x14ac:dyDescent="0.3">
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="1">
         <f>360-300</f>
         <v>60</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F20" s="2">
         <f>E22*COS(RADIANS(E20))*COS(RADIANS(E21))</f>
         <v>1.4772116295183124</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G20" s="1">
         <f>360-205</f>
         <v>155</v>
       </c>
-      <c r="H20" s="4">
+      <c r="H20" s="2">
         <f>G22*COS(RADIANS(G20))*COS(RADIANS(G21))</f>
         <v>-3.2042819102789428</v>
       </c>
-      <c r="I20" s="3">
+      <c r="I20" s="1">
         <f>360-270</f>
         <v>90</v>
       </c>
-      <c r="J20" s="4">
+      <c r="J20" s="2">
         <f>I22*COS(RADIANS(I20))*COS(RADIANS(I21))</f>
         <v>4.331553902130532E-16</v>
       </c>
-      <c r="K20" s="3">
+      <c r="K20" s="1">
         <f>360-270</f>
         <v>90</v>
       </c>
-      <c r="L20" s="4">
+      <c r="L20" s="2">
         <f>K22*COS(RADIANS(K20))*COS(RADIANS(K21))</f>
         <v>3.06287113727155E-16</v>
       </c>
-      <c r="M20" s="3">
+      <c r="M20" s="1">
         <f>360-270</f>
         <v>90</v>
       </c>
-      <c r="N20" s="4">
+      <c r="N20" s="2">
         <f>M22*COS(RADIANS(M20))*COS(RADIANS(M21))</f>
         <v>4.6925908293927505E-16</v>
       </c>
-      <c r="O20" s="3">
+      <c r="O20" s="1">
         <f>360-270</f>
         <v>90</v>
       </c>
-      <c r="P20" s="4">
+      <c r="P20" s="2">
         <f>O22*COS(RADIANS(O20))*COS(RADIANS(O21))</f>
         <v>4.90059381963448E-16</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="Q20" s="1">
         <f>360-225</f>
         <v>135</v>
       </c>
-      <c r="R20" s="4">
+      <c r="R20" s="2">
         <f>Q22*COS(RADIANS(Q20))*COS(RADIANS(Q21))</f>
         <v>-1.5309310892394863</v>
       </c>
-      <c r="S20" s="3">
+      <c r="S20" s="1">
         <f>360-270</f>
         <v>90</v>
       </c>
-      <c r="T20" s="4">
+      <c r="T20" s="2">
         <f>S22*COS(RADIANS(S20))*COS(RADIANS(S21))</f>
         <v>6.1257422745431001E-16</v>
       </c>
-      <c r="U20" s="3">
+      <c r="U20" s="1">
         <f>360-260</f>
         <v>100</v>
       </c>
-      <c r="V20" s="4">
+      <c r="V20" s="2">
         <f>U22*COS(RADIANS(U20))*COS(RADIANS(U21))</f>
         <v>-1.6317591116653478</v>
       </c>
-      <c r="W20" s="5">
+      <c r="W20" s="3">
         <v>90</v>
       </c>
-      <c r="X20" s="4">
+      <c r="X20" s="2">
         <f>W22*COS(RADIANS(W20))*COS(RADIANS(W21))</f>
         <v>3.06287113727155E-16</v>
       </c>
@@ -3126,77 +3128,77 @@
       </c>
     </row>
     <row r="21" spans="3:38" x14ac:dyDescent="0.3">
-      <c r="C21" s="6"/>
-      <c r="D21" s="7" t="s">
+      <c r="C21" s="12"/>
+      <c r="D21" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E21" s="7">
+      <c r="E21" s="4">
         <v>10</v>
       </c>
-      <c r="F21" s="8">
+      <c r="F21" s="5">
         <f>E22*SIN(RADIANS(E20))*COS(RADIANS(E21))</f>
         <v>2.5586055958573297</v>
       </c>
-      <c r="G21" s="7">
+      <c r="G21" s="4">
         <v>45</v>
       </c>
-      <c r="H21" s="8">
+      <c r="H21" s="5">
         <f>G22*SIN(RADIANS(G20))*COS(RADIANS(G21))</f>
         <v>1.4941811936505993</v>
       </c>
-      <c r="I21" s="7">
+      <c r="I21" s="4">
         <v>45</v>
       </c>
-      <c r="J21" s="8">
+      <c r="J21" s="5">
         <f>I22*SIN(RADIANS(I20))*COS(RADIANS(I21))</f>
         <v>7.0710678118654755</v>
       </c>
-      <c r="K21" s="7">
-        <v>0</v>
-      </c>
-      <c r="L21" s="8">
+      <c r="K21" s="4">
+        <v>0</v>
+      </c>
+      <c r="L21" s="5">
         <f>K22*SIN(RADIANS(K20))*COS(RADIANS(K21))</f>
         <v>5</v>
       </c>
-      <c r="M21" s="7">
+      <c r="M21" s="4">
         <v>-40</v>
       </c>
-      <c r="N21" s="8">
+      <c r="N21" s="5">
         <f>M22*SIN(RADIANS(M20))*COS(RADIANS(M21))</f>
         <v>7.6604444311897799</v>
       </c>
-      <c r="O21" s="7">
-        <v>0</v>
-      </c>
-      <c r="P21" s="8">
+      <c r="O21" s="4">
+        <v>0</v>
+      </c>
+      <c r="P21" s="5">
         <f>O22*SIN(RADIANS(O20))*COS(RADIANS(O21))</f>
         <v>8</v>
       </c>
-      <c r="Q21" s="7">
+      <c r="Q21" s="4">
         <v>-30</v>
       </c>
-      <c r="R21" s="8">
+      <c r="R21" s="5">
         <f>Q22*SIN(RADIANS(Q20))*COS(RADIANS(Q21))</f>
         <v>1.5309310892394865</v>
       </c>
-      <c r="S21" s="7">
-        <v>0</v>
-      </c>
-      <c r="T21" s="8">
+      <c r="S21" s="4">
+        <v>0</v>
+      </c>
+      <c r="T21" s="5">
         <f>S22*SIN(RADIANS(S20))*COS(RADIANS(S21))</f>
         <v>10</v>
       </c>
-      <c r="U21" s="7">
+      <c r="U21" s="4">
         <v>-20</v>
       </c>
-      <c r="V21" s="8">
+      <c r="V21" s="5">
         <f>U22*SIN(RADIANS(U20))*COS(RADIANS(U21))</f>
         <v>9.2541657839832325</v>
       </c>
-      <c r="W21" s="9">
-        <v>0</v>
-      </c>
-      <c r="X21" s="8">
+      <c r="W21" s="6">
+        <v>0</v>
+      </c>
+      <c r="X21" s="5">
         <f>W22*SIN(RADIANS(W20))*COS(RADIANS(W21))</f>
         <v>5</v>
       </c>
@@ -3250,77 +3252,77 @@
       </c>
     </row>
     <row r="22" spans="3:38" x14ac:dyDescent="0.3">
-      <c r="C22" s="10"/>
-      <c r="D22" s="11" t="s">
+      <c r="C22" s="13"/>
+      <c r="D22" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E22" s="11">
+      <c r="E22" s="7">
         <v>3</v>
       </c>
-      <c r="F22" s="12">
+      <c r="F22" s="8">
         <f>E22*SIN(RADIANS(E21))</f>
         <v>0.52094453300079102</v>
       </c>
-      <c r="G22" s="11">
+      <c r="G22" s="7">
         <v>5</v>
       </c>
-      <c r="H22" s="12">
+      <c r="H22" s="8">
         <f>G22*SIN(RADIANS(G21))</f>
         <v>3.5355339059327373</v>
       </c>
-      <c r="I22" s="11">
+      <c r="I22" s="7">
         <v>10</v>
       </c>
-      <c r="J22" s="12">
+      <c r="J22" s="8">
         <f>I22*SIN(RADIANS(I21))</f>
         <v>7.0710678118654746</v>
       </c>
-      <c r="K22" s="11">
+      <c r="K22" s="7">
         <v>5</v>
       </c>
-      <c r="L22" s="12">
+      <c r="L22" s="8">
         <f>K22*SIN(RADIANS(K21))</f>
         <v>0</v>
       </c>
-      <c r="M22" s="11">
+      <c r="M22" s="7">
         <v>10</v>
       </c>
-      <c r="N22" s="12">
+      <c r="N22" s="8">
         <f>M22*SIN(RADIANS(M21))</f>
         <v>-6.4278760968653925</v>
       </c>
-      <c r="O22" s="11">
+      <c r="O22" s="7">
         <v>8</v>
       </c>
-      <c r="P22" s="12">
+      <c r="P22" s="8">
         <f>O22*SIN(RADIANS(O21))</f>
         <v>0</v>
       </c>
-      <c r="Q22" s="11">
+      <c r="Q22" s="7">
         <v>2.5</v>
       </c>
-      <c r="R22" s="12">
+      <c r="R22" s="8">
         <f>Q22*SIN(RADIANS(Q21))</f>
         <v>-1.2499999999999998</v>
       </c>
-      <c r="S22" s="11">
+      <c r="S22" s="7">
         <v>10</v>
       </c>
-      <c r="T22" s="12">
+      <c r="T22" s="8">
         <f>S22*SIN(RADIANS(S21))</f>
         <v>0</v>
       </c>
-      <c r="U22" s="11">
+      <c r="U22" s="7">
         <v>10</v>
       </c>
-      <c r="V22" s="12">
+      <c r="V22" s="8">
         <f>U22*SIN(RADIANS(U21))</f>
         <v>-3.420201433256687</v>
       </c>
-      <c r="W22" s="13">
+      <c r="W22" s="9">
         <v>5</v>
       </c>
-      <c r="X22" s="12">
+      <c r="X22" s="8">
         <f>W22*SIN(RADIANS(W21))</f>
         <v>0</v>
       </c>
@@ -3374,88 +3376,88 @@
       </c>
     </row>
     <row r="23" spans="3:38" x14ac:dyDescent="0.3">
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23" s="1">
         <f>360-120</f>
         <v>240</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F23" s="2">
         <f>E25*COS(RADIANS(E23))*COS(RADIANS(E24))</f>
         <v>-2.4620193825305221</v>
       </c>
-      <c r="G23" s="3">
+      <c r="G23" s="1">
         <f>360-90</f>
         <v>270</v>
       </c>
-      <c r="H23" s="4">
+      <c r="H23" s="2">
         <f>G25*COS(RADIANS(G23))*COS(RADIANS(G24))</f>
         <v>-6.4973308531957978E-17</v>
       </c>
-      <c r="I23" s="3">
+      <c r="I23" s="1">
         <f>360-90</f>
         <v>270</v>
       </c>
-      <c r="J23" s="4">
+      <c r="J23" s="2">
         <f>I25*COS(RADIANS(I23))*COS(RADIANS(I24))</f>
         <v>-9.1886134118146501E-16</v>
       </c>
-      <c r="K23" s="3">
+      <c r="K23" s="1">
         <f>360-135</f>
         <v>225</v>
       </c>
-      <c r="L23" s="4">
+      <c r="L23" s="2">
         <f>K25*COS(RADIANS(K23))*COS(RADIANS(K24))</f>
         <v>-2.70837610209851</v>
       </c>
-      <c r="M23" s="3">
+      <c r="M23" s="1">
         <f>360-80</f>
         <v>280</v>
       </c>
-      <c r="N23" s="4">
+      <c r="N23" s="2">
         <f>M25*COS(RADIANS(M23))*COS(RADIANS(M24))</f>
         <v>0.86824088833464985</v>
       </c>
-      <c r="O23" s="3">
+      <c r="O23" s="1">
         <f>360-120</f>
         <v>240</v>
       </c>
-      <c r="P23" s="4">
+      <c r="P23" s="2">
         <f>O25*COS(RADIANS(O23))*COS(RADIANS(O24))</f>
         <v>-0.25000000000000022</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="Q23" s="1">
         <f>360-125</f>
         <v>235</v>
       </c>
-      <c r="R23" s="4">
+      <c r="R23" s="2">
         <f>Q25*COS(RADIANS(Q23))*COS(RADIANS(Q24))</f>
         <v>-0.28678821817552319</v>
       </c>
-      <c r="S23" s="3">
+      <c r="S23" s="1">
         <f>360-70</f>
         <v>290</v>
       </c>
-      <c r="T23" s="4">
+      <c r="T23" s="2">
         <f>S25*COS(RADIANS(S23))*COS(RADIANS(S24))</f>
         <v>0.14809906636301204</v>
       </c>
-      <c r="U23" s="3">
+      <c r="U23" s="1">
         <f>360-90</f>
         <v>270</v>
       </c>
-      <c r="V23" s="4">
+      <c r="V23" s="2">
         <f>U25*COS(RADIANS(U23))*COS(RADIANS(U24))</f>
         <v>-1.7268944436673314E-16</v>
       </c>
-      <c r="W23" s="5">
+      <c r="W23" s="3">
         <v>270</v>
       </c>
-      <c r="X23" s="4">
+      <c r="X23" s="2">
         <f>W25*COS(RADIANS(W23))*COS(RADIANS(W24))</f>
         <v>-5.6287077621186709E-33</v>
       </c>
@@ -3509,77 +3511,77 @@
       </c>
     </row>
     <row r="24" spans="3:38" x14ac:dyDescent="0.3">
-      <c r="C24" s="6"/>
-      <c r="D24" s="7" t="s">
+      <c r="C24" s="12"/>
+      <c r="D24" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E24" s="7">
+      <c r="E24" s="4">
         <v>-10</v>
       </c>
-      <c r="F24" s="8">
+      <c r="F24" s="5">
         <f>E25*SIN(RADIANS(E23))*COS(RADIANS(E24))</f>
         <v>-4.2643426597622147</v>
       </c>
-      <c r="G24" s="7">
+      <c r="G24" s="4">
         <v>45</v>
       </c>
-      <c r="H24" s="8">
+      <c r="H24" s="5">
         <f>G25*SIN(RADIANS(G23))*COS(RADIANS(G24))</f>
         <v>-0.35355339059327379</v>
       </c>
-      <c r="I24" s="7">
-        <v>0</v>
-      </c>
-      <c r="J24" s="8">
+      <c r="I24" s="4">
+        <v>0</v>
+      </c>
+      <c r="J24" s="5">
         <f>I25*SIN(RADIANS(I23))*COS(RADIANS(I24))</f>
         <v>-5</v>
       </c>
-      <c r="K24" s="7">
+      <c r="K24" s="4">
         <v>-40</v>
       </c>
-      <c r="L24" s="8">
+      <c r="L24" s="5">
         <f>K25*SIN(RADIANS(K23))*COS(RADIANS(K24))</f>
         <v>-2.7083761020985091</v>
       </c>
-      <c r="M24" s="7">
-        <v>0</v>
-      </c>
-      <c r="N24" s="8">
+      <c r="M24" s="4">
+        <v>0</v>
+      </c>
+      <c r="N24" s="5">
         <f>M25*SIN(RADIANS(M23))*COS(RADIANS(M24))</f>
         <v>-4.9240387650610407</v>
       </c>
-      <c r="O24" s="7">
-        <v>0</v>
-      </c>
-      <c r="P24" s="8">
+      <c r="O24" s="4">
+        <v>0</v>
+      </c>
+      <c r="P24" s="5">
         <f>O25*SIN(RADIANS(O23))*COS(RADIANS(O24))</f>
         <v>-0.43301270189221919</v>
       </c>
-      <c r="Q24" s="7">
-        <v>0</v>
-      </c>
-      <c r="R24" s="8">
+      <c r="Q24" s="4">
+        <v>0</v>
+      </c>
+      <c r="R24" s="5">
         <f>Q25*SIN(RADIANS(Q23))*COS(RADIANS(Q24))</f>
         <v>-0.40957602214449579</v>
       </c>
-      <c r="S24" s="7">
+      <c r="S24" s="4">
         <v>30</v>
       </c>
-      <c r="T24" s="8">
+      <c r="T24" s="5">
         <f>S25*SIN(RADIANS(S23))*COS(RADIANS(S24))</f>
         <v>-0.40689884067468685</v>
       </c>
-      <c r="U24" s="7">
+      <c r="U24" s="4">
         <v>20</v>
       </c>
-      <c r="V24" s="8">
+      <c r="V24" s="5">
         <f>U25*SIN(RADIANS(U23))*COS(RADIANS(U24))</f>
         <v>-0.93969262078590843</v>
       </c>
-      <c r="W24" s="9">
+      <c r="W24" s="6">
         <v>90</v>
       </c>
-      <c r="X24" s="8">
+      <c r="X24" s="5">
         <f>W25*SIN(RADIANS(W23))*COS(RADIANS(W24))</f>
         <v>-3.06287113727155E-17</v>
       </c>
@@ -3633,77 +3635,77 @@
       </c>
     </row>
     <row r="25" spans="3:38" x14ac:dyDescent="0.3">
-      <c r="C25" s="10"/>
-      <c r="D25" s="11" t="s">
+      <c r="C25" s="13"/>
+      <c r="D25" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E25" s="11">
+      <c r="E25" s="7">
         <v>5</v>
       </c>
-      <c r="F25" s="12">
+      <c r="F25" s="8">
         <f>E25*SIN(RADIANS(E24))</f>
         <v>-0.86824088833465163</v>
       </c>
-      <c r="G25" s="11">
+      <c r="G25" s="7">
         <v>0.5</v>
       </c>
-      <c r="H25" s="12">
+      <c r="H25" s="8">
         <f>G25*SIN(RADIANS(G24))</f>
         <v>0.35355339059327373</v>
       </c>
-      <c r="I25" s="11">
+      <c r="I25" s="7">
         <v>5</v>
       </c>
-      <c r="J25" s="12">
+      <c r="J25" s="8">
         <f>I25*SIN(RADIANS(I24))</f>
         <v>0</v>
       </c>
-      <c r="K25" s="11">
+      <c r="K25" s="7">
         <v>5</v>
       </c>
-      <c r="L25" s="12">
+      <c r="L25" s="8">
         <f>K25*SIN(RADIANS(K24))</f>
         <v>-3.2139380484326963</v>
       </c>
-      <c r="M25" s="11">
+      <c r="M25" s="7">
         <v>5</v>
       </c>
-      <c r="N25" s="12">
+      <c r="N25" s="8">
         <f>M25*SIN(RADIANS(M24))</f>
         <v>0</v>
       </c>
-      <c r="O25" s="11">
+      <c r="O25" s="7">
         <v>0.5</v>
       </c>
-      <c r="P25" s="12">
+      <c r="P25" s="8">
         <f>O25*SIN(RADIANS(O24))</f>
         <v>0</v>
       </c>
-      <c r="Q25" s="11">
+      <c r="Q25" s="7">
         <v>0.5</v>
       </c>
-      <c r="R25" s="12">
+      <c r="R25" s="8">
         <f>Q25*SIN(RADIANS(Q24))</f>
         <v>0</v>
       </c>
-      <c r="S25" s="11">
+      <c r="S25" s="7">
         <v>0.5</v>
       </c>
-      <c r="T25" s="12">
+      <c r="T25" s="8">
         <f>S25*SIN(RADIANS(S24))</f>
         <v>0.24999999999999997</v>
       </c>
-      <c r="U25" s="11">
-        <v>1</v>
-      </c>
-      <c r="V25" s="12">
+      <c r="U25" s="7">
+        <v>1</v>
+      </c>
+      <c r="V25" s="8">
         <f>U25*SIN(RADIANS(U24))</f>
         <v>0.34202014332566871</v>
       </c>
-      <c r="W25" s="13">
+      <c r="W25" s="9">
         <v>0.5</v>
       </c>
-      <c r="X25" s="12">
+      <c r="X25" s="8">
         <f>W25*SIN(RADIANS(W24))</f>
         <v>0.5</v>
       </c>
@@ -3757,83 +3759,83 @@
       </c>
     </row>
     <row r="26" spans="3:38" x14ac:dyDescent="0.3">
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D26" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E26" s="3">
+      <c r="E26" s="1">
         <f>360-355</f>
         <v>5</v>
       </c>
-      <c r="F26" s="4">
+      <c r="F26" s="2">
         <f>E28*COS(RADIANS(E26))*COS(RADIANS(E27))</f>
         <v>10.297284873291451</v>
       </c>
-      <c r="G26" s="3">
-        <v>0</v>
-      </c>
-      <c r="H26" s="4">
+      <c r="G26" s="1">
+        <v>0</v>
+      </c>
+      <c r="H26" s="2">
         <f>G28*COS(RADIANS(G26))*COS(RADIANS(G27))</f>
         <v>5</v>
       </c>
-      <c r="I26" s="3">
-        <v>0</v>
-      </c>
-      <c r="J26" s="4">
+      <c r="I26" s="1">
+        <v>0</v>
+      </c>
+      <c r="J26" s="2">
         <f>I28*COS(RADIANS(I26))*COS(RADIANS(I27))</f>
         <v>5</v>
       </c>
-      <c r="K26" s="3">
+      <c r="K26" s="1">
         <f>360-225</f>
         <v>135</v>
       </c>
-      <c r="L26" s="4">
+      <c r="L26" s="2">
         <f>K28*COS(RADIANS(K26))*COS(RADIANS(K27))</f>
         <v>-2.896139826697846</v>
       </c>
-      <c r="M26" s="3">
+      <c r="M26" s="1">
         <f>360-225</f>
         <v>135</v>
       </c>
-      <c r="N26" s="4">
+      <c r="N26" s="2">
         <f>M28*COS(RADIANS(M26))*COS(RADIANS(M27))</f>
         <v>-1.3289260487773493</v>
       </c>
-      <c r="O26" s="3">
+      <c r="O26" s="1">
         <f>360-300</f>
         <v>60</v>
       </c>
-      <c r="P26" s="4">
+      <c r="P26" s="2">
         <f>O28*COS(RADIANS(O26))*COS(RADIANS(O27))</f>
         <v>0.81915204428899202</v>
       </c>
-      <c r="Q26" s="3">
-        <v>0</v>
-      </c>
-      <c r="R26" s="4">
+      <c r="Q26" s="1">
+        <v>0</v>
+      </c>
+      <c r="R26" s="2">
         <f>Q28*COS(RADIANS(Q26))*COS(RADIANS(Q27))</f>
         <v>6.1257422745431001E-17</v>
       </c>
-      <c r="S26" s="3">
-        <v>0</v>
-      </c>
-      <c r="T26" s="4">
+      <c r="S26" s="1">
+        <v>0</v>
+      </c>
+      <c r="T26" s="2">
         <f>S28*COS(RADIANS(S26))*COS(RADIANS(S27))</f>
         <v>1</v>
       </c>
-      <c r="U26" s="3">
-        <v>0</v>
-      </c>
-      <c r="V26" s="4">
+      <c r="U26" s="1">
+        <v>0</v>
+      </c>
+      <c r="V26" s="2">
         <f>U28*COS(RADIANS(U26))*COS(RADIANS(U27))</f>
         <v>4.9240387650610398</v>
       </c>
-      <c r="W26" s="5">
+      <c r="W26" s="3">
         <v>270</v>
       </c>
-      <c r="X26" s="4">
+      <c r="X26" s="2">
         <f>W28*COS(RADIANS(W26))*COS(RADIANS(W27))</f>
         <v>-5.6287077621186709E-32</v>
       </c>
@@ -3887,77 +3889,77 @@
       </c>
     </row>
     <row r="27" spans="3:38" x14ac:dyDescent="0.3">
-      <c r="C27" s="6"/>
-      <c r="D27" s="7" t="s">
+      <c r="C27" s="12"/>
+      <c r="D27" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E27" s="7">
+      <c r="E27" s="4">
         <v>-20</v>
       </c>
-      <c r="F27" s="8">
+      <c r="F27" s="5">
         <f>E28*SIN(RADIANS(E26))*COS(RADIANS(E27))</f>
         <v>0.90089569150998272</v>
       </c>
-      <c r="G27" s="7">
-        <v>0</v>
-      </c>
-      <c r="H27" s="8">
+      <c r="G27" s="4">
+        <v>0</v>
+      </c>
+      <c r="H27" s="5">
         <f>G28*SIN(RADIANS(G26))*COS(RADIANS(G27))</f>
         <v>0</v>
       </c>
-      <c r="I27" s="7">
-        <v>0</v>
-      </c>
-      <c r="J27" s="8">
+      <c r="I27" s="4">
+        <v>0</v>
+      </c>
+      <c r="J27" s="5">
         <f>I28*SIN(RADIANS(I26))*COS(RADIANS(I27))</f>
         <v>0</v>
       </c>
-      <c r="K27" s="7">
+      <c r="K27" s="4">
         <v>-35</v>
       </c>
-      <c r="L27" s="8">
+      <c r="L27" s="5">
         <f>K28*SIN(RADIANS(K26))*COS(RADIANS(K27))</f>
         <v>2.896139826697846</v>
       </c>
-      <c r="M27" s="7">
+      <c r="M27" s="4">
         <v>-20</v>
       </c>
-      <c r="N27" s="8">
+      <c r="N27" s="5">
         <f>M28*SIN(RADIANS(M26))*COS(RADIANS(M27))</f>
         <v>1.3289260487773495</v>
       </c>
-      <c r="O27" s="7">
+      <c r="O27" s="4">
         <v>35</v>
       </c>
-      <c r="P27" s="8">
+      <c r="P27" s="5">
         <f>O28*SIN(RADIANS(O26))*COS(RADIANS(O27))</f>
         <v>1.4188129598324448</v>
       </c>
-      <c r="Q27" s="7">
+      <c r="Q27" s="4">
         <v>90</v>
       </c>
-      <c r="R27" s="8">
+      <c r="R27" s="5">
         <f>Q28*SIN(RADIANS(Q26))*COS(RADIANS(Q27))</f>
         <v>0</v>
       </c>
-      <c r="S27" s="7">
-        <v>0</v>
-      </c>
-      <c r="T27" s="8">
+      <c r="S27" s="4">
+        <v>0</v>
+      </c>
+      <c r="T27" s="5">
         <f>S28*SIN(RADIANS(S26))*COS(RADIANS(S27))</f>
         <v>0</v>
       </c>
-      <c r="U27" s="7">
+      <c r="U27" s="4">
         <v>10</v>
       </c>
-      <c r="V27" s="8">
+      <c r="V27" s="5">
         <f>U28*SIN(RADIANS(U26))*COS(RADIANS(U27))</f>
         <v>0</v>
       </c>
-      <c r="W27" s="9">
+      <c r="W27" s="6">
         <v>90</v>
       </c>
-      <c r="X27" s="8">
+      <c r="X27" s="5">
         <f>W28*SIN(RADIANS(W26))*COS(RADIANS(W27))</f>
         <v>-3.06287113727155E-16</v>
       </c>
@@ -4011,77 +4013,77 @@
       </c>
     </row>
     <row r="28" spans="3:38" x14ac:dyDescent="0.3">
-      <c r="C28" s="6"/>
-      <c r="D28" s="7" t="s">
+      <c r="C28" s="12"/>
+      <c r="D28" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E28" s="7">
+      <c r="E28" s="4">
         <v>11</v>
       </c>
-      <c r="F28" s="8">
+      <c r="F28" s="5">
         <f>E28*SIN(RADIANS(E27))</f>
         <v>-3.7622215765823559</v>
       </c>
-      <c r="G28" s="7">
+      <c r="G28" s="4">
         <v>5</v>
       </c>
-      <c r="H28" s="8">
+      <c r="H28" s="5">
         <f>G28*SIN(RADIANS(G27))</f>
         <v>0</v>
       </c>
-      <c r="I28" s="7">
+      <c r="I28" s="4">
         <v>5</v>
       </c>
-      <c r="J28" s="8">
+      <c r="J28" s="5">
         <f>I28*SIN(RADIANS(I27))</f>
         <v>0</v>
       </c>
-      <c r="K28" s="7">
+      <c r="K28" s="4">
         <v>5</v>
       </c>
-      <c r="L28" s="8">
+      <c r="L28" s="5">
         <f>K28*SIN(RADIANS(K27))</f>
         <v>-2.8678821817552302</v>
       </c>
-      <c r="M28" s="7">
+      <c r="M28" s="4">
         <v>2</v>
       </c>
-      <c r="N28" s="8">
+      <c r="N28" s="5">
         <f>M28*SIN(RADIANS(M27))</f>
         <v>-0.68404028665133743</v>
       </c>
-      <c r="O28" s="7">
+      <c r="O28" s="4">
         <v>2</v>
       </c>
-      <c r="P28" s="8">
+      <c r="P28" s="5">
         <f>O28*SIN(RADIANS(O27))</f>
         <v>1.1471528727020921</v>
       </c>
-      <c r="Q28" s="7">
-        <v>1</v>
-      </c>
-      <c r="R28" s="8">
+      <c r="Q28" s="4">
+        <v>1</v>
+      </c>
+      <c r="R28" s="5">
         <f>Q28*SIN(RADIANS(Q27))</f>
         <v>1</v>
       </c>
-      <c r="S28" s="7">
-        <v>1</v>
-      </c>
-      <c r="T28" s="8">
+      <c r="S28" s="4">
+        <v>1</v>
+      </c>
+      <c r="T28" s="5">
         <f>S28*SIN(RADIANS(S27))</f>
         <v>0</v>
       </c>
-      <c r="U28" s="7">
+      <c r="U28" s="4">
         <v>5</v>
       </c>
-      <c r="V28" s="8">
+      <c r="V28" s="5">
         <f>U28*SIN(RADIANS(U27))</f>
         <v>0.86824088833465163</v>
       </c>
-      <c r="W28" s="9">
+      <c r="W28" s="6">
         <v>5</v>
       </c>
-      <c r="X28" s="8">
+      <c r="X28" s="5">
         <f>W28*SIN(RADIANS(W27))</f>
         <v>5</v>
       </c>
@@ -4135,85 +4137,85 @@
       </c>
     </row>
     <row r="29" spans="3:38" x14ac:dyDescent="0.3">
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
-      </c>
-      <c r="F29" s="4">
+      <c r="E29" s="1">
+        <v>0</v>
+      </c>
+      <c r="F29" s="2">
         <f>E31*COS(RADIANS(E29))*COS(RADIANS(E30))</f>
         <v>2</v>
       </c>
-      <c r="G29" s="3">
+      <c r="G29" s="1">
         <f>360-180</f>
         <v>180</v>
       </c>
-      <c r="H29" s="4">
+      <c r="H29" s="2">
         <f>G31*COS(RADIANS(G29))*COS(RADIANS(G30))</f>
         <v>-5</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="4">
+      <c r="I29" s="1">
+        <v>0</v>
+      </c>
+      <c r="J29" s="2">
         <f>I31*COS(RADIANS(I29))*COS(RADIANS(I30))</f>
         <v>7.6604444311897799</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29" s="1">
         <f>360-90</f>
         <v>270</v>
       </c>
-      <c r="L29" s="4">
+      <c r="L29" s="2">
         <f>K31*COS(RADIANS(K29))*COS(RADIANS(K30))</f>
         <v>-1.83772268236293E-15</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M29" s="1">
         <f>360-200</f>
         <v>160</v>
       </c>
-      <c r="N29" s="4">
+      <c r="N29" s="2">
         <f>M31*COS(RADIANS(M29))*COS(RADIANS(M30))</f>
         <v>-4.4151111077974452</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O29" s="1">
         <f>360-45</f>
         <v>315</v>
       </c>
-      <c r="P29" s="4">
+      <c r="P29" s="2">
         <f>O31*COS(RADIANS(O29))*COS(RADIANS(O30))</f>
         <v>3.0618621784789721</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="Q29" s="1">
         <f>360-225</f>
         <v>135</v>
       </c>
-      <c r="R29" s="4">
+      <c r="R29" s="2">
         <f>Q31*COS(RADIANS(Q29))*COS(RADIANS(Q30))</f>
         <v>-1.4142135623730949</v>
       </c>
-      <c r="S29" s="3">
-        <v>0</v>
-      </c>
-      <c r="T29" s="4">
+      <c r="S29" s="1">
+        <v>0</v>
+      </c>
+      <c r="T29" s="2">
         <f>S31*COS(RADIANS(S29))*COS(RADIANS(S30))</f>
         <v>5.6381557247154506</v>
       </c>
-      <c r="U29" s="3">
+      <c r="U29" s="1">
         <f>360-180</f>
         <v>180</v>
       </c>
-      <c r="V29" s="4">
+      <c r="V29" s="2">
         <f>U31*COS(RADIANS(U29))*COS(RADIANS(U30))</f>
         <v>-6.5778483455013586</v>
       </c>
-      <c r="W29" s="5">
+      <c r="W29" s="3">
         <v>270</v>
       </c>
-      <c r="X29" s="4">
+      <c r="X29" s="2">
         <f>W31*COS(RADIANS(W29))*COS(RADIANS(W30))</f>
         <v>-1.83772268236293E-16</v>
       </c>
@@ -4267,77 +4269,77 @@
       </c>
     </row>
     <row r="30" spans="3:38" x14ac:dyDescent="0.3">
-      <c r="C30" s="6"/>
-      <c r="D30" s="7" t="s">
+      <c r="C30" s="12"/>
+      <c r="D30" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E30" s="7">
-        <v>0</v>
-      </c>
-      <c r="F30" s="8">
+      <c r="E30" s="4">
+        <v>0</v>
+      </c>
+      <c r="F30" s="5">
         <f>E31*SIN(RADIANS(E29))*COS(RADIANS(E30))</f>
         <v>0</v>
       </c>
-      <c r="G30" s="7">
-        <v>0</v>
-      </c>
-      <c r="H30" s="8">
+      <c r="G30" s="4">
+        <v>0</v>
+      </c>
+      <c r="H30" s="5">
         <f>G31*SIN(RADIANS(G29))*COS(RADIANS(G30))</f>
         <v>6.1257422745431001E-16</v>
       </c>
-      <c r="I30" s="7">
+      <c r="I30" s="4">
         <v>-40</v>
       </c>
-      <c r="J30" s="8">
+      <c r="J30" s="5">
         <f>I31*SIN(RADIANS(I29))*COS(RADIANS(I30))</f>
         <v>0</v>
       </c>
-      <c r="K30" s="7">
-        <v>0</v>
-      </c>
-      <c r="L30" s="8">
+      <c r="K30" s="4">
+        <v>0</v>
+      </c>
+      <c r="L30" s="5">
         <f>K31*SIN(RADIANS(K29))*COS(RADIANS(K30))</f>
         <v>-10</v>
       </c>
-      <c r="M30" s="7">
+      <c r="M30" s="4">
         <v>-20</v>
       </c>
-      <c r="N30" s="8">
+      <c r="N30" s="5">
         <f>M31*SIN(RADIANS(M29))*COS(RADIANS(M30))</f>
         <v>1.606969024216349</v>
       </c>
-      <c r="O30" s="7">
+      <c r="O30" s="4">
         <v>-30</v>
       </c>
-      <c r="P30" s="8">
+      <c r="P30" s="5">
         <f>O31*SIN(RADIANS(O29))*COS(RADIANS(O30))</f>
         <v>-3.0618621784789739</v>
       </c>
-      <c r="Q30" s="7">
-        <v>0</v>
-      </c>
-      <c r="R30" s="8">
+      <c r="Q30" s="4">
+        <v>0</v>
+      </c>
+      <c r="R30" s="5">
         <f>Q31*SIN(RADIANS(Q29))*COS(RADIANS(Q30))</f>
         <v>1.4142135623730951</v>
       </c>
-      <c r="S30" s="7">
+      <c r="S30" s="4">
         <v>20</v>
       </c>
-      <c r="T30" s="8">
+      <c r="T30" s="5">
         <f>S31*SIN(RADIANS(S29))*COS(RADIANS(S30))</f>
         <v>0</v>
       </c>
-      <c r="U30" s="7">
+      <c r="U30" s="4">
         <v>-20</v>
       </c>
-      <c r="V30" s="8">
+      <c r="V30" s="5">
         <f>U31*SIN(RADIANS(U29))*COS(RADIANS(U30))</f>
         <v>8.058840737114212E-16</v>
       </c>
-      <c r="W30" s="9">
-        <v>0</v>
-      </c>
-      <c r="X30" s="8">
+      <c r="W30" s="6">
+        <v>0</v>
+      </c>
+      <c r="X30" s="5">
         <f>W31*SIN(RADIANS(W29))*COS(RADIANS(W30))</f>
         <v>-1</v>
       </c>
@@ -4391,77 +4393,77 @@
       </c>
     </row>
     <row r="31" spans="3:38" x14ac:dyDescent="0.3">
-      <c r="C31" s="10"/>
-      <c r="D31" s="11" t="s">
+      <c r="C31" s="13"/>
+      <c r="D31" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E31" s="11">
+      <c r="E31" s="7">
         <v>2</v>
       </c>
-      <c r="F31" s="12">
+      <c r="F31" s="8">
         <f>E31*SIN(RADIANS(E30))</f>
         <v>0</v>
       </c>
-      <c r="G31" s="11">
+      <c r="G31" s="7">
         <v>5</v>
       </c>
-      <c r="H31" s="12">
+      <c r="H31" s="8">
         <f>G31*SIN(RADIANS(G30))</f>
         <v>0</v>
       </c>
-      <c r="I31" s="11">
+      <c r="I31" s="7">
         <v>10</v>
       </c>
-      <c r="J31" s="12">
+      <c r="J31" s="8">
         <f>I31*SIN(RADIANS(I30))</f>
         <v>-6.4278760968653925</v>
       </c>
-      <c r="K31" s="11">
+      <c r="K31" s="7">
         <v>10</v>
       </c>
-      <c r="L31" s="12">
+      <c r="L31" s="8">
         <f>K31*SIN(RADIANS(K30))</f>
         <v>0</v>
       </c>
-      <c r="M31" s="11">
+      <c r="M31" s="7">
         <v>5</v>
       </c>
-      <c r="N31" s="12">
+      <c r="N31" s="8">
         <f>M31*SIN(RADIANS(M30))</f>
         <v>-1.7101007166283435</v>
       </c>
-      <c r="O31" s="11">
+      <c r="O31" s="7">
         <v>5</v>
       </c>
-      <c r="P31" s="12">
+      <c r="P31" s="8">
         <f>O31*SIN(RADIANS(O30))</f>
         <v>-2.4999999999999996</v>
       </c>
-      <c r="Q31" s="11">
+      <c r="Q31" s="7">
         <v>2</v>
       </c>
-      <c r="R31" s="12">
+      <c r="R31" s="8">
         <f>Q31*SIN(RADIANS(Q30))</f>
         <v>0</v>
       </c>
-      <c r="S31" s="11">
+      <c r="S31" s="7">
         <v>6</v>
       </c>
-      <c r="T31" s="12">
+      <c r="T31" s="8">
         <f>S31*SIN(RADIANS(S30))</f>
         <v>2.0521208599540124</v>
       </c>
-      <c r="U31" s="11">
+      <c r="U31" s="7">
         <v>7</v>
       </c>
-      <c r="V31" s="12">
+      <c r="V31" s="8">
         <f>U31*SIN(RADIANS(U30))</f>
         <v>-2.3941410032796808</v>
       </c>
-      <c r="W31" s="13">
-        <v>1</v>
-      </c>
-      <c r="X31" s="12">
+      <c r="W31" s="9">
+        <v>1</v>
+      </c>
+      <c r="X31" s="8">
         <f>W31*SIN(RADIANS(W30))</f>
         <v>0</v>
       </c>
@@ -4515,87 +4517,87 @@
       </c>
     </row>
     <row r="32" spans="3:38" x14ac:dyDescent="0.3">
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="D32" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E32" s="3">
+      <c r="E32" s="1">
         <f>360-225</f>
         <v>135</v>
       </c>
-      <c r="F32" s="4">
+      <c r="F32" s="2">
         <f>E34*COS(RADIANS(E32))*COS(RADIANS(E33))</f>
         <v>-6.9296464556281654</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
-      <c r="H32" s="4">
+      <c r="G32" s="1">
+        <v>0</v>
+      </c>
+      <c r="H32" s="2">
         <f>G34*COS(RADIANS(G32))*COS(RADIANS(G33))</f>
         <v>10</v>
       </c>
-      <c r="I32" s="3">
+      <c r="I32" s="1">
         <f>360-90</f>
         <v>270</v>
       </c>
-      <c r="J32" s="4">
+      <c r="J32" s="2">
         <f>I34*COS(RADIANS(I32))*COS(RADIANS(I33))</f>
         <v>-1.8098035454774049E-15</v>
       </c>
-      <c r="K32" s="3">
+      <c r="K32" s="1">
         <f>360-225</f>
         <v>135</v>
       </c>
-      <c r="L32" s="4">
+      <c r="L32" s="2">
         <f>K34*COS(RADIANS(K32))*COS(RADIANS(K33))</f>
         <v>-5.4167522041970182</v>
       </c>
-      <c r="M32" s="3">
+      <c r="M32" s="1">
         <f>360-200</f>
         <v>160</v>
       </c>
-      <c r="N32" s="4">
+      <c r="N32" s="2">
         <f>M34*COS(RADIANS(M32))*COS(RADIANS(M33))</f>
         <v>-7.1984631039295417</v>
       </c>
-      <c r="O32" s="3">
+      <c r="O32" s="1">
         <f>360-300</f>
         <v>60</v>
       </c>
-      <c r="P32" s="4">
+      <c r="P32" s="2">
         <f>O34*COS(RADIANS(O32))*COS(RADIANS(O33))</f>
         <v>3.8302222155948908</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="Q32" s="1">
         <f>360-225</f>
         <v>135</v>
       </c>
-      <c r="R32" s="4">
+      <c r="R32" s="2">
         <f>Q34*COS(RADIANS(Q32))*COS(RADIANS(Q33))</f>
         <v>-5.3157041951093973</v>
       </c>
-      <c r="S32" s="3">
+      <c r="S32" s="1">
         <f>360-260</f>
         <v>100</v>
       </c>
-      <c r="T32" s="4">
+      <c r="T32" s="2">
         <f>S34*COS(RADIANS(S32))*COS(RADIANS(S33))</f>
         <v>-1.5038373318043528</v>
       </c>
-      <c r="U32" s="3">
+      <c r="U32" s="1">
         <f>360-325</f>
         <v>35</v>
       </c>
-      <c r="V32" s="4">
+      <c r="V32" s="2">
         <f>U34*COS(RADIANS(U32))*COS(RADIANS(U33))</f>
         <v>2.8016649959323559</v>
       </c>
-      <c r="W32" s="5">
+      <c r="W32" s="3">
         <v>80</v>
       </c>
-      <c r="X32" s="4">
+      <c r="X32" s="2">
         <f>W34*COS(RADIANS(W32))*COS(RADIANS(W33))</f>
         <v>0.86824088833465207</v>
       </c>
@@ -4649,77 +4651,77 @@
       </c>
     </row>
     <row r="33" spans="3:38" x14ac:dyDescent="0.3">
-      <c r="C33" s="6"/>
-      <c r="D33" s="7" t="s">
+      <c r="C33" s="12"/>
+      <c r="D33" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E33" s="7">
-        <v>0</v>
-      </c>
-      <c r="F33" s="8">
+      <c r="E33" s="4">
+        <v>0</v>
+      </c>
+      <c r="F33" s="5">
         <f>E34*SIN(RADIANS(E32))*COS(RADIANS(E33))</f>
         <v>6.9296464556281663</v>
       </c>
-      <c r="G33" s="7">
-        <v>0</v>
-      </c>
-      <c r="H33" s="8">
+      <c r="G33" s="4">
+        <v>0</v>
+      </c>
+      <c r="H33" s="5">
         <f>G34*SIN(RADIANS(G32))*COS(RADIANS(G33))</f>
         <v>0</v>
       </c>
-      <c r="I33" s="7">
+      <c r="I33" s="4">
         <v>10</v>
       </c>
-      <c r="J33" s="8">
+      <c r="J33" s="5">
         <f>I34*SIN(RADIANS(I32))*COS(RADIANS(I33))</f>
         <v>-9.8480775301220795</v>
       </c>
-      <c r="K33" s="7">
+      <c r="K33" s="4">
         <v>-40</v>
       </c>
-      <c r="L33" s="8">
+      <c r="L33" s="5">
         <f>K34*SIN(RADIANS(K32))*COS(RADIANS(K33))</f>
         <v>5.4167522041970182</v>
       </c>
-      <c r="M33" s="7">
+      <c r="M33" s="4">
         <v>-40</v>
       </c>
-      <c r="N33" s="8">
+      <c r="N33" s="5">
         <f>M34*SIN(RADIANS(M32))*COS(RADIANS(M33))</f>
         <v>2.6200263022938506</v>
       </c>
-      <c r="O33" s="7">
+      <c r="O33" s="4">
         <v>-40</v>
       </c>
-      <c r="P33" s="8">
+      <c r="P33" s="5">
         <f>O34*SIN(RADIANS(O32))*COS(RADIANS(O33))</f>
         <v>6.6341394816893828</v>
       </c>
-      <c r="Q33" s="7">
+      <c r="Q33" s="4">
         <v>-20</v>
       </c>
-      <c r="R33" s="8">
+      <c r="R33" s="5">
         <f>Q34*SIN(RADIANS(Q32))*COS(RADIANS(Q33))</f>
         <v>5.3157041951093982</v>
       </c>
-      <c r="S33" s="7">
+      <c r="S33" s="4">
         <v>30</v>
       </c>
-      <c r="T33" s="8">
+      <c r="T33" s="5">
         <f>S34*SIN(RADIANS(S32))*COS(RADIANS(S33))</f>
         <v>8.5286853195244312</v>
       </c>
-      <c r="U33" s="7">
+      <c r="U33" s="4">
         <v>70</v>
       </c>
-      <c r="V33" s="8">
+      <c r="V33" s="5">
         <f>U34*SIN(RADIANS(U32))*COS(RADIANS(U33))</f>
         <v>1.9617469496901112</v>
       </c>
-      <c r="W33" s="9">
-        <v>0</v>
-      </c>
-      <c r="X33" s="8">
+      <c r="W33" s="6">
+        <v>0</v>
+      </c>
+      <c r="X33" s="5">
         <f>W34*SIN(RADIANS(W32))*COS(RADIANS(W33))</f>
         <v>4.9240387650610398</v>
       </c>
@@ -4773,77 +4775,77 @@
       </c>
     </row>
     <row r="34" spans="3:38" x14ac:dyDescent="0.3">
-      <c r="C34" s="10"/>
-      <c r="D34" s="11" t="s">
+      <c r="C34" s="13"/>
+      <c r="D34" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E34" s="11">
+      <c r="E34" s="7">
         <v>9.8000000000000007</v>
       </c>
-      <c r="F34" s="12">
+      <c r="F34" s="8">
         <f>E34*SIN(RADIANS(E33))</f>
         <v>0</v>
       </c>
-      <c r="G34" s="11">
+      <c r="G34" s="7">
         <v>10</v>
       </c>
-      <c r="H34" s="12">
+      <c r="H34" s="8">
         <f>G34*SIN(RADIANS(G33))</f>
         <v>0</v>
       </c>
-      <c r="I34" s="11">
+      <c r="I34" s="7">
         <v>10</v>
       </c>
-      <c r="J34" s="12">
+      <c r="J34" s="8">
         <f>I34*SIN(RADIANS(I33))</f>
         <v>1.7364817766693033</v>
       </c>
-      <c r="K34" s="11">
+      <c r="K34" s="7">
         <v>10</v>
       </c>
-      <c r="L34" s="12">
+      <c r="L34" s="8">
         <f>K34*SIN(RADIANS(K33))</f>
         <v>-6.4278760968653925</v>
       </c>
-      <c r="M34" s="11">
+      <c r="M34" s="7">
         <v>10</v>
       </c>
-      <c r="N34" s="12">
+      <c r="N34" s="8">
         <f>M34*SIN(RADIANS(M33))</f>
         <v>-6.4278760968653925</v>
       </c>
-      <c r="O34" s="11">
+      <c r="O34" s="7">
         <v>10</v>
       </c>
-      <c r="P34" s="12">
+      <c r="P34" s="8">
         <f>O34*SIN(RADIANS(O33))</f>
         <v>-6.4278760968653925</v>
       </c>
-      <c r="Q34" s="11">
+      <c r="Q34" s="7">
         <v>8</v>
       </c>
-      <c r="R34" s="12">
+      <c r="R34" s="8">
         <f>Q34*SIN(RADIANS(Q33))</f>
         <v>-2.7361611466053497</v>
       </c>
-      <c r="S34" s="11">
+      <c r="S34" s="7">
         <v>10</v>
       </c>
-      <c r="T34" s="12">
+      <c r="T34" s="8">
         <f>S34*SIN(RADIANS(S33))</f>
         <v>4.9999999999999991</v>
       </c>
-      <c r="U34" s="11">
+      <c r="U34" s="7">
         <v>10</v>
       </c>
-      <c r="V34" s="12">
+      <c r="V34" s="8">
         <f>U34*SIN(RADIANS(U33))</f>
         <v>9.3969262078590834</v>
       </c>
-      <c r="W34" s="13">
+      <c r="W34" s="9">
         <v>5</v>
       </c>
-      <c r="X34" s="12">
+      <c r="X34" s="8">
         <f>W34*SIN(RADIANS(W33))</f>
         <v>0</v>
       </c>
@@ -4898,11 +4900,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="C23:C25"/>
     <mergeCell ref="C26:C28"/>
     <mergeCell ref="C29:C31"/>
     <mergeCell ref="C32:C34"/>
@@ -4918,6 +4915,11 @@
     <mergeCell ref="C14:C16"/>
     <mergeCell ref="C17:C19"/>
     <mergeCell ref="C20:C22"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="C23:C25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/AUTE/Testsignaler.xlsx
+++ b/AUTE/Testsignaler.xlsx
@@ -9,7 +9,6 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9228" activeTab="1"/>
     <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="9228" activeTab="1"/>
   </bookViews>
   <sheets>
@@ -251,9 +250,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -262,6 +258,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -549,10 +548,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E4:X15"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
-    </sheetView>
-    <sheetView topLeftCell="C1" workbookViewId="1">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
@@ -875,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="H14">
         <v>2</v>
@@ -926,11 +922,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:AL34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O7" workbookViewId="0">
-      <selection activeCell="W35" sqref="W35"/>
-    </sheetView>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="1">
-      <selection activeCell="Q45" sqref="Q45"/>
+    <sheetView tabSelected="1" topLeftCell="C6" workbookViewId="0">
+      <selection activeCell="W34" sqref="W34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1018,42 +1011,42 @@
       <c r="D4" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10">
-        <v>1</v>
-      </c>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10">
+      <c r="F4" s="13"/>
+      <c r="G4" s="13">
+        <v>1</v>
+      </c>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13">
         <v>2</v>
       </c>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10">
+      <c r="J4" s="13"/>
+      <c r="K4" s="13">
         <v>3</v>
       </c>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10">
+      <c r="L4" s="13"/>
+      <c r="M4" s="13">
         <v>4</v>
       </c>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10">
+      <c r="N4" s="13"/>
+      <c r="O4" s="13">
         <v>5</v>
       </c>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10">
+      <c r="P4" s="13"/>
+      <c r="Q4" s="13">
         <v>6</v>
       </c>
-      <c r="R4" s="10"/>
-      <c r="S4" s="10">
+      <c r="R4" s="13"/>
+      <c r="S4" s="13">
         <v>7</v>
       </c>
-      <c r="T4" s="10"/>
-      <c r="U4" s="10">
+      <c r="T4" s="13"/>
+      <c r="U4" s="13">
         <v>8</v>
       </c>
-      <c r="V4" s="10"/>
+      <c r="V4" s="13"/>
       <c r="W4" s="14">
         <v>9</v>
       </c>
@@ -1096,7 +1089,7 @@
       </c>
     </row>
     <row r="5" spans="3:38" x14ac:dyDescent="0.3">
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="10" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -1230,7 +1223,7 @@
       </c>
     </row>
     <row r="6" spans="3:38" x14ac:dyDescent="0.3">
-      <c r="C6" s="12"/>
+      <c r="C6" s="11"/>
       <c r="D6" s="4" t="s">
         <v>10</v>
       </c>
@@ -1354,7 +1347,7 @@
       </c>
     </row>
     <row r="7" spans="3:38" x14ac:dyDescent="0.3">
-      <c r="C7" s="12"/>
+      <c r="C7" s="11"/>
       <c r="D7" s="4" t="s">
         <v>4</v>
       </c>
@@ -1478,7 +1471,7 @@
       </c>
     </row>
     <row r="8" spans="3:38" x14ac:dyDescent="0.3">
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="10" t="s">
         <v>12</v>
       </c>
       <c r="D8" s="1" t="s">
@@ -1613,7 +1606,7 @@
       </c>
     </row>
     <row r="9" spans="3:38" x14ac:dyDescent="0.3">
-      <c r="C9" s="12"/>
+      <c r="C9" s="11"/>
       <c r="D9" s="4" t="s">
         <v>10</v>
       </c>
@@ -1737,7 +1730,7 @@
       </c>
     </row>
     <row r="10" spans="3:38" x14ac:dyDescent="0.3">
-      <c r="C10" s="13"/>
+      <c r="C10" s="12"/>
       <c r="D10" s="7" t="s">
         <v>4</v>
       </c>
@@ -1861,7 +1854,7 @@
       </c>
     </row>
     <row r="11" spans="3:38" x14ac:dyDescent="0.3">
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="10" t="s">
         <v>13</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -1989,7 +1982,7 @@
       </c>
     </row>
     <row r="12" spans="3:38" x14ac:dyDescent="0.3">
-      <c r="C12" s="12"/>
+      <c r="C12" s="11"/>
       <c r="D12" s="4" t="s">
         <v>10</v>
       </c>
@@ -2113,7 +2106,7 @@
       </c>
     </row>
     <row r="13" spans="3:38" x14ac:dyDescent="0.3">
-      <c r="C13" s="13"/>
+      <c r="C13" s="12"/>
       <c r="D13" s="7" t="s">
         <v>4</v>
       </c>
@@ -2237,7 +2230,7 @@
       </c>
     </row>
     <row r="14" spans="3:38" x14ac:dyDescent="0.3">
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="10" t="s">
         <v>14</v>
       </c>
       <c r="D14" s="1" t="s">
@@ -2366,7 +2359,7 @@
       </c>
     </row>
     <row r="15" spans="3:38" x14ac:dyDescent="0.3">
-      <c r="C15" s="12"/>
+      <c r="C15" s="11"/>
       <c r="D15" s="4" t="s">
         <v>10</v>
       </c>
@@ -2490,7 +2483,7 @@
       </c>
     </row>
     <row r="16" spans="3:38" x14ac:dyDescent="0.3">
-      <c r="C16" s="13"/>
+      <c r="C16" s="12"/>
       <c r="D16" s="7" t="s">
         <v>4</v>
       </c>
@@ -2614,7 +2607,7 @@
       </c>
     </row>
     <row r="17" spans="3:38" x14ac:dyDescent="0.3">
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="10" t="s">
         <v>15</v>
       </c>
       <c r="D17" s="1" t="s">
@@ -2745,7 +2738,7 @@
       </c>
     </row>
     <row r="18" spans="3:38" x14ac:dyDescent="0.3">
-      <c r="C18" s="12"/>
+      <c r="C18" s="11"/>
       <c r="D18" s="4" t="s">
         <v>10</v>
       </c>
@@ -2869,7 +2862,7 @@
       </c>
     </row>
     <row r="19" spans="3:38" x14ac:dyDescent="0.3">
-      <c r="C19" s="12"/>
+      <c r="C19" s="11"/>
       <c r="D19" s="4" t="s">
         <v>4</v>
       </c>
@@ -2993,7 +2986,7 @@
       </c>
     </row>
     <row r="20" spans="3:38" x14ac:dyDescent="0.3">
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="10" t="s">
         <v>16</v>
       </c>
       <c r="D20" s="1" t="s">
@@ -3128,7 +3121,7 @@
       </c>
     </row>
     <row r="21" spans="3:38" x14ac:dyDescent="0.3">
-      <c r="C21" s="12"/>
+      <c r="C21" s="11"/>
       <c r="D21" s="4" t="s">
         <v>10</v>
       </c>
@@ -3252,7 +3245,7 @@
       </c>
     </row>
     <row r="22" spans="3:38" x14ac:dyDescent="0.3">
-      <c r="C22" s="13"/>
+      <c r="C22" s="12"/>
       <c r="D22" s="7" t="s">
         <v>4</v>
       </c>
@@ -3376,7 +3369,7 @@
       </c>
     </row>
     <row r="23" spans="3:38" x14ac:dyDescent="0.3">
-      <c r="C23" s="11" t="s">
+      <c r="C23" s="10" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="1" t="s">
@@ -3511,7 +3504,7 @@
       </c>
     </row>
     <row r="24" spans="3:38" x14ac:dyDescent="0.3">
-      <c r="C24" s="12"/>
+      <c r="C24" s="11"/>
       <c r="D24" s="4" t="s">
         <v>10</v>
       </c>
@@ -3635,7 +3628,7 @@
       </c>
     </row>
     <row r="25" spans="3:38" x14ac:dyDescent="0.3">
-      <c r="C25" s="13"/>
+      <c r="C25" s="12"/>
       <c r="D25" s="7" t="s">
         <v>4</v>
       </c>
@@ -3759,7 +3752,7 @@
       </c>
     </row>
     <row r="26" spans="3:38" x14ac:dyDescent="0.3">
-      <c r="C26" s="11" t="s">
+      <c r="C26" s="10" t="s">
         <v>18</v>
       </c>
       <c r="D26" s="1" t="s">
@@ -3889,7 +3882,7 @@
       </c>
     </row>
     <row r="27" spans="3:38" x14ac:dyDescent="0.3">
-      <c r="C27" s="12"/>
+      <c r="C27" s="11"/>
       <c r="D27" s="4" t="s">
         <v>10</v>
       </c>
@@ -4013,7 +4006,7 @@
       </c>
     </row>
     <row r="28" spans="3:38" x14ac:dyDescent="0.3">
-      <c r="C28" s="12"/>
+      <c r="C28" s="11"/>
       <c r="D28" s="4" t="s">
         <v>4</v>
       </c>
@@ -4137,7 +4130,7 @@
       </c>
     </row>
     <row r="29" spans="3:38" x14ac:dyDescent="0.3">
-      <c r="C29" s="11" t="s">
+      <c r="C29" s="10" t="s">
         <v>19</v>
       </c>
       <c r="D29" s="1" t="s">
@@ -4148,7 +4141,7 @@
       </c>
       <c r="F29" s="2">
         <f>E31*COS(RADIANS(E29))*COS(RADIANS(E30))</f>
-        <v>2</v>
+        <v>1.22514845490862E-16</v>
       </c>
       <c r="G29" s="1">
         <f>360-180</f>
@@ -4269,12 +4262,12 @@
       </c>
     </row>
     <row r="30" spans="3:38" x14ac:dyDescent="0.3">
-      <c r="C30" s="12"/>
+      <c r="C30" s="11"/>
       <c r="D30" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E30" s="4">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="F30" s="5">
         <f>E31*SIN(RADIANS(E29))*COS(RADIANS(E30))</f>
@@ -4393,7 +4386,7 @@
       </c>
     </row>
     <row r="31" spans="3:38" x14ac:dyDescent="0.3">
-      <c r="C31" s="13"/>
+      <c r="C31" s="12"/>
       <c r="D31" s="7" t="s">
         <v>4</v>
       </c>
@@ -4402,7 +4395,7 @@
       </c>
       <c r="F31" s="8">
         <f>E31*SIN(RADIANS(E30))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G31" s="7">
         <v>5</v>
@@ -4517,7 +4510,7 @@
       </c>
     </row>
     <row r="32" spans="3:38" x14ac:dyDescent="0.3">
-      <c r="C32" s="11" t="s">
+      <c r="C32" s="10" t="s">
         <v>20</v>
       </c>
       <c r="D32" s="1" t="s">
@@ -4651,7 +4644,7 @@
       </c>
     </row>
     <row r="33" spans="3:38" x14ac:dyDescent="0.3">
-      <c r="C33" s="12"/>
+      <c r="C33" s="11"/>
       <c r="D33" s="4" t="s">
         <v>10</v>
       </c>
@@ -4775,7 +4768,7 @@
       </c>
     </row>
     <row r="34" spans="3:38" x14ac:dyDescent="0.3">
-      <c r="C34" s="13"/>
+      <c r="C34" s="12"/>
       <c r="D34" s="7" t="s">
         <v>4</v>
       </c>
@@ -4900,6 +4893,10 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="C23:C25"/>
     <mergeCell ref="C26:C28"/>
     <mergeCell ref="C29:C31"/>
     <mergeCell ref="C32:C34"/>
@@ -4916,10 +4913,6 @@
     <mergeCell ref="C17:C19"/>
     <mergeCell ref="C20:C22"/>
     <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="C23:C25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/AUTE/Testsignaler.xlsx
+++ b/AUTE/Testsignaler.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18201"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stenh\Documents\GitHub\LYAK\AUTE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Laste\Documents\GitHub\LYAK\AUTE\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="9228" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="9225"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Lyttetest" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="34">
   <si>
     <t>Signal</t>
   </si>
@@ -113,14 +113,29 @@
   <si>
     <t>std.afv</t>
   </si>
+  <si>
+    <t>Azimuth</t>
+  </si>
+  <si>
+    <t>Elevation</t>
+  </si>
+  <si>
+    <t>Distance</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -138,15 +153,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -234,22 +255,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -259,15 +298,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Komma" xfId="1" builtinId="3"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -546,15 +584,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="E4:X15"/>
+  <dimension ref="D4:X384"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="U19" sqref="U19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="4" spans="5:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="5:24" x14ac:dyDescent="0.25">
       <c r="E4" t="s">
         <v>0</v>
       </c>
@@ -601,7 +639,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="5:24" x14ac:dyDescent="0.3">
+    <row r="5" spans="5:24" x14ac:dyDescent="0.25">
       <c r="E5" t="s">
         <v>1</v>
       </c>
@@ -630,7 +668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="5:24" x14ac:dyDescent="0.3">
+    <row r="6" spans="5:24" x14ac:dyDescent="0.25">
       <c r="E6">
         <v>1</v>
       </c>
@@ -660,7 +698,7 @@
         <v>-0.7</v>
       </c>
     </row>
-    <row r="7" spans="5:24" x14ac:dyDescent="0.3">
+    <row r="7" spans="5:24" x14ac:dyDescent="0.25">
       <c r="E7">
         <v>2</v>
       </c>
@@ -690,7 +728,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="8" spans="5:24" x14ac:dyDescent="0.3">
+    <row r="8" spans="5:24" x14ac:dyDescent="0.25">
       <c r="E8">
         <v>3</v>
       </c>
@@ -726,7 +764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="5:24" x14ac:dyDescent="0.3">
+    <row r="9" spans="5:24" x14ac:dyDescent="0.25">
       <c r="E9">
         <v>4</v>
       </c>
@@ -756,7 +794,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="10" spans="5:24" x14ac:dyDescent="0.3">
+    <row r="10" spans="5:24" x14ac:dyDescent="0.25">
       <c r="E10">
         <v>5</v>
       </c>
@@ -785,7 +823,7 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="11" spans="5:24" x14ac:dyDescent="0.3">
+    <row r="11" spans="5:24" x14ac:dyDescent="0.25">
       <c r="E11">
         <v>6</v>
       </c>
@@ -815,7 +853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="5:24" x14ac:dyDescent="0.3">
+    <row r="12" spans="5:24" x14ac:dyDescent="0.25">
       <c r="E12">
         <v>7</v>
       </c>
@@ -839,7 +877,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="13" spans="5:24" x14ac:dyDescent="0.3">
+    <row r="13" spans="5:24" x14ac:dyDescent="0.25">
       <c r="E13">
         <v>8</v>
       </c>
@@ -863,7 +901,7 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="14" spans="5:24" x14ac:dyDescent="0.3">
+    <row r="14" spans="5:24" x14ac:dyDescent="0.25">
       <c r="E14">
         <v>9</v>
       </c>
@@ -886,7 +924,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="5:24" x14ac:dyDescent="0.3">
+    <row r="15" spans="5:24" x14ac:dyDescent="0.25">
       <c r="E15">
         <v>10</v>
       </c>
@@ -907,6 +945,3398 @@
         <v>7</v>
       </c>
       <c r="L15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="15"/>
+      <c r="N21" s="15"/>
+      <c r="O21" s="15"/>
+      <c r="P21" s="15"/>
+    </row>
+    <row r="22" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D22" s="15"/>
+      <c r="E22" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F22" s="16">
+        <v>90</v>
+      </c>
+      <c r="G22" s="16">
+        <v>270</v>
+      </c>
+      <c r="H22" s="16">
+        <v>180</v>
+      </c>
+      <c r="I22" s="16">
+        <v>180</v>
+      </c>
+      <c r="J22" s="16">
+        <v>0</v>
+      </c>
+      <c r="K22" s="16">
+        <v>60</v>
+      </c>
+      <c r="L22" s="16">
+        <v>240</v>
+      </c>
+      <c r="M22" s="16">
+        <v>5</v>
+      </c>
+      <c r="N22" s="16">
+        <v>0</v>
+      </c>
+      <c r="O22" s="16">
+        <v>135</v>
+      </c>
+      <c r="P22" s="15"/>
+    </row>
+    <row r="23" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D23" s="15"/>
+      <c r="E23" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F23" s="16">
+        <v>0</v>
+      </c>
+      <c r="G23" s="16">
+        <v>0</v>
+      </c>
+      <c r="H23" s="16">
+        <v>0</v>
+      </c>
+      <c r="I23" s="16">
+        <v>-30</v>
+      </c>
+      <c r="J23" s="16">
+        <v>30</v>
+      </c>
+      <c r="K23" s="16">
+        <v>10</v>
+      </c>
+      <c r="L23" s="16">
+        <v>-10</v>
+      </c>
+      <c r="M23" s="16">
+        <v>-20</v>
+      </c>
+      <c r="N23" s="16">
+        <v>90</v>
+      </c>
+      <c r="O23" s="16">
+        <v>0</v>
+      </c>
+      <c r="P23" s="15"/>
+      <c r="T23" t="s">
+        <v>32</v>
+      </c>
+      <c r="U23" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D24" s="15"/>
+      <c r="E24" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="F24" s="16">
+        <v>1</v>
+      </c>
+      <c r="G24" s="16">
+        <v>2</v>
+      </c>
+      <c r="H24" s="16">
+        <v>1</v>
+      </c>
+      <c r="I24" s="16">
+        <v>1</v>
+      </c>
+      <c r="J24" s="16">
+        <v>1</v>
+      </c>
+      <c r="K24" s="16">
+        <v>3</v>
+      </c>
+      <c r="L24" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="M24" s="16">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="N24" s="16">
+        <v>2</v>
+      </c>
+      <c r="O24" s="16">
+        <v>10</v>
+      </c>
+      <c r="P24" s="15"/>
+      <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <f>360-T24</f>
+        <v>360</v>
+      </c>
+    </row>
+    <row r="25" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="15"/>
+      <c r="N25" s="15"/>
+      <c r="O25" s="15"/>
+      <c r="P25" s="15"/>
+      <c r="T25">
+        <v>1</v>
+      </c>
+      <c r="U25">
+        <f t="shared" ref="U25:U88" si="0">360-T25</f>
+        <v>359</v>
+      </c>
+    </row>
+    <row r="26" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="T26">
+        <v>2</v>
+      </c>
+      <c r="U26">
+        <f t="shared" si="0"/>
+        <v>358</v>
+      </c>
+    </row>
+    <row r="27" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="T27">
+        <v>3</v>
+      </c>
+      <c r="U27">
+        <f t="shared" si="0"/>
+        <v>357</v>
+      </c>
+    </row>
+    <row r="28" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="T28">
+        <v>4</v>
+      </c>
+      <c r="U28">
+        <f t="shared" si="0"/>
+        <v>356</v>
+      </c>
+    </row>
+    <row r="29" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="T29">
+        <v>5</v>
+      </c>
+      <c r="U29">
+        <f t="shared" si="0"/>
+        <v>355</v>
+      </c>
+    </row>
+    <row r="30" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="T30">
+        <v>6</v>
+      </c>
+      <c r="U30">
+        <f t="shared" si="0"/>
+        <v>354</v>
+      </c>
+    </row>
+    <row r="31" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="T31">
+        <v>7</v>
+      </c>
+      <c r="U31">
+        <f t="shared" si="0"/>
+        <v>353</v>
+      </c>
+    </row>
+    <row r="32" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="T32">
+        <v>8</v>
+      </c>
+      <c r="U32">
+        <f t="shared" si="0"/>
+        <v>352</v>
+      </c>
+    </row>
+    <row r="33" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T33">
+        <v>9</v>
+      </c>
+      <c r="U33">
+        <f t="shared" si="0"/>
+        <v>351</v>
+      </c>
+    </row>
+    <row r="34" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T34">
+        <v>10</v>
+      </c>
+      <c r="U34">
+        <f t="shared" si="0"/>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="35" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T35">
+        <v>11</v>
+      </c>
+      <c r="U35">
+        <f t="shared" si="0"/>
+        <v>349</v>
+      </c>
+    </row>
+    <row r="36" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T36">
+        <v>12</v>
+      </c>
+      <c r="U36">
+        <f t="shared" si="0"/>
+        <v>348</v>
+      </c>
+    </row>
+    <row r="37" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T37">
+        <v>13</v>
+      </c>
+      <c r="U37">
+        <f t="shared" si="0"/>
+        <v>347</v>
+      </c>
+    </row>
+    <row r="38" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T38">
+        <v>14</v>
+      </c>
+      <c r="U38">
+        <f t="shared" si="0"/>
+        <v>346</v>
+      </c>
+    </row>
+    <row r="39" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T39">
+        <v>15</v>
+      </c>
+      <c r="U39">
+        <f t="shared" si="0"/>
+        <v>345</v>
+      </c>
+    </row>
+    <row r="40" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T40">
+        <v>16</v>
+      </c>
+      <c r="U40">
+        <f t="shared" si="0"/>
+        <v>344</v>
+      </c>
+    </row>
+    <row r="41" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T41">
+        <v>17</v>
+      </c>
+      <c r="U41">
+        <f t="shared" si="0"/>
+        <v>343</v>
+      </c>
+    </row>
+    <row r="42" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T42">
+        <v>18</v>
+      </c>
+      <c r="U42">
+        <f t="shared" si="0"/>
+        <v>342</v>
+      </c>
+    </row>
+    <row r="43" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T43">
+        <v>19</v>
+      </c>
+      <c r="U43">
+        <f t="shared" si="0"/>
+        <v>341</v>
+      </c>
+    </row>
+    <row r="44" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T44">
+        <v>20</v>
+      </c>
+      <c r="U44">
+        <f t="shared" si="0"/>
+        <v>340</v>
+      </c>
+    </row>
+    <row r="45" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T45">
+        <v>21</v>
+      </c>
+      <c r="U45">
+        <f t="shared" si="0"/>
+        <v>339</v>
+      </c>
+    </row>
+    <row r="46" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T46">
+        <v>22</v>
+      </c>
+      <c r="U46">
+        <f t="shared" si="0"/>
+        <v>338</v>
+      </c>
+    </row>
+    <row r="47" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T47">
+        <v>23</v>
+      </c>
+      <c r="U47">
+        <f t="shared" si="0"/>
+        <v>337</v>
+      </c>
+    </row>
+    <row r="48" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T48">
+        <v>24</v>
+      </c>
+      <c r="U48">
+        <f t="shared" si="0"/>
+        <v>336</v>
+      </c>
+    </row>
+    <row r="49" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T49">
+        <v>25</v>
+      </c>
+      <c r="U49">
+        <f t="shared" si="0"/>
+        <v>335</v>
+      </c>
+    </row>
+    <row r="50" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T50">
+        <v>26</v>
+      </c>
+      <c r="U50">
+        <f t="shared" si="0"/>
+        <v>334</v>
+      </c>
+    </row>
+    <row r="51" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T51">
+        <v>27</v>
+      </c>
+      <c r="U51">
+        <f t="shared" si="0"/>
+        <v>333</v>
+      </c>
+    </row>
+    <row r="52" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T52">
+        <v>28</v>
+      </c>
+      <c r="U52">
+        <f t="shared" si="0"/>
+        <v>332</v>
+      </c>
+    </row>
+    <row r="53" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T53">
+        <v>29</v>
+      </c>
+      <c r="U53">
+        <f t="shared" si="0"/>
+        <v>331</v>
+      </c>
+    </row>
+    <row r="54" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T54">
+        <v>30</v>
+      </c>
+      <c r="U54">
+        <f t="shared" si="0"/>
+        <v>330</v>
+      </c>
+    </row>
+    <row r="55" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T55">
+        <v>31</v>
+      </c>
+      <c r="U55">
+        <f t="shared" si="0"/>
+        <v>329</v>
+      </c>
+    </row>
+    <row r="56" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T56">
+        <v>32</v>
+      </c>
+      <c r="U56">
+        <f t="shared" si="0"/>
+        <v>328</v>
+      </c>
+    </row>
+    <row r="57" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T57">
+        <v>33</v>
+      </c>
+      <c r="U57">
+        <f t="shared" si="0"/>
+        <v>327</v>
+      </c>
+    </row>
+    <row r="58" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T58">
+        <v>34</v>
+      </c>
+      <c r="U58">
+        <f t="shared" si="0"/>
+        <v>326</v>
+      </c>
+    </row>
+    <row r="59" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T59">
+        <v>35</v>
+      </c>
+      <c r="U59">
+        <f t="shared" si="0"/>
+        <v>325</v>
+      </c>
+    </row>
+    <row r="60" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T60">
+        <v>36</v>
+      </c>
+      <c r="U60">
+        <f t="shared" si="0"/>
+        <v>324</v>
+      </c>
+    </row>
+    <row r="61" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T61">
+        <v>37</v>
+      </c>
+      <c r="U61">
+        <f t="shared" si="0"/>
+        <v>323</v>
+      </c>
+    </row>
+    <row r="62" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T62">
+        <v>38</v>
+      </c>
+      <c r="U62">
+        <f t="shared" si="0"/>
+        <v>322</v>
+      </c>
+    </row>
+    <row r="63" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T63">
+        <v>39</v>
+      </c>
+      <c r="U63">
+        <f t="shared" si="0"/>
+        <v>321</v>
+      </c>
+    </row>
+    <row r="64" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T64">
+        <v>40</v>
+      </c>
+      <c r="U64">
+        <f t="shared" si="0"/>
+        <v>320</v>
+      </c>
+    </row>
+    <row r="65" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T65">
+        <v>41</v>
+      </c>
+      <c r="U65">
+        <f t="shared" si="0"/>
+        <v>319</v>
+      </c>
+    </row>
+    <row r="66" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T66">
+        <v>42</v>
+      </c>
+      <c r="U66">
+        <f t="shared" si="0"/>
+        <v>318</v>
+      </c>
+    </row>
+    <row r="67" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T67">
+        <v>43</v>
+      </c>
+      <c r="U67">
+        <f t="shared" si="0"/>
+        <v>317</v>
+      </c>
+    </row>
+    <row r="68" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T68">
+        <v>44</v>
+      </c>
+      <c r="U68">
+        <f t="shared" si="0"/>
+        <v>316</v>
+      </c>
+    </row>
+    <row r="69" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T69">
+        <v>45</v>
+      </c>
+      <c r="U69">
+        <f t="shared" si="0"/>
+        <v>315</v>
+      </c>
+    </row>
+    <row r="70" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T70">
+        <v>46</v>
+      </c>
+      <c r="U70">
+        <f t="shared" si="0"/>
+        <v>314</v>
+      </c>
+    </row>
+    <row r="71" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T71">
+        <v>47</v>
+      </c>
+      <c r="U71">
+        <f t="shared" si="0"/>
+        <v>313</v>
+      </c>
+    </row>
+    <row r="72" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T72">
+        <v>48</v>
+      </c>
+      <c r="U72">
+        <f t="shared" si="0"/>
+        <v>312</v>
+      </c>
+    </row>
+    <row r="73" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T73">
+        <v>49</v>
+      </c>
+      <c r="U73">
+        <f t="shared" si="0"/>
+        <v>311</v>
+      </c>
+    </row>
+    <row r="74" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T74">
+        <v>50</v>
+      </c>
+      <c r="U74">
+        <f t="shared" si="0"/>
+        <v>310</v>
+      </c>
+    </row>
+    <row r="75" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T75">
+        <v>51</v>
+      </c>
+      <c r="U75">
+        <f t="shared" si="0"/>
+        <v>309</v>
+      </c>
+    </row>
+    <row r="76" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T76">
+        <v>52</v>
+      </c>
+      <c r="U76">
+        <f t="shared" si="0"/>
+        <v>308</v>
+      </c>
+    </row>
+    <row r="77" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T77">
+        <v>53</v>
+      </c>
+      <c r="U77">
+        <f t="shared" si="0"/>
+        <v>307</v>
+      </c>
+    </row>
+    <row r="78" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T78">
+        <v>54</v>
+      </c>
+      <c r="U78">
+        <f t="shared" si="0"/>
+        <v>306</v>
+      </c>
+    </row>
+    <row r="79" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T79">
+        <v>55</v>
+      </c>
+      <c r="U79">
+        <f t="shared" si="0"/>
+        <v>305</v>
+      </c>
+    </row>
+    <row r="80" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T80">
+        <v>56</v>
+      </c>
+      <c r="U80">
+        <f t="shared" si="0"/>
+        <v>304</v>
+      </c>
+    </row>
+    <row r="81" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T81">
+        <v>57</v>
+      </c>
+      <c r="U81">
+        <f t="shared" si="0"/>
+        <v>303</v>
+      </c>
+    </row>
+    <row r="82" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T82">
+        <v>58</v>
+      </c>
+      <c r="U82">
+        <f t="shared" si="0"/>
+        <v>302</v>
+      </c>
+    </row>
+    <row r="83" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T83">
+        <v>59</v>
+      </c>
+      <c r="U83">
+        <f t="shared" si="0"/>
+        <v>301</v>
+      </c>
+    </row>
+    <row r="84" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T84">
+        <v>60</v>
+      </c>
+      <c r="U84">
+        <f t="shared" si="0"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="85" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T85">
+        <v>61</v>
+      </c>
+      <c r="U85">
+        <f t="shared" si="0"/>
+        <v>299</v>
+      </c>
+    </row>
+    <row r="86" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T86">
+        <v>62</v>
+      </c>
+      <c r="U86">
+        <f t="shared" si="0"/>
+        <v>298</v>
+      </c>
+    </row>
+    <row r="87" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T87">
+        <v>63</v>
+      </c>
+      <c r="U87">
+        <f t="shared" si="0"/>
+        <v>297</v>
+      </c>
+    </row>
+    <row r="88" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T88">
+        <v>64</v>
+      </c>
+      <c r="U88">
+        <f t="shared" si="0"/>
+        <v>296</v>
+      </c>
+    </row>
+    <row r="89" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T89">
+        <v>65</v>
+      </c>
+      <c r="U89">
+        <f t="shared" ref="U89:U152" si="1">360-T89</f>
+        <v>295</v>
+      </c>
+    </row>
+    <row r="90" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T90">
+        <v>66</v>
+      </c>
+      <c r="U90">
+        <f t="shared" si="1"/>
+        <v>294</v>
+      </c>
+    </row>
+    <row r="91" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T91">
+        <v>67</v>
+      </c>
+      <c r="U91">
+        <f t="shared" si="1"/>
+        <v>293</v>
+      </c>
+    </row>
+    <row r="92" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T92">
+        <v>68</v>
+      </c>
+      <c r="U92">
+        <f t="shared" si="1"/>
+        <v>292</v>
+      </c>
+    </row>
+    <row r="93" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T93">
+        <v>69</v>
+      </c>
+      <c r="U93">
+        <f t="shared" si="1"/>
+        <v>291</v>
+      </c>
+    </row>
+    <row r="94" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T94">
+        <v>70</v>
+      </c>
+      <c r="U94">
+        <f t="shared" si="1"/>
+        <v>290</v>
+      </c>
+    </row>
+    <row r="95" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T95">
+        <v>71</v>
+      </c>
+      <c r="U95">
+        <f t="shared" si="1"/>
+        <v>289</v>
+      </c>
+    </row>
+    <row r="96" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T96">
+        <v>72</v>
+      </c>
+      <c r="U96">
+        <f t="shared" si="1"/>
+        <v>288</v>
+      </c>
+    </row>
+    <row r="97" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T97">
+        <v>73</v>
+      </c>
+      <c r="U97">
+        <f t="shared" si="1"/>
+        <v>287</v>
+      </c>
+    </row>
+    <row r="98" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T98">
+        <v>74</v>
+      </c>
+      <c r="U98">
+        <f t="shared" si="1"/>
+        <v>286</v>
+      </c>
+    </row>
+    <row r="99" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T99">
+        <v>75</v>
+      </c>
+      <c r="U99">
+        <f t="shared" si="1"/>
+        <v>285</v>
+      </c>
+    </row>
+    <row r="100" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T100">
+        <v>76</v>
+      </c>
+      <c r="U100">
+        <f t="shared" si="1"/>
+        <v>284</v>
+      </c>
+    </row>
+    <row r="101" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T101">
+        <v>77</v>
+      </c>
+      <c r="U101">
+        <f t="shared" si="1"/>
+        <v>283</v>
+      </c>
+    </row>
+    <row r="102" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T102">
+        <v>78</v>
+      </c>
+      <c r="U102">
+        <f t="shared" si="1"/>
+        <v>282</v>
+      </c>
+    </row>
+    <row r="103" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T103">
+        <v>79</v>
+      </c>
+      <c r="U103">
+        <f t="shared" si="1"/>
+        <v>281</v>
+      </c>
+    </row>
+    <row r="104" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T104">
+        <v>80</v>
+      </c>
+      <c r="U104">
+        <f t="shared" si="1"/>
+        <v>280</v>
+      </c>
+    </row>
+    <row r="105" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T105">
+        <v>81</v>
+      </c>
+      <c r="U105">
+        <f t="shared" si="1"/>
+        <v>279</v>
+      </c>
+    </row>
+    <row r="106" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T106">
+        <v>82</v>
+      </c>
+      <c r="U106">
+        <f t="shared" si="1"/>
+        <v>278</v>
+      </c>
+    </row>
+    <row r="107" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T107">
+        <v>83</v>
+      </c>
+      <c r="U107">
+        <f t="shared" si="1"/>
+        <v>277</v>
+      </c>
+    </row>
+    <row r="108" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T108">
+        <v>84</v>
+      </c>
+      <c r="U108">
+        <f t="shared" si="1"/>
+        <v>276</v>
+      </c>
+    </row>
+    <row r="109" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T109">
+        <v>85</v>
+      </c>
+      <c r="U109">
+        <f t="shared" si="1"/>
+        <v>275</v>
+      </c>
+    </row>
+    <row r="110" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T110">
+        <v>86</v>
+      </c>
+      <c r="U110">
+        <f t="shared" si="1"/>
+        <v>274</v>
+      </c>
+    </row>
+    <row r="111" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T111">
+        <v>87</v>
+      </c>
+      <c r="U111">
+        <f t="shared" si="1"/>
+        <v>273</v>
+      </c>
+    </row>
+    <row r="112" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T112">
+        <v>88</v>
+      </c>
+      <c r="U112">
+        <f t="shared" si="1"/>
+        <v>272</v>
+      </c>
+    </row>
+    <row r="113" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T113">
+        <v>89</v>
+      </c>
+      <c r="U113">
+        <f t="shared" si="1"/>
+        <v>271</v>
+      </c>
+    </row>
+    <row r="114" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T114">
+        <v>90</v>
+      </c>
+      <c r="U114">
+        <f t="shared" si="1"/>
+        <v>270</v>
+      </c>
+    </row>
+    <row r="115" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T115">
+        <v>91</v>
+      </c>
+      <c r="U115">
+        <f t="shared" si="1"/>
+        <v>269</v>
+      </c>
+    </row>
+    <row r="116" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T116">
+        <v>92</v>
+      </c>
+      <c r="U116">
+        <f t="shared" si="1"/>
+        <v>268</v>
+      </c>
+    </row>
+    <row r="117" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T117">
+        <v>93</v>
+      </c>
+      <c r="U117">
+        <f t="shared" si="1"/>
+        <v>267</v>
+      </c>
+    </row>
+    <row r="118" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T118">
+        <v>94</v>
+      </c>
+      <c r="U118">
+        <f t="shared" si="1"/>
+        <v>266</v>
+      </c>
+    </row>
+    <row r="119" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T119">
+        <v>95</v>
+      </c>
+      <c r="U119">
+        <f t="shared" si="1"/>
+        <v>265</v>
+      </c>
+    </row>
+    <row r="120" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T120">
+        <v>96</v>
+      </c>
+      <c r="U120">
+        <f t="shared" si="1"/>
+        <v>264</v>
+      </c>
+    </row>
+    <row r="121" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T121">
+        <v>97</v>
+      </c>
+      <c r="U121">
+        <f t="shared" si="1"/>
+        <v>263</v>
+      </c>
+    </row>
+    <row r="122" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T122">
+        <v>98</v>
+      </c>
+      <c r="U122">
+        <f t="shared" si="1"/>
+        <v>262</v>
+      </c>
+    </row>
+    <row r="123" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T123">
+        <v>99</v>
+      </c>
+      <c r="U123">
+        <f t="shared" si="1"/>
+        <v>261</v>
+      </c>
+    </row>
+    <row r="124" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T124">
+        <v>100</v>
+      </c>
+      <c r="U124">
+        <f t="shared" si="1"/>
+        <v>260</v>
+      </c>
+    </row>
+    <row r="125" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T125">
+        <v>101</v>
+      </c>
+      <c r="U125">
+        <f t="shared" si="1"/>
+        <v>259</v>
+      </c>
+    </row>
+    <row r="126" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T126">
+        <v>102</v>
+      </c>
+      <c r="U126">
+        <f t="shared" si="1"/>
+        <v>258</v>
+      </c>
+    </row>
+    <row r="127" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T127">
+        <v>103</v>
+      </c>
+      <c r="U127">
+        <f t="shared" si="1"/>
+        <v>257</v>
+      </c>
+    </row>
+    <row r="128" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T128">
+        <v>104</v>
+      </c>
+      <c r="U128">
+        <f t="shared" si="1"/>
+        <v>256</v>
+      </c>
+    </row>
+    <row r="129" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T129">
+        <v>105</v>
+      </c>
+      <c r="U129">
+        <f t="shared" si="1"/>
+        <v>255</v>
+      </c>
+    </row>
+    <row r="130" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T130">
+        <v>106</v>
+      </c>
+      <c r="U130">
+        <f t="shared" si="1"/>
+        <v>254</v>
+      </c>
+    </row>
+    <row r="131" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T131">
+        <v>107</v>
+      </c>
+      <c r="U131">
+        <f t="shared" si="1"/>
+        <v>253</v>
+      </c>
+    </row>
+    <row r="132" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T132">
+        <v>108</v>
+      </c>
+      <c r="U132">
+        <f t="shared" si="1"/>
+        <v>252</v>
+      </c>
+    </row>
+    <row r="133" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T133">
+        <v>109</v>
+      </c>
+      <c r="U133">
+        <f t="shared" si="1"/>
+        <v>251</v>
+      </c>
+    </row>
+    <row r="134" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T134">
+        <v>110</v>
+      </c>
+      <c r="U134">
+        <f t="shared" si="1"/>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="135" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T135">
+        <v>111</v>
+      </c>
+      <c r="U135">
+        <f t="shared" si="1"/>
+        <v>249</v>
+      </c>
+    </row>
+    <row r="136" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T136">
+        <v>112</v>
+      </c>
+      <c r="U136">
+        <f t="shared" si="1"/>
+        <v>248</v>
+      </c>
+    </row>
+    <row r="137" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T137">
+        <v>113</v>
+      </c>
+      <c r="U137">
+        <f t="shared" si="1"/>
+        <v>247</v>
+      </c>
+    </row>
+    <row r="138" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T138">
+        <v>114</v>
+      </c>
+      <c r="U138">
+        <f t="shared" si="1"/>
+        <v>246</v>
+      </c>
+    </row>
+    <row r="139" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T139">
+        <v>115</v>
+      </c>
+      <c r="U139">
+        <f t="shared" si="1"/>
+        <v>245</v>
+      </c>
+    </row>
+    <row r="140" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T140">
+        <v>116</v>
+      </c>
+      <c r="U140">
+        <f t="shared" si="1"/>
+        <v>244</v>
+      </c>
+    </row>
+    <row r="141" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T141">
+        <v>117</v>
+      </c>
+      <c r="U141">
+        <f t="shared" si="1"/>
+        <v>243</v>
+      </c>
+    </row>
+    <row r="142" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T142">
+        <v>118</v>
+      </c>
+      <c r="U142">
+        <f t="shared" si="1"/>
+        <v>242</v>
+      </c>
+    </row>
+    <row r="143" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T143">
+        <v>119</v>
+      </c>
+      <c r="U143">
+        <f t="shared" si="1"/>
+        <v>241</v>
+      </c>
+    </row>
+    <row r="144" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T144">
+        <v>120</v>
+      </c>
+      <c r="U144">
+        <f t="shared" si="1"/>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="145" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T145">
+        <v>121</v>
+      </c>
+      <c r="U145">
+        <f t="shared" si="1"/>
+        <v>239</v>
+      </c>
+    </row>
+    <row r="146" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T146">
+        <v>122</v>
+      </c>
+      <c r="U146">
+        <f t="shared" si="1"/>
+        <v>238</v>
+      </c>
+    </row>
+    <row r="147" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T147">
+        <v>123</v>
+      </c>
+      <c r="U147">
+        <f t="shared" si="1"/>
+        <v>237</v>
+      </c>
+    </row>
+    <row r="148" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T148">
+        <v>124</v>
+      </c>
+      <c r="U148">
+        <f t="shared" si="1"/>
+        <v>236</v>
+      </c>
+    </row>
+    <row r="149" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T149">
+        <v>125</v>
+      </c>
+      <c r="U149">
+        <f t="shared" si="1"/>
+        <v>235</v>
+      </c>
+    </row>
+    <row r="150" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T150">
+        <v>126</v>
+      </c>
+      <c r="U150">
+        <f t="shared" si="1"/>
+        <v>234</v>
+      </c>
+    </row>
+    <row r="151" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T151">
+        <v>127</v>
+      </c>
+      <c r="U151">
+        <f t="shared" si="1"/>
+        <v>233</v>
+      </c>
+    </row>
+    <row r="152" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T152">
+        <v>128</v>
+      </c>
+      <c r="U152">
+        <f t="shared" si="1"/>
+        <v>232</v>
+      </c>
+    </row>
+    <row r="153" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T153">
+        <v>129</v>
+      </c>
+      <c r="U153">
+        <f t="shared" ref="U153:U216" si="2">360-T153</f>
+        <v>231</v>
+      </c>
+    </row>
+    <row r="154" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T154">
+        <v>130</v>
+      </c>
+      <c r="U154">
+        <f t="shared" si="2"/>
+        <v>230</v>
+      </c>
+    </row>
+    <row r="155" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T155">
+        <v>131</v>
+      </c>
+      <c r="U155">
+        <f t="shared" si="2"/>
+        <v>229</v>
+      </c>
+    </row>
+    <row r="156" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T156">
+        <v>132</v>
+      </c>
+      <c r="U156">
+        <f t="shared" si="2"/>
+        <v>228</v>
+      </c>
+    </row>
+    <row r="157" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T157">
+        <v>133</v>
+      </c>
+      <c r="U157">
+        <f t="shared" si="2"/>
+        <v>227</v>
+      </c>
+    </row>
+    <row r="158" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T158">
+        <v>134</v>
+      </c>
+      <c r="U158">
+        <f t="shared" si="2"/>
+        <v>226</v>
+      </c>
+    </row>
+    <row r="159" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T159">
+        <v>135</v>
+      </c>
+      <c r="U159">
+        <f t="shared" si="2"/>
+        <v>225</v>
+      </c>
+    </row>
+    <row r="160" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T160">
+        <v>136</v>
+      </c>
+      <c r="U160">
+        <f t="shared" si="2"/>
+        <v>224</v>
+      </c>
+    </row>
+    <row r="161" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T161">
+        <v>137</v>
+      </c>
+      <c r="U161">
+        <f t="shared" si="2"/>
+        <v>223</v>
+      </c>
+    </row>
+    <row r="162" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T162">
+        <v>138</v>
+      </c>
+      <c r="U162">
+        <f t="shared" si="2"/>
+        <v>222</v>
+      </c>
+    </row>
+    <row r="163" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T163">
+        <v>139</v>
+      </c>
+      <c r="U163">
+        <f t="shared" si="2"/>
+        <v>221</v>
+      </c>
+    </row>
+    <row r="164" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T164">
+        <v>140</v>
+      </c>
+      <c r="U164">
+        <f t="shared" si="2"/>
+        <v>220</v>
+      </c>
+    </row>
+    <row r="165" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T165">
+        <v>141</v>
+      </c>
+      <c r="U165">
+        <f t="shared" si="2"/>
+        <v>219</v>
+      </c>
+    </row>
+    <row r="166" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T166">
+        <v>142</v>
+      </c>
+      <c r="U166">
+        <f t="shared" si="2"/>
+        <v>218</v>
+      </c>
+    </row>
+    <row r="167" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T167">
+        <v>143</v>
+      </c>
+      <c r="U167">
+        <f t="shared" si="2"/>
+        <v>217</v>
+      </c>
+    </row>
+    <row r="168" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T168">
+        <v>144</v>
+      </c>
+      <c r="U168">
+        <f t="shared" si="2"/>
+        <v>216</v>
+      </c>
+    </row>
+    <row r="169" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T169">
+        <v>145</v>
+      </c>
+      <c r="U169">
+        <f t="shared" si="2"/>
+        <v>215</v>
+      </c>
+    </row>
+    <row r="170" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T170">
+        <v>146</v>
+      </c>
+      <c r="U170">
+        <f t="shared" si="2"/>
+        <v>214</v>
+      </c>
+    </row>
+    <row r="171" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T171">
+        <v>147</v>
+      </c>
+      <c r="U171">
+        <f t="shared" si="2"/>
+        <v>213</v>
+      </c>
+    </row>
+    <row r="172" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T172">
+        <v>148</v>
+      </c>
+      <c r="U172">
+        <f t="shared" si="2"/>
+        <v>212</v>
+      </c>
+    </row>
+    <row r="173" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T173">
+        <v>149</v>
+      </c>
+      <c r="U173">
+        <f t="shared" si="2"/>
+        <v>211</v>
+      </c>
+    </row>
+    <row r="174" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T174">
+        <v>150</v>
+      </c>
+      <c r="U174">
+        <f t="shared" si="2"/>
+        <v>210</v>
+      </c>
+    </row>
+    <row r="175" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T175">
+        <v>151</v>
+      </c>
+      <c r="U175">
+        <f t="shared" si="2"/>
+        <v>209</v>
+      </c>
+    </row>
+    <row r="176" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T176">
+        <v>152</v>
+      </c>
+      <c r="U176">
+        <f t="shared" si="2"/>
+        <v>208</v>
+      </c>
+    </row>
+    <row r="177" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T177">
+        <v>153</v>
+      </c>
+      <c r="U177">
+        <f t="shared" si="2"/>
+        <v>207</v>
+      </c>
+    </row>
+    <row r="178" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T178">
+        <v>154</v>
+      </c>
+      <c r="U178">
+        <f t="shared" si="2"/>
+        <v>206</v>
+      </c>
+    </row>
+    <row r="179" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T179">
+        <v>155</v>
+      </c>
+      <c r="U179">
+        <f t="shared" si="2"/>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="180" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T180">
+        <v>156</v>
+      </c>
+      <c r="U180">
+        <f t="shared" si="2"/>
+        <v>204</v>
+      </c>
+    </row>
+    <row r="181" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T181">
+        <v>157</v>
+      </c>
+      <c r="U181">
+        <f t="shared" si="2"/>
+        <v>203</v>
+      </c>
+    </row>
+    <row r="182" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T182">
+        <v>158</v>
+      </c>
+      <c r="U182">
+        <f t="shared" si="2"/>
+        <v>202</v>
+      </c>
+    </row>
+    <row r="183" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T183">
+        <v>159</v>
+      </c>
+      <c r="U183">
+        <f t="shared" si="2"/>
+        <v>201</v>
+      </c>
+    </row>
+    <row r="184" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T184">
+        <v>160</v>
+      </c>
+      <c r="U184">
+        <f t="shared" si="2"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="185" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T185">
+        <v>161</v>
+      </c>
+      <c r="U185">
+        <f t="shared" si="2"/>
+        <v>199</v>
+      </c>
+    </row>
+    <row r="186" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T186">
+        <v>162</v>
+      </c>
+      <c r="U186">
+        <f t="shared" si="2"/>
+        <v>198</v>
+      </c>
+    </row>
+    <row r="187" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T187">
+        <v>163</v>
+      </c>
+      <c r="U187">
+        <f t="shared" si="2"/>
+        <v>197</v>
+      </c>
+    </row>
+    <row r="188" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T188">
+        <v>164</v>
+      </c>
+      <c r="U188">
+        <f t="shared" si="2"/>
+        <v>196</v>
+      </c>
+    </row>
+    <row r="189" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T189">
+        <v>165</v>
+      </c>
+      <c r="U189">
+        <f t="shared" si="2"/>
+        <v>195</v>
+      </c>
+    </row>
+    <row r="190" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T190">
+        <v>166</v>
+      </c>
+      <c r="U190">
+        <f t="shared" si="2"/>
+        <v>194</v>
+      </c>
+    </row>
+    <row r="191" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T191">
+        <v>167</v>
+      </c>
+      <c r="U191">
+        <f t="shared" si="2"/>
+        <v>193</v>
+      </c>
+    </row>
+    <row r="192" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T192">
+        <v>168</v>
+      </c>
+      <c r="U192">
+        <f t="shared" si="2"/>
+        <v>192</v>
+      </c>
+    </row>
+    <row r="193" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T193">
+        <v>169</v>
+      </c>
+      <c r="U193">
+        <f t="shared" si="2"/>
+        <v>191</v>
+      </c>
+    </row>
+    <row r="194" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T194">
+        <v>170</v>
+      </c>
+      <c r="U194">
+        <f t="shared" si="2"/>
+        <v>190</v>
+      </c>
+    </row>
+    <row r="195" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T195">
+        <v>171</v>
+      </c>
+      <c r="U195">
+        <f t="shared" si="2"/>
+        <v>189</v>
+      </c>
+    </row>
+    <row r="196" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T196">
+        <v>172</v>
+      </c>
+      <c r="U196">
+        <f t="shared" si="2"/>
+        <v>188</v>
+      </c>
+    </row>
+    <row r="197" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T197">
+        <v>173</v>
+      </c>
+      <c r="U197">
+        <f t="shared" si="2"/>
+        <v>187</v>
+      </c>
+    </row>
+    <row r="198" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T198">
+        <v>174</v>
+      </c>
+      <c r="U198">
+        <f t="shared" si="2"/>
+        <v>186</v>
+      </c>
+    </row>
+    <row r="199" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T199">
+        <v>175</v>
+      </c>
+      <c r="U199">
+        <f t="shared" si="2"/>
+        <v>185</v>
+      </c>
+    </row>
+    <row r="200" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T200">
+        <v>176</v>
+      </c>
+      <c r="U200">
+        <f t="shared" si="2"/>
+        <v>184</v>
+      </c>
+    </row>
+    <row r="201" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T201">
+        <v>177</v>
+      </c>
+      <c r="U201">
+        <f t="shared" si="2"/>
+        <v>183</v>
+      </c>
+    </row>
+    <row r="202" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T202">
+        <v>178</v>
+      </c>
+      <c r="U202">
+        <f t="shared" si="2"/>
+        <v>182</v>
+      </c>
+    </row>
+    <row r="203" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T203">
+        <v>179</v>
+      </c>
+      <c r="U203">
+        <f t="shared" si="2"/>
+        <v>181</v>
+      </c>
+    </row>
+    <row r="204" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T204">
+        <v>180</v>
+      </c>
+      <c r="U204">
+        <f t="shared" si="2"/>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="205" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T205">
+        <v>181</v>
+      </c>
+      <c r="U205">
+        <f t="shared" si="2"/>
+        <v>179</v>
+      </c>
+    </row>
+    <row r="206" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T206">
+        <v>182</v>
+      </c>
+      <c r="U206">
+        <f t="shared" si="2"/>
+        <v>178</v>
+      </c>
+    </row>
+    <row r="207" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T207">
+        <v>183</v>
+      </c>
+      <c r="U207">
+        <f t="shared" si="2"/>
+        <v>177</v>
+      </c>
+    </row>
+    <row r="208" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T208">
+        <v>184</v>
+      </c>
+      <c r="U208">
+        <f t="shared" si="2"/>
+        <v>176</v>
+      </c>
+    </row>
+    <row r="209" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T209">
+        <v>185</v>
+      </c>
+      <c r="U209">
+        <f t="shared" si="2"/>
+        <v>175</v>
+      </c>
+    </row>
+    <row r="210" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T210">
+        <v>186</v>
+      </c>
+      <c r="U210">
+        <f t="shared" si="2"/>
+        <v>174</v>
+      </c>
+    </row>
+    <row r="211" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T211">
+        <v>187</v>
+      </c>
+      <c r="U211">
+        <f t="shared" si="2"/>
+        <v>173</v>
+      </c>
+    </row>
+    <row r="212" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T212">
+        <v>188</v>
+      </c>
+      <c r="U212">
+        <f t="shared" si="2"/>
+        <v>172</v>
+      </c>
+    </row>
+    <row r="213" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T213">
+        <v>189</v>
+      </c>
+      <c r="U213">
+        <f t="shared" si="2"/>
+        <v>171</v>
+      </c>
+    </row>
+    <row r="214" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T214">
+        <v>190</v>
+      </c>
+      <c r="U214">
+        <f t="shared" si="2"/>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="215" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T215">
+        <v>191</v>
+      </c>
+      <c r="U215">
+        <f t="shared" si="2"/>
+        <v>169</v>
+      </c>
+    </row>
+    <row r="216" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T216">
+        <v>192</v>
+      </c>
+      <c r="U216">
+        <f t="shared" si="2"/>
+        <v>168</v>
+      </c>
+    </row>
+    <row r="217" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T217">
+        <v>193</v>
+      </c>
+      <c r="U217">
+        <f t="shared" ref="U217:U280" si="3">360-T217</f>
+        <v>167</v>
+      </c>
+    </row>
+    <row r="218" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T218">
+        <v>194</v>
+      </c>
+      <c r="U218">
+        <f t="shared" si="3"/>
+        <v>166</v>
+      </c>
+    </row>
+    <row r="219" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T219">
+        <v>195</v>
+      </c>
+      <c r="U219">
+        <f t="shared" si="3"/>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="220" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T220">
+        <v>196</v>
+      </c>
+      <c r="U220">
+        <f t="shared" si="3"/>
+        <v>164</v>
+      </c>
+    </row>
+    <row r="221" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T221">
+        <v>197</v>
+      </c>
+      <c r="U221">
+        <f t="shared" si="3"/>
+        <v>163</v>
+      </c>
+    </row>
+    <row r="222" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T222">
+        <v>198</v>
+      </c>
+      <c r="U222">
+        <f t="shared" si="3"/>
+        <v>162</v>
+      </c>
+    </row>
+    <row r="223" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T223">
+        <v>199</v>
+      </c>
+      <c r="U223">
+        <f t="shared" si="3"/>
+        <v>161</v>
+      </c>
+    </row>
+    <row r="224" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T224">
+        <v>200</v>
+      </c>
+      <c r="U224">
+        <f t="shared" si="3"/>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="225" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T225">
+        <v>201</v>
+      </c>
+      <c r="U225">
+        <f t="shared" si="3"/>
+        <v>159</v>
+      </c>
+    </row>
+    <row r="226" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T226">
+        <v>202</v>
+      </c>
+      <c r="U226">
+        <f t="shared" si="3"/>
+        <v>158</v>
+      </c>
+    </row>
+    <row r="227" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T227">
+        <v>203</v>
+      </c>
+      <c r="U227">
+        <f t="shared" si="3"/>
+        <v>157</v>
+      </c>
+    </row>
+    <row r="228" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T228">
+        <v>204</v>
+      </c>
+      <c r="U228">
+        <f t="shared" si="3"/>
+        <v>156</v>
+      </c>
+    </row>
+    <row r="229" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T229">
+        <v>205</v>
+      </c>
+      <c r="U229">
+        <f t="shared" si="3"/>
+        <v>155</v>
+      </c>
+    </row>
+    <row r="230" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T230">
+        <v>206</v>
+      </c>
+      <c r="U230">
+        <f t="shared" si="3"/>
+        <v>154</v>
+      </c>
+    </row>
+    <row r="231" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T231">
+        <v>207</v>
+      </c>
+      <c r="U231">
+        <f t="shared" si="3"/>
+        <v>153</v>
+      </c>
+    </row>
+    <row r="232" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T232">
+        <v>208</v>
+      </c>
+      <c r="U232">
+        <f t="shared" si="3"/>
+        <v>152</v>
+      </c>
+    </row>
+    <row r="233" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T233">
+        <v>209</v>
+      </c>
+      <c r="U233">
+        <f t="shared" si="3"/>
+        <v>151</v>
+      </c>
+    </row>
+    <row r="234" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T234">
+        <v>210</v>
+      </c>
+      <c r="U234">
+        <f t="shared" si="3"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="235" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T235">
+        <v>211</v>
+      </c>
+      <c r="U235">
+        <f t="shared" si="3"/>
+        <v>149</v>
+      </c>
+    </row>
+    <row r="236" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T236">
+        <v>212</v>
+      </c>
+      <c r="U236">
+        <f t="shared" si="3"/>
+        <v>148</v>
+      </c>
+    </row>
+    <row r="237" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T237">
+        <v>213</v>
+      </c>
+      <c r="U237">
+        <f t="shared" si="3"/>
+        <v>147</v>
+      </c>
+    </row>
+    <row r="238" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T238">
+        <v>214</v>
+      </c>
+      <c r="U238">
+        <f t="shared" si="3"/>
+        <v>146</v>
+      </c>
+    </row>
+    <row r="239" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T239">
+        <v>215</v>
+      </c>
+      <c r="U239">
+        <f t="shared" si="3"/>
+        <v>145</v>
+      </c>
+    </row>
+    <row r="240" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T240">
+        <v>216</v>
+      </c>
+      <c r="U240">
+        <f t="shared" si="3"/>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="241" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T241">
+        <v>217</v>
+      </c>
+      <c r="U241">
+        <f t="shared" si="3"/>
+        <v>143</v>
+      </c>
+    </row>
+    <row r="242" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T242">
+        <v>218</v>
+      </c>
+      <c r="U242">
+        <f t="shared" si="3"/>
+        <v>142</v>
+      </c>
+    </row>
+    <row r="243" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T243">
+        <v>219</v>
+      </c>
+      <c r="U243">
+        <f t="shared" si="3"/>
+        <v>141</v>
+      </c>
+    </row>
+    <row r="244" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T244">
+        <v>220</v>
+      </c>
+      <c r="U244">
+        <f t="shared" si="3"/>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="245" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T245">
+        <v>221</v>
+      </c>
+      <c r="U245">
+        <f t="shared" si="3"/>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="246" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T246">
+        <v>222</v>
+      </c>
+      <c r="U246">
+        <f t="shared" si="3"/>
+        <v>138</v>
+      </c>
+    </row>
+    <row r="247" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T247">
+        <v>223</v>
+      </c>
+      <c r="U247">
+        <f t="shared" si="3"/>
+        <v>137</v>
+      </c>
+    </row>
+    <row r="248" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T248">
+        <v>224</v>
+      </c>
+      <c r="U248">
+        <f t="shared" si="3"/>
+        <v>136</v>
+      </c>
+    </row>
+    <row r="249" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T249">
+        <v>225</v>
+      </c>
+      <c r="U249">
+        <f t="shared" si="3"/>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="250" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T250">
+        <v>226</v>
+      </c>
+      <c r="U250">
+        <f t="shared" si="3"/>
+        <v>134</v>
+      </c>
+    </row>
+    <row r="251" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T251">
+        <v>227</v>
+      </c>
+      <c r="U251">
+        <f t="shared" si="3"/>
+        <v>133</v>
+      </c>
+    </row>
+    <row r="252" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T252">
+        <v>228</v>
+      </c>
+      <c r="U252">
+        <f t="shared" si="3"/>
+        <v>132</v>
+      </c>
+    </row>
+    <row r="253" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T253">
+        <v>229</v>
+      </c>
+      <c r="U253">
+        <f t="shared" si="3"/>
+        <v>131</v>
+      </c>
+    </row>
+    <row r="254" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T254">
+        <v>230</v>
+      </c>
+      <c r="U254">
+        <f t="shared" si="3"/>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="255" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T255">
+        <v>231</v>
+      </c>
+      <c r="U255">
+        <f t="shared" si="3"/>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="256" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T256">
+        <v>232</v>
+      </c>
+      <c r="U256">
+        <f t="shared" si="3"/>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="257" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T257">
+        <v>233</v>
+      </c>
+      <c r="U257">
+        <f t="shared" si="3"/>
+        <v>127</v>
+      </c>
+    </row>
+    <row r="258" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T258">
+        <v>234</v>
+      </c>
+      <c r="U258">
+        <f t="shared" si="3"/>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="259" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T259">
+        <v>235</v>
+      </c>
+      <c r="U259">
+        <f t="shared" si="3"/>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="260" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T260">
+        <v>236</v>
+      </c>
+      <c r="U260">
+        <f t="shared" si="3"/>
+        <v>124</v>
+      </c>
+    </row>
+    <row r="261" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T261">
+        <v>237</v>
+      </c>
+      <c r="U261">
+        <f t="shared" si="3"/>
+        <v>123</v>
+      </c>
+    </row>
+    <row r="262" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T262">
+        <v>238</v>
+      </c>
+      <c r="U262">
+        <f t="shared" si="3"/>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="263" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T263">
+        <v>239</v>
+      </c>
+      <c r="U263">
+        <f t="shared" si="3"/>
+        <v>121</v>
+      </c>
+    </row>
+    <row r="264" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T264">
+        <v>240</v>
+      </c>
+      <c r="U264">
+        <f t="shared" si="3"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="265" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T265">
+        <v>241</v>
+      </c>
+      <c r="U265">
+        <f t="shared" si="3"/>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="266" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T266">
+        <v>242</v>
+      </c>
+      <c r="U266">
+        <f t="shared" si="3"/>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="267" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T267">
+        <v>243</v>
+      </c>
+      <c r="U267">
+        <f t="shared" si="3"/>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="268" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T268">
+        <v>244</v>
+      </c>
+      <c r="U268">
+        <f t="shared" si="3"/>
+        <v>116</v>
+      </c>
+    </row>
+    <row r="269" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T269">
+        <v>245</v>
+      </c>
+      <c r="U269">
+        <f t="shared" si="3"/>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="270" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T270">
+        <v>246</v>
+      </c>
+      <c r="U270">
+        <f t="shared" si="3"/>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="271" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T271">
+        <v>247</v>
+      </c>
+      <c r="U271">
+        <f t="shared" si="3"/>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="272" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T272">
+        <v>248</v>
+      </c>
+      <c r="U272">
+        <f t="shared" si="3"/>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="273" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T273">
+        <v>249</v>
+      </c>
+      <c r="U273">
+        <f t="shared" si="3"/>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="274" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T274">
+        <v>250</v>
+      </c>
+      <c r="U274">
+        <f t="shared" si="3"/>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="275" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T275">
+        <v>251</v>
+      </c>
+      <c r="U275">
+        <f t="shared" si="3"/>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="276" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T276">
+        <v>252</v>
+      </c>
+      <c r="U276">
+        <f t="shared" si="3"/>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="277" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T277">
+        <v>253</v>
+      </c>
+      <c r="U277">
+        <f t="shared" si="3"/>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="278" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T278">
+        <v>254</v>
+      </c>
+      <c r="U278">
+        <f t="shared" si="3"/>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="279" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T279">
+        <v>255</v>
+      </c>
+      <c r="U279">
+        <f t="shared" si="3"/>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="280" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T280">
+        <v>256</v>
+      </c>
+      <c r="U280">
+        <f t="shared" si="3"/>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="281" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T281">
+        <v>257</v>
+      </c>
+      <c r="U281">
+        <f t="shared" ref="U281:U344" si="4">360-T281</f>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="282" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T282">
+        <v>258</v>
+      </c>
+      <c r="U282">
+        <f t="shared" si="4"/>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="283" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T283">
+        <v>259</v>
+      </c>
+      <c r="U283">
+        <f t="shared" si="4"/>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="284" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T284">
+        <v>260</v>
+      </c>
+      <c r="U284">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="285" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T285">
+        <v>261</v>
+      </c>
+      <c r="U285">
+        <f t="shared" si="4"/>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="286" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T286">
+        <v>262</v>
+      </c>
+      <c r="U286">
+        <f t="shared" si="4"/>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="287" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T287">
+        <v>263</v>
+      </c>
+      <c r="U287">
+        <f t="shared" si="4"/>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="288" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T288">
+        <v>264</v>
+      </c>
+      <c r="U288">
+        <f t="shared" si="4"/>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="289" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T289">
+        <v>265</v>
+      </c>
+      <c r="U289">
+        <f t="shared" si="4"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="290" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T290">
+        <v>266</v>
+      </c>
+      <c r="U290">
+        <f t="shared" si="4"/>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="291" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T291">
+        <v>267</v>
+      </c>
+      <c r="U291">
+        <f t="shared" si="4"/>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="292" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T292">
+        <v>268</v>
+      </c>
+      <c r="U292">
+        <f t="shared" si="4"/>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="293" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T293">
+        <v>269</v>
+      </c>
+      <c r="U293">
+        <f t="shared" si="4"/>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="294" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T294">
+        <v>270</v>
+      </c>
+      <c r="U294">
+        <f t="shared" si="4"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="295" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T295">
+        <v>271</v>
+      </c>
+      <c r="U295">
+        <f t="shared" si="4"/>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="296" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T296">
+        <v>272</v>
+      </c>
+      <c r="U296">
+        <f t="shared" si="4"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="297" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T297">
+        <v>273</v>
+      </c>
+      <c r="U297">
+        <f t="shared" si="4"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="298" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T298">
+        <v>274</v>
+      </c>
+      <c r="U298">
+        <f t="shared" si="4"/>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="299" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T299">
+        <v>275</v>
+      </c>
+      <c r="U299">
+        <f t="shared" si="4"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="300" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T300">
+        <v>276</v>
+      </c>
+      <c r="U300">
+        <f t="shared" si="4"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="301" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T301">
+        <v>277</v>
+      </c>
+      <c r="U301">
+        <f t="shared" si="4"/>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="302" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T302">
+        <v>278</v>
+      </c>
+      <c r="U302">
+        <f t="shared" si="4"/>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="303" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T303">
+        <v>279</v>
+      </c>
+      <c r="U303">
+        <f t="shared" si="4"/>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="304" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T304">
+        <v>280</v>
+      </c>
+      <c r="U304">
+        <f t="shared" si="4"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="305" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T305">
+        <v>281</v>
+      </c>
+      <c r="U305">
+        <f t="shared" si="4"/>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="306" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T306">
+        <v>282</v>
+      </c>
+      <c r="U306">
+        <f t="shared" si="4"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="307" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T307">
+        <v>283</v>
+      </c>
+      <c r="U307">
+        <f t="shared" si="4"/>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="308" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T308">
+        <v>284</v>
+      </c>
+      <c r="U308">
+        <f t="shared" si="4"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="309" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T309">
+        <v>285</v>
+      </c>
+      <c r="U309">
+        <f t="shared" si="4"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="310" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T310">
+        <v>286</v>
+      </c>
+      <c r="U310">
+        <f t="shared" si="4"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="311" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T311">
+        <v>287</v>
+      </c>
+      <c r="U311">
+        <f t="shared" si="4"/>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="312" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T312">
+        <v>288</v>
+      </c>
+      <c r="U312">
+        <f t="shared" si="4"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="313" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T313">
+        <v>289</v>
+      </c>
+      <c r="U313">
+        <f t="shared" si="4"/>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="314" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T314">
+        <v>290</v>
+      </c>
+      <c r="U314">
+        <f t="shared" si="4"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="315" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T315">
+        <v>291</v>
+      </c>
+      <c r="U315">
+        <f t="shared" si="4"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="316" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T316">
+        <v>292</v>
+      </c>
+      <c r="U316">
+        <f t="shared" si="4"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="317" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T317">
+        <v>293</v>
+      </c>
+      <c r="U317">
+        <f t="shared" si="4"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="318" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T318">
+        <v>294</v>
+      </c>
+      <c r="U318">
+        <f t="shared" si="4"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="319" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T319">
+        <v>295</v>
+      </c>
+      <c r="U319">
+        <f t="shared" si="4"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="320" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T320">
+        <v>296</v>
+      </c>
+      <c r="U320">
+        <f t="shared" si="4"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="321" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T321">
+        <v>297</v>
+      </c>
+      <c r="U321">
+        <f t="shared" si="4"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="322" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T322">
+        <v>298</v>
+      </c>
+      <c r="U322">
+        <f t="shared" si="4"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="323" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T323">
+        <v>299</v>
+      </c>
+      <c r="U323">
+        <f t="shared" si="4"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="324" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T324">
+        <v>300</v>
+      </c>
+      <c r="U324">
+        <f t="shared" si="4"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="325" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T325">
+        <v>301</v>
+      </c>
+      <c r="U325">
+        <f t="shared" si="4"/>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="326" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T326">
+        <v>302</v>
+      </c>
+      <c r="U326">
+        <f t="shared" si="4"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="327" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T327">
+        <v>303</v>
+      </c>
+      <c r="U327">
+        <f t="shared" si="4"/>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="328" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T328">
+        <v>304</v>
+      </c>
+      <c r="U328">
+        <f t="shared" si="4"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="329" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T329">
+        <v>305</v>
+      </c>
+      <c r="U329">
+        <f t="shared" si="4"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="330" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T330">
+        <v>306</v>
+      </c>
+      <c r="U330">
+        <f t="shared" si="4"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="331" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T331">
+        <v>307</v>
+      </c>
+      <c r="U331">
+        <f t="shared" si="4"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="332" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T332">
+        <v>308</v>
+      </c>
+      <c r="U332">
+        <f t="shared" si="4"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="333" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T333">
+        <v>309</v>
+      </c>
+      <c r="U333">
+        <f t="shared" si="4"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="334" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T334">
+        <v>310</v>
+      </c>
+      <c r="U334">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="335" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T335">
+        <v>311</v>
+      </c>
+      <c r="U335">
+        <f t="shared" si="4"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="336" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T336">
+        <v>312</v>
+      </c>
+      <c r="U336">
+        <f t="shared" si="4"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="337" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T337">
+        <v>313</v>
+      </c>
+      <c r="U337">
+        <f t="shared" si="4"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="338" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T338">
+        <v>314</v>
+      </c>
+      <c r="U338">
+        <f t="shared" si="4"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="339" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T339">
+        <v>315</v>
+      </c>
+      <c r="U339">
+        <f t="shared" si="4"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="340" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T340">
+        <v>316</v>
+      </c>
+      <c r="U340">
+        <f t="shared" si="4"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="341" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T341">
+        <v>317</v>
+      </c>
+      <c r="U341">
+        <f t="shared" si="4"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="342" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T342">
+        <v>318</v>
+      </c>
+      <c r="U342">
+        <f t="shared" si="4"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="343" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T343">
+        <v>319</v>
+      </c>
+      <c r="U343">
+        <f t="shared" si="4"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="344" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T344">
+        <v>320</v>
+      </c>
+      <c r="U344">
+        <f t="shared" si="4"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="345" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T345">
+        <v>321</v>
+      </c>
+      <c r="U345">
+        <f t="shared" ref="U345:U384" si="5">360-T345</f>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="346" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T346">
+        <v>322</v>
+      </c>
+      <c r="U346">
+        <f t="shared" si="5"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="347" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T347">
+        <v>323</v>
+      </c>
+      <c r="U347">
+        <f t="shared" si="5"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="348" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T348">
+        <v>324</v>
+      </c>
+      <c r="U348">
+        <f t="shared" si="5"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="349" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T349">
+        <v>325</v>
+      </c>
+      <c r="U349">
+        <f t="shared" si="5"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="350" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T350">
+        <v>326</v>
+      </c>
+      <c r="U350">
+        <f t="shared" si="5"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="351" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T351">
+        <v>327</v>
+      </c>
+      <c r="U351">
+        <f t="shared" si="5"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="352" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T352">
+        <v>328</v>
+      </c>
+      <c r="U352">
+        <f t="shared" si="5"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="353" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T353">
+        <v>329</v>
+      </c>
+      <c r="U353">
+        <f t="shared" si="5"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="354" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T354">
+        <v>330</v>
+      </c>
+      <c r="U354">
+        <f t="shared" si="5"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="355" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T355">
+        <v>331</v>
+      </c>
+      <c r="U355">
+        <f t="shared" si="5"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="356" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T356">
+        <v>332</v>
+      </c>
+      <c r="U356">
+        <f t="shared" si="5"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="357" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T357">
+        <v>333</v>
+      </c>
+      <c r="U357">
+        <f t="shared" si="5"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="358" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T358">
+        <v>334</v>
+      </c>
+      <c r="U358">
+        <f t="shared" si="5"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="359" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T359">
+        <v>335</v>
+      </c>
+      <c r="U359">
+        <f t="shared" si="5"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="360" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T360">
+        <v>336</v>
+      </c>
+      <c r="U360">
+        <f t="shared" si="5"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="361" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T361">
+        <v>337</v>
+      </c>
+      <c r="U361">
+        <f t="shared" si="5"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="362" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T362">
+        <v>338</v>
+      </c>
+      <c r="U362">
+        <f t="shared" si="5"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="363" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T363">
+        <v>339</v>
+      </c>
+      <c r="U363">
+        <f t="shared" si="5"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="364" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T364">
+        <v>340</v>
+      </c>
+      <c r="U364">
+        <f t="shared" si="5"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="365" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T365">
+        <v>341</v>
+      </c>
+      <c r="U365">
+        <f t="shared" si="5"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="366" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T366">
+        <v>342</v>
+      </c>
+      <c r="U366">
+        <f t="shared" si="5"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="367" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T367">
+        <v>343</v>
+      </c>
+      <c r="U367">
+        <f t="shared" si="5"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="368" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T368">
+        <v>344</v>
+      </c>
+      <c r="U368">
+        <f t="shared" si="5"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="369" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T369">
+        <v>345</v>
+      </c>
+      <c r="U369">
+        <f t="shared" si="5"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="370" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T370">
+        <v>346</v>
+      </c>
+      <c r="U370">
+        <f t="shared" si="5"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="371" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T371">
+        <v>347</v>
+      </c>
+      <c r="U371">
+        <f t="shared" si="5"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="372" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T372">
+        <v>348</v>
+      </c>
+      <c r="U372">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="373" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T373">
+        <v>349</v>
+      </c>
+      <c r="U373">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="374" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T374">
+        <v>350</v>
+      </c>
+      <c r="U374">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="375" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T375">
+        <v>351</v>
+      </c>
+      <c r="U375">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="376" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T376">
+        <v>352</v>
+      </c>
+      <c r="U376">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="377" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T377">
+        <v>353</v>
+      </c>
+      <c r="U377">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="378" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T378">
+        <v>354</v>
+      </c>
+      <c r="U378">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="379" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T379">
+        <v>355</v>
+      </c>
+      <c r="U379">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="380" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T380">
+        <v>356</v>
+      </c>
+      <c r="U380">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="381" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T381">
+        <v>357</v>
+      </c>
+      <c r="U381">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="382" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T382">
+        <v>358</v>
+      </c>
+      <c r="U382">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="383" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T383">
+        <v>359</v>
+      </c>
+      <c r="U383">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="384" spans="20:21" x14ac:dyDescent="0.25">
+      <c r="T384">
+        <v>360</v>
+      </c>
+      <c r="U384">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -915,6 +4345,7 @@
     <sortCondition ref="R5"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -922,22 +4353,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:AL34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C6" workbookViewId="0">
-      <selection activeCell="W34" sqref="W34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="10.5546875" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:38" x14ac:dyDescent="0.3">
+    <row r="1" spans="3:38" x14ac:dyDescent="0.25">
       <c r="F1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="3:38" x14ac:dyDescent="0.3">
+    <row r="2" spans="3:38" x14ac:dyDescent="0.25">
       <c r="D2" t="s">
         <v>23</v>
       </c>
@@ -972,7 +4403,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="3:38" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:38" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
         <v>22</v>
       </c>
@@ -1007,46 +4438,46 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="3:38" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:38" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13">
+      <c r="F4" s="10"/>
+      <c r="G4" s="10">
         <v>1</v>
       </c>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13">
+      <c r="H4" s="10"/>
+      <c r="I4" s="10">
         <v>2</v>
       </c>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13">
+      <c r="J4" s="10"/>
+      <c r="K4" s="10">
         <v>3</v>
       </c>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13">
+      <c r="L4" s="10"/>
+      <c r="M4" s="10">
         <v>4</v>
       </c>
-      <c r="N4" s="13"/>
-      <c r="O4" s="13">
+      <c r="N4" s="10"/>
+      <c r="O4" s="10">
         <v>5</v>
       </c>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="13">
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10">
         <v>6</v>
       </c>
-      <c r="R4" s="13"/>
-      <c r="S4" s="13">
+      <c r="R4" s="10"/>
+      <c r="S4" s="10">
         <v>7</v>
       </c>
-      <c r="T4" s="13"/>
-      <c r="U4" s="13">
+      <c r="T4" s="10"/>
+      <c r="U4" s="10">
         <v>8</v>
       </c>
-      <c r="V4" s="13"/>
+      <c r="V4" s="10"/>
       <c r="W4" s="14">
         <v>9</v>
       </c>
@@ -1088,8 +4519,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="3:38" x14ac:dyDescent="0.3">
-      <c r="C5" s="10" t="s">
+    <row r="5" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="C5" s="11" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -1222,8 +4653,8 @@
         <v>5.083408164394186E-3</v>
       </c>
     </row>
-    <row r="6" spans="3:38" x14ac:dyDescent="0.3">
-      <c r="C6" s="11"/>
+    <row r="6" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="C6" s="12"/>
       <c r="D6" s="4" t="s">
         <v>10</v>
       </c>
@@ -1346,8 +4777,8 @@
         <v>1.8692101033503366E-2</v>
       </c>
     </row>
-    <row r="7" spans="3:38" x14ac:dyDescent="0.3">
-      <c r="C7" s="11"/>
+    <row r="7" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="C7" s="12"/>
       <c r="D7" s="4" t="s">
         <v>4</v>
       </c>
@@ -1470,20 +4901,20 @@
         <v>0.76018120858718652</v>
       </c>
     </row>
-    <row r="8" spans="3:38" x14ac:dyDescent="0.3">
-      <c r="C8" s="10" t="s">
+    <row r="8" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="C8" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E8" s="1">
-        <f>360-270</f>
-        <v>90</v>
+        <f>270</f>
+        <v>270</v>
       </c>
       <c r="F8" s="2">
         <f>E10*COS(RADIANS(E8))*COS(RADIANS(E9))</f>
-        <v>1.22514845490862E-16</v>
+        <v>-3.67544536472586E-16</v>
       </c>
       <c r="G8" s="1">
         <f>360-90</f>
@@ -1605,8 +5036,8 @@
         <v>1.6125885658760746E-3</v>
       </c>
     </row>
-    <row r="9" spans="3:38" x14ac:dyDescent="0.3">
-      <c r="C9" s="11"/>
+    <row r="9" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="C9" s="12"/>
       <c r="D9" s="4" t="s">
         <v>10</v>
       </c>
@@ -1615,7 +5046,7 @@
       </c>
       <c r="F9" s="5">
         <f>E10*SIN(RADIANS(E8))*COS(RADIANS(E9))</f>
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="G9" s="4">
         <v>0</v>
@@ -1729,8 +5160,8 @@
         <v>3.0999679137472761E-3</v>
       </c>
     </row>
-    <row r="10" spans="3:38" x14ac:dyDescent="0.3">
-      <c r="C10" s="12"/>
+    <row r="10" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="C10" s="13"/>
       <c r="D10" s="7" t="s">
         <v>4</v>
       </c>
@@ -1853,8 +5284,8 @@
         <v>7.2046398176726464E-2</v>
       </c>
     </row>
-    <row r="11" spans="3:38" x14ac:dyDescent="0.3">
-      <c r="C11" s="10" t="s">
+    <row r="11" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="C11" s="11" t="s">
         <v>13</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -1981,8 +5412,8 @@
         <v>1.180414670264021E-126</v>
       </c>
     </row>
-    <row r="12" spans="3:38" x14ac:dyDescent="0.3">
-      <c r="C12" s="11"/>
+    <row r="12" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="C12" s="12"/>
       <c r="D12" s="4" t="s">
         <v>10</v>
       </c>
@@ -2105,8 +5536,8 @@
         <v>6.536631405690308E-5</v>
       </c>
     </row>
-    <row r="13" spans="3:38" x14ac:dyDescent="0.3">
-      <c r="C13" s="12"/>
+    <row r="13" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="C13" s="13"/>
       <c r="D13" s="7" t="s">
         <v>4</v>
       </c>
@@ -2229,8 +5660,8 @@
         <v>5.7244626583160804E-20</v>
       </c>
     </row>
-    <row r="14" spans="3:38" x14ac:dyDescent="0.3">
-      <c r="C14" s="10" t="s">
+    <row r="14" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="C14" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D14" s="1" t="s">
@@ -2358,8 +5789,8 @@
         <v>1.5133915736616416E-4</v>
       </c>
     </row>
-    <row r="15" spans="3:38" x14ac:dyDescent="0.3">
-      <c r="C15" s="11"/>
+    <row r="15" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="C15" s="12"/>
       <c r="D15" s="4" t="s">
         <v>10</v>
       </c>
@@ -2482,8 +5913,8 @@
         <v>8.5146913316109219E-7</v>
       </c>
     </row>
-    <row r="16" spans="3:38" x14ac:dyDescent="0.3">
-      <c r="C16" s="12"/>
+    <row r="16" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="C16" s="13"/>
       <c r="D16" s="7" t="s">
         <v>4</v>
       </c>
@@ -2606,8 +6037,8 @@
         <v>1.8260434803859148E-5</v>
       </c>
     </row>
-    <row r="17" spans="3:38" x14ac:dyDescent="0.3">
-      <c r="C17" s="10" t="s">
+    <row r="17" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="C17" s="11" t="s">
         <v>15</v>
       </c>
       <c r="D17" s="1" t="s">
@@ -2737,8 +6168,8 @@
         <v>5.4639000149105197E-4</v>
       </c>
     </row>
-    <row r="18" spans="3:38" x14ac:dyDescent="0.3">
-      <c r="C18" s="11"/>
+    <row r="18" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="C18" s="12"/>
       <c r="D18" s="4" t="s">
         <v>10</v>
       </c>
@@ -2861,8 +6292,8 @@
         <v>9.6153169196355872E-5</v>
       </c>
     </row>
-    <row r="19" spans="3:38" x14ac:dyDescent="0.3">
-      <c r="C19" s="11"/>
+    <row r="19" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="C19" s="12"/>
       <c r="D19" s="4" t="s">
         <v>4</v>
       </c>
@@ -2985,16 +6416,16 @@
         <v>1.2060521011799247E-2</v>
       </c>
     </row>
-    <row r="20" spans="3:38" x14ac:dyDescent="0.3">
-      <c r="C20" s="10" t="s">
+    <row r="20" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="C20" s="11" t="s">
         <v>16</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E20" s="1">
-        <f>360-300</f>
-        <v>60</v>
+        <f>300</f>
+        <v>300</v>
       </c>
       <c r="F20" s="2">
         <f>E22*COS(RADIANS(E20))*COS(RADIANS(E21))</f>
@@ -3120,8 +6551,8 @@
         <v>5.9355938181879933E-3</v>
       </c>
     </row>
-    <row r="21" spans="3:38" x14ac:dyDescent="0.3">
-      <c r="C21" s="11"/>
+    <row r="21" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="C21" s="12"/>
       <c r="D21" s="4" t="s">
         <v>10</v>
       </c>
@@ -3130,7 +6561,7 @@
       </c>
       <c r="F21" s="5">
         <f>E22*SIN(RADIANS(E20))*COS(RADIANS(E21))</f>
-        <v>2.5586055958573297</v>
+        <v>-2.5586055958573297</v>
       </c>
       <c r="G21" s="4">
         <v>45</v>
@@ -3244,8 +6675,8 @@
         <v>1.8142336187745075E-2</v>
       </c>
     </row>
-    <row r="22" spans="3:38" x14ac:dyDescent="0.3">
-      <c r="C22" s="12"/>
+    <row r="22" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="C22" s="13"/>
       <c r="D22" s="7" t="s">
         <v>4</v>
       </c>
@@ -3368,20 +6799,20 @@
         <v>8.0713323638141529E-2</v>
       </c>
     </row>
-    <row r="23" spans="3:38" x14ac:dyDescent="0.3">
-      <c r="C23" s="10" t="s">
+    <row r="23" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="C23" s="11" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E23" s="1">
-        <f>360-120</f>
-        <v>240</v>
+        <f>120</f>
+        <v>120</v>
       </c>
       <c r="F23" s="2">
         <f>E25*COS(RADIANS(E23))*COS(RADIANS(E24))</f>
-        <v>-2.4620193825305221</v>
+        <v>-2.462019382530519</v>
       </c>
       <c r="G23" s="1">
         <f>360-90</f>
@@ -3503,8 +6934,8 @@
         <v>1.8402925217059329E-3</v>
       </c>
     </row>
-    <row r="24" spans="3:38" x14ac:dyDescent="0.3">
-      <c r="C24" s="11"/>
+    <row r="24" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="C24" s="12"/>
       <c r="D24" s="4" t="s">
         <v>10</v>
       </c>
@@ -3513,7 +6944,7 @@
       </c>
       <c r="F24" s="5">
         <f>E25*SIN(RADIANS(E23))*COS(RADIANS(E24))</f>
-        <v>-4.2643426597622147</v>
+        <v>4.2643426597622165</v>
       </c>
       <c r="G24" s="4">
         <v>45</v>
@@ -3627,8 +7058,8 @@
         <v>1.7837706038013051E-7</v>
       </c>
     </row>
-    <row r="25" spans="3:38" x14ac:dyDescent="0.3">
-      <c r="C25" s="12"/>
+    <row r="25" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="C25" s="13"/>
       <c r="D25" s="7" t="s">
         <v>4</v>
       </c>
@@ -3751,16 +7182,16 @@
         <v>0.17723514277924057</v>
       </c>
     </row>
-    <row r="26" spans="3:38" x14ac:dyDescent="0.3">
-      <c r="C26" s="10" t="s">
+    <row r="26" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="C26" s="11" t="s">
         <v>18</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E26" s="1">
-        <f>360-355</f>
-        <v>5</v>
+        <f>355</f>
+        <v>355</v>
       </c>
       <c r="F26" s="2">
         <f>E28*COS(RADIANS(E26))*COS(RADIANS(E27))</f>
@@ -3881,8 +7312,8 @@
         <v>6.2608605950086929E-9</v>
       </c>
     </row>
-    <row r="27" spans="3:38" x14ac:dyDescent="0.3">
-      <c r="C27" s="11"/>
+    <row r="27" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="C27" s="12"/>
       <c r="D27" s="4" t="s">
         <v>10</v>
       </c>
@@ -3891,7 +7322,7 @@
       </c>
       <c r="F27" s="5">
         <f>E28*SIN(RADIANS(E26))*COS(RADIANS(E27))</f>
-        <v>0.90089569150998272</v>
+        <v>-0.90089569150998428</v>
       </c>
       <c r="G27" s="4">
         <v>0</v>
@@ -4005,8 +7436,8 @@
         <v>9.7297448561518428E-5</v>
       </c>
     </row>
-    <row r="28" spans="3:38" x14ac:dyDescent="0.3">
-      <c r="C28" s="11"/>
+    <row r="28" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="C28" s="12"/>
       <c r="D28" s="4" t="s">
         <v>4</v>
       </c>
@@ -4129,8 +7560,8 @@
         <v>6.0214922549333402E-2</v>
       </c>
     </row>
-    <row r="29" spans="3:38" x14ac:dyDescent="0.3">
-      <c r="C29" s="10" t="s">
+    <row r="29" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="C29" s="11" t="s">
         <v>19</v>
       </c>
       <c r="D29" s="1" t="s">
@@ -4261,8 +7692,8 @@
         <v>8.3721633797592958E-4</v>
       </c>
     </row>
-    <row r="30" spans="3:38" x14ac:dyDescent="0.3">
-      <c r="C30" s="11"/>
+    <row r="30" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="C30" s="12"/>
       <c r="D30" s="4" t="s">
         <v>10</v>
       </c>
@@ -4385,8 +7816,8 @@
         <v>2.4773232832081472E-2</v>
       </c>
     </row>
-    <row r="31" spans="3:38" x14ac:dyDescent="0.3">
-      <c r="C31" s="12"/>
+    <row r="31" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="C31" s="13"/>
       <c r="D31" s="7" t="s">
         <v>4</v>
       </c>
@@ -4509,8 +7940,8 @@
         <v>8.2049454693274432E-2</v>
       </c>
     </row>
-    <row r="32" spans="3:38" x14ac:dyDescent="0.3">
-      <c r="C32" s="10" t="s">
+    <row r="32" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="C32" s="11" t="s">
         <v>20</v>
       </c>
       <c r="D32" s="1" t="s">
@@ -4643,8 +8074,8 @@
         <v>4.7930897628395124E-3</v>
       </c>
     </row>
-    <row r="33" spans="3:38" x14ac:dyDescent="0.3">
-      <c r="C33" s="11"/>
+    <row r="33" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="C33" s="12"/>
       <c r="D33" s="4" t="s">
         <v>10</v>
       </c>
@@ -4767,8 +8198,8 @@
         <v>1.4485013438497757E-2</v>
       </c>
     </row>
-    <row r="34" spans="3:38" x14ac:dyDescent="0.3">
-      <c r="C34" s="12"/>
+    <row r="34" spans="3:38" x14ac:dyDescent="0.25">
+      <c r="C34" s="13"/>
       <c r="D34" s="7" t="s">
         <v>4</v>
       </c>
@@ -4893,11 +8324,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="C26:C28"/>
     <mergeCell ref="C29:C31"/>
     <mergeCell ref="C32:C34"/>
     <mergeCell ref="E4:F4"/>
@@ -4913,6 +8339,11 @@
     <mergeCell ref="C17:C19"/>
     <mergeCell ref="C20:C22"/>
     <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="C26:C28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
